--- a/lyrics/earworms.xlsx
+++ b/lyrics/earworms.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjblgs\PycharmProjects\git\earworm\lyrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zspatter/Documents/GitHub/earworms/lyrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55CF1AC-DD3E-D64A-B306-F52A86905406}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$355</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$347</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="786">
-  <si>
-    <t>What Dreams Are Made Of – Lizzie McGuire</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="863">
   <si>
     <t>All Star – Smash Mouth</t>
   </si>
@@ -125,9 +123,6 @@
     <t>Bring Me to Life – Evanesence</t>
   </si>
   <si>
-    <t>MmmBop, Hanson</t>
-  </si>
-  <si>
     <t>Like A Prayer, Madonna</t>
   </si>
   <si>
@@ -176,9 +171,6 @@
     <t>The A Team- Ed Sheeran</t>
   </si>
   <si>
-    <t>'House Every Weekend' - David Zowie</t>
-  </si>
-  <si>
     <t>Barbie Girl- Aqua</t>
   </si>
   <si>
@@ -194,9 +186,6 @@
     <t>The Time Warp- The Rocky Horror Picture Show</t>
   </si>
   <si>
-    <t>Entrance of the Gladiators- Julius Fucik</t>
-  </si>
-  <si>
     <t>Blue (Da Ba Dee)- Eiffel 65</t>
   </si>
   <si>
@@ -209,9 +198,6 @@
     <t>Lollipop- The Chordettes</t>
   </si>
   <si>
-    <t>Caramelldansen by Caramella Girls</t>
-  </si>
-  <si>
     <t>1, 2 Step - Ciara - ft. Missy Elliott</t>
   </si>
   <si>
@@ -290,9 +276,6 @@
     <t>I Wanna Talk About Me - Toby Keith</t>
   </si>
   <si>
-    <t>I'm Blue - Eiffel 65</t>
-  </si>
-  <si>
     <t>I'm Too Sexy - Right Said Fred</t>
   </si>
   <si>
@@ -329,9 +312,6 @@
     <t>Never Gonna Give You Up - Rick Astley</t>
   </si>
   <si>
-    <t>Paparazzi – Lady Gaga</t>
-  </si>
-  <si>
     <t>Pocketful of Sunshine - Natasha Bedingfield</t>
   </si>
   <si>
@@ -344,9 +324,6 @@
     <t>Pump It - The Black Eyed Peas</t>
   </si>
   <si>
-    <t>Put The Lime In The Coconut - Harry Nilsson</t>
-  </si>
-  <si>
     <t>Ring of Fire – Johnny Cash</t>
   </si>
   <si>
@@ -425,9 +402,6 @@
     <t>You Spin Me Round - Dead Or Alive</t>
   </si>
   <si>
-    <t>MmmBop</t>
-  </si>
-  <si>
     <t>Like A Prayer</t>
   </si>
   <si>
@@ -485,9 +459,6 @@
     <t>The Time Warp</t>
   </si>
   <si>
-    <t>Entrance of the Gladiators</t>
-  </si>
-  <si>
     <t>Blue (Da Ba Dee)</t>
   </si>
   <si>
@@ -500,12 +471,6 @@
     <t>Lollipop</t>
   </si>
   <si>
-    <t>Caramelldansen</t>
-  </si>
-  <si>
-    <t>Caramella Girls</t>
-  </si>
-  <si>
     <t>Club Can’t Handle Me – Flo</t>
   </si>
   <si>
@@ -581,9 +546,6 @@
     <t>Frozen</t>
   </si>
   <si>
-    <t>Paparazzi</t>
-  </si>
-  <si>
     <t>Pretty Fly</t>
   </si>
   <si>
@@ -605,9 +567,6 @@
     <t>Nirvana</t>
   </si>
   <si>
-    <t>Ke$ha</t>
-  </si>
-  <si>
     <t>Tubthumping</t>
   </si>
   <si>
@@ -878,9 +837,6 @@
     <t>David Seville</t>
   </si>
   <si>
-    <t>David Zowie</t>
-  </si>
-  <si>
     <t>Dead Or Alive</t>
   </si>
   <si>
@@ -917,15 +873,6 @@
     <t>Haddaway</t>
   </si>
   <si>
-    <t>Hanson</t>
-  </si>
-  <si>
-    <t>Harry Nilsson</t>
-  </si>
-  <si>
-    <t>Julius Fucik</t>
-  </si>
-  <si>
     <t>Katy Perry</t>
   </si>
   <si>
@@ -938,9 +885,6 @@
     <t>Linkin Park</t>
   </si>
   <si>
-    <t>Lizzie McGuire</t>
-  </si>
-  <si>
     <t>Los del Rio</t>
   </si>
   <si>
@@ -1148,9 +1092,6 @@
     <t>Like a Stone</t>
   </si>
   <si>
-    <t>Airplanes (feat. Hayley Williams of Paramore)</t>
-  </si>
-  <si>
     <t>B.o.B</t>
   </si>
   <si>
@@ -1172,9 +1113,6 @@
     <t>Bebe Rexha</t>
   </si>
   <si>
-    <t>Dangerous (feat. Joywave)</t>
-  </si>
-  <si>
     <t>Big Data</t>
   </si>
   <si>
@@ -1223,9 +1161,6 @@
     <t>Blackalicious</t>
   </si>
   <si>
-    <t>I Loved You (feat. Melissa Steel)</t>
-  </si>
-  <si>
     <t>Blonde</t>
   </si>
   <si>
@@ -1241,9 +1176,6 @@
     <t>Calvin Harris &amp; Disciples</t>
   </si>
   <si>
-    <t>Havana (feat. Young Thug)</t>
-  </si>
-  <si>
     <t>Camila Cabello</t>
   </si>
   <si>
@@ -1259,21 +1191,9 @@
     <t>Childish Gambino</t>
   </si>
   <si>
-    <t>IV. Sweatpants</t>
-  </si>
-  <si>
     <t>This Is America</t>
   </si>
   <si>
-    <t>Inner Ninja (feat. David Myles)</t>
-  </si>
-  <si>
-    <t>Classified</t>
-  </si>
-  <si>
-    <t>Gangsta's Paradise (feat. L.V.)</t>
-  </si>
-  <si>
     <t>Coolio</t>
   </si>
   <si>
@@ -1283,15 +1203,9 @@
     <t>The Correspondents</t>
   </si>
   <si>
-    <t>Get Lucky (feat. Pharrell Williams &amp; Nile Rodgers)</t>
-  </si>
-  <si>
     <t>Dafk Punk</t>
   </si>
   <si>
-    <t>White Noise (feat. AlunaGeorge)</t>
-  </si>
-  <si>
     <t>Disclosure</t>
   </si>
   <si>
@@ -1310,9 +1224,6 @@
     <t>Walking On a Dream</t>
   </si>
   <si>
-    <t>Ain't Nobody (Loves Me Better) [feat. Jasmine Thompson]</t>
-  </si>
-  <si>
     <t>Felix Jaehn</t>
   </si>
   <si>
@@ -1358,9 +1269,6 @@
     <t>Me, Myself &amp; I</t>
   </si>
   <si>
-    <t>G-Eazy x Bebe Rexha</t>
-  </si>
-  <si>
     <t>Give Me the Beat</t>
   </si>
   <si>
@@ -1400,12 +1308,6 @@
     <t>Clint Eastwood</t>
   </si>
   <si>
-    <t>On Melancholy Hill</t>
-  </si>
-  <si>
-    <t>You Don't Own Me (feat. G-Eazy)</t>
-  </si>
-  <si>
     <t>Grace</t>
   </si>
   <si>
@@ -1415,9 +1317,6 @@
     <t>Elderbrook</t>
   </si>
   <si>
-    <t>Stereo Hearts (feat. Adam Levine)</t>
-  </si>
-  <si>
     <t>Gym Class Heroes</t>
   </si>
   <si>
@@ -1436,9 +1335,6 @@
     <t>Short Change Hero</t>
   </si>
   <si>
-    <t>Reverse Skydiving (feat. Anabel Englund)</t>
-  </si>
-  <si>
     <t>Hot Natured</t>
   </si>
   <si>
@@ -1475,9 +1371,6 @@
     <t>Karen Harding</t>
   </si>
   <si>
-    <t>Turn the Music Louder (feat. Tinie Tempah &amp; Katy B)</t>
-  </si>
-  <si>
     <t>KDA</t>
   </si>
   <si>
@@ -1496,9 +1389,6 @@
     <t>Eurythmics</t>
   </si>
   <si>
-    <t>Rather Be (feat. Jess Glynne)</t>
-  </si>
-  <si>
     <t>Clean Bandit</t>
   </si>
   <si>
@@ -1514,9 +1404,6 @@
     <t>Behind Blue Eyes</t>
   </si>
   <si>
-    <t>Limp Bizkit</t>
-  </si>
-  <si>
     <t>Shameless</t>
   </si>
   <si>
@@ -1745,9 +1632,6 @@
     <t>Careless Whisper</t>
   </si>
   <si>
-    <t>George Michael</t>
-  </si>
-  <si>
     <t>Out of Control</t>
   </si>
   <si>
@@ -1946,9 +1830,6 @@
     <t>Paradise</t>
   </si>
   <si>
-    <t>Clocks</t>
-  </si>
-  <si>
     <t>Viva La Vida</t>
   </si>
   <si>
@@ -2054,15 +1935,9 @@
     <t>Witch Doctor</t>
   </si>
   <si>
-    <t>'House Every Weekend'</t>
-  </si>
-  <si>
     <t>You Spin Me Round</t>
   </si>
   <si>
-    <t>I'm Blue</t>
-  </si>
-  <si>
     <t>Lose Yourself</t>
   </si>
   <si>
@@ -2087,9 +1962,6 @@
     <t>What is Love</t>
   </si>
   <si>
-    <t>Put The Lime In The Coconut</t>
-  </si>
-  <si>
     <t>Don't Stop Believin'</t>
   </si>
   <si>
@@ -2108,9 +1980,6 @@
     <t>In The End</t>
   </si>
   <si>
-    <t>What Dreams Are Made Of</t>
-  </si>
-  <si>
     <t>Macarena</t>
   </si>
   <si>
@@ -2246,16 +2115,10 @@
     <t>Baby Got Back</t>
   </si>
   <si>
-    <t>3005</t>
-  </si>
-  <si>
     <t>1979</t>
   </si>
   <si>
     <t>Ciara</t>
-  </si>
-  <si>
-    <t>1, 2 Step (feat. Missy Elliott)</t>
   </si>
   <si>
     <t>Amish Paradise</t>
@@ -2500,11 +2363,660 @@
 And if you only hold me tight
 We'll be holding on forever</t>
   </si>
+  <si>
+    <t>It was an itsy bitsy teenie weenie yellow polka dot bikini
+That she wore for the first time today</t>
+  </si>
+  <si>
+    <t>When I'm not with you, I lose my mind
+Give me a sign
+Hit me baby one more time</t>
+  </si>
+  <si>
+    <t>Players only, come on
+Put your pinky rings up to the moon
+Hey girls
+What y'all trying to do?
+24 karat magic in the air</t>
+  </si>
+  <si>
+    <t>Oh there ain't no rest for the wicked
+Money don't grow on trees
+I got bills to pay, I got mouths to feed
+There ain't nothing in this world for free</t>
+  </si>
+  <si>
+    <t>How deep is your love?
+Is it like the ocean?
+What devotion are you?
+How deep is your love?
+Is it like nirvana?
+Hit me harder again
+How deep is your love?</t>
+  </si>
+  <si>
+    <t>Havana, ooh na-na (ayy)
+Half of my heart is in Havana, ooh na-na (ayy, ayy)
+He took me back to East Atlanta, na-na-na, ah</t>
+  </si>
+  <si>
+    <t>Baby, can you move it round the rhythm?
+So we can get with 'em
+To the crowd, and get us a rock and roll 'round</t>
+  </si>
+  <si>
+    <t>Everybody was kung-fu fighting
+Those kicks were fast as lightning
+In fact it was a little bit frightening
+But they fought with expert timing</t>
+  </si>
+  <si>
+    <t>Hey, I just met you, and this is crazy
+But here's my number, so call me maybe</t>
+  </si>
+  <si>
+    <t>Near, far, wherever you are
+I believe that the heart does go on
+Once more you open the door
+And you're here in my heart
+And my heart will go on and on</t>
+  </si>
+  <si>
+    <t>Do you believe in life after love?
+I can feel something inside me say
+I really don't think you're strong enough, no
+Do you believe in life after love?</t>
+  </si>
+  <si>
+    <t>V. 3005</t>
+  </si>
+  <si>
+    <t>No matter what you say or what you do
+When I'm alone, I'd rather be with you
+Fuck these other niggas, I'll be right by your side
+'Til 3005, hol' up</t>
+  </si>
+  <si>
+    <t>Daylight
+I wake up feeling like you won't play right
+I used to know, but now that shit don't feel right
+It made me put away my pride</t>
+  </si>
+  <si>
+    <t>This is America
+Don't catch you slippin' now
+Don't catch you slippin' now
+Look what I'm whippin' now
+This is America (woo)</t>
+  </si>
+  <si>
+    <t>Come on baby let's do the twist
+Come on baby let's do the twist
+Take me by my little hand and go like this</t>
+  </si>
+  <si>
+    <t>I get knocked down, but I get up again
+You're never gonna keep me down
+I get knocked down, but I get up again
+You're never gonna keep me down</t>
+  </si>
+  <si>
+    <t>Rock it, don't stop it
+Everybody get on the floor
+Crank the party up
+We about to get it on
+Let me see you 1, 2 step
+I love it when you 1, 2 step</t>
+  </si>
+  <si>
+    <t>Oh, girls, they wanna have fun
+Oh, girls just wanna have fun
+Girls, they want, wanna have fun
+Girls, wanna have—</t>
+  </si>
+  <si>
+    <t>Airplanes</t>
+  </si>
+  <si>
+    <t>Dangerous</t>
+  </si>
+  <si>
+    <t>I Loved You</t>
+  </si>
+  <si>
+    <t>Havana</t>
+  </si>
+  <si>
+    <t>1, 2 Step</t>
+  </si>
+  <si>
+    <t>Rather Be</t>
+  </si>
+  <si>
+    <t>Know with all of your heart, you can't shake me
+When I am with you, there's no place I'd rather be
+N-n-n-no, no, no, no place I rather be</t>
+  </si>
+  <si>
+    <t>Lights will guide you home
+And ignite your bones
+And I will try to fix you</t>
+  </si>
+  <si>
+    <t>You said drink from me, drink from me
+When I was so thirsty
+Poured on a symphony
+Now I just can't get enough</t>
+  </si>
+  <si>
+    <t>And dream of para-para-paradise
+Para-para-paradise
+Para-para-paradise
+Oh-oh-oh-oh-oh-oh-oh-oh</t>
+  </si>
+  <si>
+    <t>I hear Jerusalem bells a-ringing
+Roman Cavalry choirs are singing
+Be my mirror, my sword and shield
+My missionaries in a foreign field</t>
+  </si>
+  <si>
+    <t>Gangsta's Paradise</t>
+  </si>
+  <si>
+    <t>Been spendin' most their lives livin' in the gangsta's paradise
+Been spendin' most their lives livin' in the gangsta's paradise</t>
+  </si>
+  <si>
+    <t>Get Lucky</t>
+  </si>
+  <si>
+    <t>We've come too far
+To give up who we are
+So let's raise the bar
+And our cups to the stars</t>
+  </si>
+  <si>
+    <t>Ooo eee, ooo ah ah ting tang
+Walla walla, bing bang
+Ooo eee, ooo ah ah ting tang
+Walla walla, bing bang</t>
+  </si>
+  <si>
+    <t>You spin me right 'round, baby, right 'round
+Like a record, baby, right 'round, 'round, 'round</t>
+  </si>
+  <si>
+    <t>Just noise, white noise
+Just noise, white noise
+I'm hearing static, you're like an automatic
+You just wanna keep me on repeat and hear me crying</t>
+  </si>
+  <si>
+    <t>White Noise</t>
+  </si>
+  <si>
+    <t>It's a small world after all
+It's a small world after all
+It's a small world after all
+It's a small, small world</t>
+  </si>
+  <si>
+    <t>Ooh, ah, ah
+Ah, ya, ya, ya, ya, I keep on hopin' we'll eat cake by the ocean</t>
+  </si>
+  <si>
+    <t>I'm in love with the shape of you
+We push and pull like a magnet do
+Although my heart is falling too
+I'm in love with your body</t>
+  </si>
+  <si>
+    <t>Cause we're just under the upper hand
+And go mad for a couple of grams
+And she don't want to go outside tonight</t>
+  </si>
+  <si>
+    <t>I'm Blue – da ba dee da ba dye, da ba dee da ba dye
+Da ba dee da ba dye, da ba dee da ba dye
+Da ba dee da ba dye, da ba dee da ba dye
+Da ba dee da ba dye</t>
+  </si>
+  <si>
+    <t>But it's just like an old friend
+Coming up, yeah, I know them
+Drop top in the driveway
+Locked up 'cause it's slow then</t>
+  </si>
+  <si>
+    <t>You ain't nothing but a hound dog
+Crying all the time
+You ain't nothing but a hound dog
+Crying all the time</t>
+  </si>
+  <si>
+    <t>You better lose yourself in the music
+The moment, you own it, you better never let it go
+You only get one shot, do not miss your chance to blow</t>
+  </si>
+  <si>
+    <t>Don't want to talk
+All I hear is noise
+Don't want to talk
+Don't want to talk
+All I hear is noise
+Don't want to talk</t>
+  </si>
+  <si>
+    <t>We are always running for the thrill of it, thrill of it
+Always pushing up the hill, searching for the thrill of it</t>
+  </si>
+  <si>
+    <t>We are the people that rule the world
+A force running in every boy and girl
+All rejoicing in the world
+Take me now, we can try</t>
+  </si>
+  <si>
+    <t>It's the final countdown
+The final countdown
+The final countdown (final countdown)</t>
+  </si>
+  <si>
+    <t>Sweet dreams are made of this
+Who am I to disagree?
+I've traveled the world and the seven seas
+Everybody's lookin' for something</t>
+  </si>
+  <si>
+    <t>Wake me up, Wake me up inside
+I can't wake up ,Wake me up inside
+Save me, Call my name and save me from the dark</t>
+  </si>
+  <si>
+    <t>Ain't Nobody (Loves Me Better)</t>
+  </si>
+  <si>
+    <t>Ain't nobody
+Loves me better
+Makes me happy
+Makes me feel this way
+Ain't nobody
+Loves me better than you</t>
+  </si>
+  <si>
+    <t>If I traded it all
+If I gave it all away for one thing
+Just for one thing
+If I sorted it out
+If I knew all about this one thing
+Wouldn’t that be something</t>
+  </si>
+  <si>
+    <t>Well, I'm not paralyzed, but I seem to be struck by you
+I wanna make you move because you're standing still</t>
+  </si>
+  <si>
+    <t>Cause you don't even know
+I can make your hands clap
+Said I can make your hands clap</t>
+  </si>
+  <si>
+    <t>So much pain, we
+Don't know how to be but angry
+Feel infected, like we've got gangrene
+Please don't let anybody try to change me</t>
+  </si>
+  <si>
+    <t>Look at me, look at me
+Hands in the air like it's good to be
+Alive, and I'm a famous rapper
+Even when the paths are all crooked-y</t>
+  </si>
+  <si>
+    <t>If everything could ever feel this real forever
+If anything could ever be this good again
+The only thing I'll ever ask of you</t>
+  </si>
+  <si>
+    <t>What if I say I'm not like the others?
+What if I say I'm not just another one of your plays?
+You're the pretender
+What if I say I will never surrender?</t>
+  </si>
+  <si>
+    <t>Stacy's mom has got it going on
+She's all I want and I've waited for so long
+Stacy, can't you see? You're just not the girl for me</t>
+  </si>
+  <si>
+    <t>I say, don't you know? You say you don't know
+I say: take me out
+I say, you don't show, don't move, time is slow
+I say: take me out</t>
+  </si>
+  <si>
+    <t>First thing on my list go figure
+Its a brand new John Cena action figure
+Second thing on my list guess what
+Its a a really cute girl with a really cute butt</t>
+  </si>
+  <si>
+    <t>Let it go, let it go
+Can't hold it back anymore
+Let it go, let it go
+Turn away and slam the door!</t>
+  </si>
+  <si>
+    <t>Oh, it's just me, myself and I
+Solo ride until I die
+‘Cause I got me for life (yeah)</t>
+  </si>
+  <si>
+    <t>G-Eazy</t>
+  </si>
+  <si>
+    <t>I'm never gonna dance again, guilty feet have got no rhythm
+Though it's easy to pretend, I know you're not a fool</t>
+  </si>
+  <si>
+    <t>Wham!</t>
+  </si>
+  <si>
+    <t>Bad to the bone
+Bad to the bone
+B-B-B-B-Bad
+B-B-B-B-Bad
+B-B-B-B-Bad
+Bad to the bone</t>
+  </si>
+  <si>
+    <t>Just give me the beat
+That's all I need
+Just give me the beat
+That's all I need</t>
+  </si>
+  <si>
+    <t>I'm a ba-a-a-ad woman to keep
+Make me ma-a-a-ad, I'm not here to please
+Paint me in a corner but my color comes back
+Once you go black, you never go back</t>
+  </si>
+  <si>
+    <t>Oh my god, I've been beaten in the game of love
+I've had two years in heaven but five weeks in hell
+Where do I go now</t>
+  </si>
+  <si>
+    <t>Oh no, not I, I will survive
+Oh, as long as I know how to love, I know I'll stay alive</t>
+  </si>
+  <si>
+    <t>Does that make me crazy?
+Does that make me crazy?
+Does that make me crazy?
+Possibly</t>
+  </si>
+  <si>
+    <t>I need you to use, use, use, use
+Use, use your imagination
+I need you to use, use, use, use
+Use, use your imagination</t>
+  </si>
+  <si>
+    <t>I ain't happy, I'm feeling glad
+I got sunshine in a bag
+I'm useless, but not for long
+The future is coming on</t>
+  </si>
+  <si>
+    <t>You've got to press it on you
+You've just been thinking
+That's what you do, baby
+Hold it down, there</t>
+  </si>
+  <si>
+    <t>Windmill, windmill for the land
+Turn forever hand in hand
+Take it all there on your stride
+It is aching, falling down</t>
+  </si>
+  <si>
+    <t>You Don't Own Me</t>
+  </si>
+  <si>
+    <t>Don't tell me what to do
+And don't tell me what to say
+Please, when I go out with you
+Don't put me on display</t>
+  </si>
+  <si>
+    <t>You're the one that I want (you are the one I want)
+Oo-oo-oo, honey
+The one that I want (you are the one I want)
+Oo-oo-oo, honey</t>
+  </si>
+  <si>
+    <t>A few times I've been around that track
+So it's not just gonna happen like that
+'Cause I ain't no Hollaback Girl
+I ain't no Hollaback Girl</t>
+  </si>
+  <si>
+    <t>Stereo Hearts</t>
+  </si>
+  <si>
+    <t>My heart's a stereo
+It beats for you, so listen close
+Hear my thoughts in every no—
+Oh—ote</t>
+  </si>
+  <si>
+    <t>What is love?
+Oh, baby, don't hurt me
+Don't hurt me no more
+What is love?
+Oh, baby, don't hurt me
+Don't hurt me no more</t>
+  </si>
+  <si>
+    <t>I'm bad at love (Ooh-ooh)
+But you can't blame me for tryin'
+You know I'd be lyin' sayin'
+You were the one (Ooh-ooh)</t>
+  </si>
+  <si>
+    <t>Reverse Skydiving</t>
+  </si>
+  <si>
+    <t>Flying, climbing
+This is what I feel when I'm reverse skydiving
+Neptune, shining
+Frying all the elements as they're combining</t>
+  </si>
+  <si>
+    <t>Take me to church
+I'll worship like a dog at the shrine of your lies
+I'll tell you my sins and you can sharpen your knife
+Offer me that deathless death</t>
+  </si>
+  <si>
+    <t>Pain! You made me a, you made me a believer, believer
+Pain! You break me down and build me up, believer, believer</t>
+  </si>
+  <si>
+    <t>Natural
+A beating heart of stone
+You gotta be so cold
+To make it in this world</t>
+  </si>
+  <si>
+    <t>Whatever tomorrow brings I’ll be there
+With open arms and open eyes, yeah
+Whatever tomorrow brings I’ll be there
+I’ll be there</t>
+  </si>
+  <si>
+    <t>(If you wanna be)
+Oh, you know we are the Infinity
+(And if you wanna see)
+Oh, you know we are the Infinity</t>
+  </si>
+  <si>
+    <t>Right here, you've got me where you want me now
+I'm right here, waiting for you calling now
+Right here, you've got me where you want me now</t>
+  </si>
+  <si>
+    <t>I fell into a burning ring of fire
+I went down, down, down
+And the flames went higher
+And it burns, burns, burns
+The ring of fire</t>
+  </si>
+  <si>
+    <t>Don't stop believin'
+Hold on to that feeling
+Streetlights, people
+Ohohohhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>Baby, if you wanna say something, say it now
+Cause I ain't got the time to be waiting around
+Come on, tell me what you're feeling, use your mouth</t>
+  </si>
+  <si>
+    <t>You make me feel like I'm living a teenage dream
+The way you turn me on
+I can't sleep
+Let's run away and don't ever look back
+Don't ever look back</t>
+  </si>
+  <si>
+    <t>Turn the Music Louder</t>
+  </si>
+  <si>
+    <t>You got me feeling for your power
+Turn the music louder, let me feel it
+Ooh-ooh-ooh-ooh-ooh-ooh-ooh</t>
+  </si>
+  <si>
+    <t>Kesha</t>
+  </si>
+  <si>
+    <t>Don't stop, make it pop
+DJ, blow my speakers up
+Tonight, I'ma fight
+Till we see the sunlight
+Tick tock on the clock
+But the party don't stop, no</t>
+  </si>
+  <si>
+    <t>My milkshake brings all the boys to the yard
+And they're like, it's better than yours
+Damn right it's better than yours
+I can teach you, but I have to charge</t>
+  </si>
+  <si>
+    <t>But since you been gone
+I can breathe for the first time
+I'm so moving on, yeah, yeah
+Thanks to you, now I get what I want
+Since you been gone</t>
+  </si>
+  <si>
+    <t>Send me your location, let's
+Focus on communicating
+'Cause I just need the time and place to come through (place to come through)</t>
+  </si>
+  <si>
+    <t>Baby, I love the way that there's nothing sure
+Baby, don't stop me
+Hideaway with me some more
+Hideaway with me some more</t>
+  </si>
+  <si>
+    <t>Whoa, come with me now
+I'm gonna take you down
+Whoa, come with me now
+I'm gonna show you how</t>
+  </si>
+  <si>
+    <t>I want your love, and I want your revenge
+You and me could write a bad romance
+Oh-oh-oh-oh-oh</t>
+  </si>
+  <si>
+    <t>Pokeface</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Born This Way</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Don't call my name, don't call my name, Alejandro
+I'm not your babe, I'm not your babe, Fernando
+Don't wanna kiss, don't wanna touch</t>
+  </si>
+  <si>
+    <t>Just dance
+Gonna be okay
+Da-da-doo-doot-n, just dance
+Spin that record, babe
+Da-da-doo-doot-n, just dance</t>
+  </si>
+  <si>
+    <t>I'm beautiful in my way
+'Cause God makes no mistakes
+I'm on the right track, baby
+I was born this way</t>
+  </si>
+  <si>
+    <t>Stop calling, stop calling, I don't wanna think anymore
+I left my head and my heart on the dance floor</t>
+  </si>
+  <si>
+    <t>Can't read my, can't read my
+No, he can't read my poker face
+(She’s got me like nobody)</t>
+  </si>
+  <si>
+    <t>I got the horses in the back
+Horse tack is attached
+Hat is matte black
+Got the boots that's black to match</t>
+  </si>
+  <si>
+    <t>The Who</t>
+  </si>
+  <si>
+    <t>But my dreams, they aren't as empty
+As my conscience seems to be
+I have hours, only lonely
+My love is vengeance that's never free</t>
+  </si>
+  <si>
+    <t>I tried so hard and got so far
+But in the end, it doesn't even matter
+I had to fall to lose it all
+But in the end, it doesn't even matter</t>
+  </si>
+  <si>
+    <t>I don’t want to be famous
+If I got to be shameless
+If you don’t know what my name is
+So what, so what?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2534,7 +3046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2542,6 +3054,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2868,2085 +3383,2370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H355"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141:XFD141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>657</v>
+        <v>617</v>
       </c>
       <c r="E1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>658</v>
+        <v>618</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E2">
         <f>LEN(D2)</f>
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>745</v>
+        <v>699</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E62" si="0">LEN(D3)</f>
+        <f t="shared" ref="E3:E59" si="0">LEN(D3)</f>
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>746</v>
+        <v>700</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>747</v>
+        <v>701</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>735</v>
+        <v>691</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>748</v>
+        <v>702</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C7" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>749</v>
+        <v>703</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="C8" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>750</v>
+        <v>704</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C9" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>751</v>
+        <v>705</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>752</v>
+        <v>706</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>753</v>
+        <v>707</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C12" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>754</v>
+        <v>708</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>755</v>
+        <v>709</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>756</v>
+        <v>710</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>757</v>
+        <v>711</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>660</v>
+        <v>620</v>
       </c>
       <c r="C16" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>758</v>
+        <v>712</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>371</v>
+        <v>759</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>759</v>
+        <v>713</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
       <c r="C18" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>760</v>
+        <v>714</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>629</v>
+        <v>590</v>
       </c>
       <c r="C19" t="s">
-        <v>630</v>
+        <v>591</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>761</v>
+        <v>715</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C20" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>762</v>
+        <v>716</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="C21" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>763</v>
+        <v>717</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="C22" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>764</v>
+        <v>718</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C23" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>765</v>
+        <v>719</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>379</v>
+        <v>760</v>
       </c>
       <c r="C24" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>769</v>
+        <v>723</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>663</v>
+        <v>623</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>770</v>
+        <v>724</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C26" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>771</v>
+        <v>725</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C27" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>772</v>
+        <v>726</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C28" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>773</v>
+        <v>727</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C29" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>774</v>
+        <v>728</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C30" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>775</v>
+        <v>729</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C31" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>776</v>
+        <v>730</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="C32" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>777</v>
+        <v>731</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="C33" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>778</v>
+        <v>732</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>664</v>
+        <v>624</v>
       </c>
       <c r="C34" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>779</v>
+        <v>733</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>396</v>
+        <v>761</v>
       </c>
       <c r="C35" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>780</v>
+        <v>734</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>784</v>
+        <v>738</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>631</v>
+        <v>592</v>
       </c>
       <c r="C37" t="s">
-        <v>632</v>
+        <v>593</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>781</v>
+        <v>735</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>782</v>
+        <v>736</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>783</v>
+        <v>737</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
       <c r="C40" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>785</v>
+        <v>739</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>666</v>
+        <v>626</v>
       </c>
       <c r="C41" t="s">
-        <v>271</v>
+        <v>257</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>740</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="C42" t="s">
-        <v>272</v>
+        <v>258</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>741</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>633</v>
+        <v>594</v>
       </c>
       <c r="C43" t="s">
-        <v>634</v>
+        <v>595</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>742</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="C44" t="s">
-        <v>399</v>
+        <v>377</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>743</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="C45" t="s">
-        <v>401</v>
+        <v>379</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>744</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>402</v>
+        <v>762</v>
       </c>
       <c r="C46" t="s">
-        <v>403</v>
+        <v>380</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>745</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>382</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>746</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
       <c r="B48" t="s">
-        <v>404</v>
+        <v>628</v>
       </c>
       <c r="C48" t="s">
-        <v>405</v>
+        <v>259</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>747</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>668</v>
+        <v>629</v>
       </c>
       <c r="C49" t="s">
-        <v>273</v>
+        <v>260</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>748</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>669</v>
+        <v>630</v>
       </c>
       <c r="C50" t="s">
-        <v>274</v>
+        <v>261</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>749</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>670</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>275</v>
+        <v>262</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>750</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>35</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>135</v>
+        <v>751</v>
       </c>
       <c r="C52" t="s">
-        <v>276</v>
+        <v>384</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>752</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>737</v>
+        <v>383</v>
       </c>
       <c r="C53" t="s">
-        <v>407</v>
+        <v>384</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>753</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
-        <v>407</v>
+        <v>384</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>754</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>202</v>
+      </c>
       <c r="B55" t="s">
-        <v>406</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
-        <v>407</v>
+        <v>263</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>755</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
       <c r="B56" t="s">
-        <v>409</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>407</v>
+        <v>178</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>756</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>763</v>
       </c>
       <c r="C57" t="s">
-        <v>277</v>
+        <v>694</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>757</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>631</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>264</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>758</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="C59" t="s">
-        <v>739</v>
+        <v>451</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>765</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>671</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>278</v>
+        <v>265</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>766</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E60:E117" si="1">LEN(D60)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>410</v>
+        <v>596</v>
       </c>
       <c r="C61" t="s">
-        <v>411</v>
+        <v>265</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>767</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>487</v>
+        <v>597</v>
       </c>
       <c r="C62" t="s">
-        <v>488</v>
+        <v>265</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>768</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>637</v>
+        <v>598</v>
       </c>
       <c r="C63" t="s">
-        <v>279</v>
+        <v>265</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="E63">
-        <f t="shared" ref="E63:E126" si="1">LEN(D63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>44</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>144</v>
+        <v>770</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
+        <v>386</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="E64">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>635</v>
+        <v>772</v>
       </c>
       <c r="C65" t="s">
-        <v>279</v>
+        <v>389</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>773</v>
       </c>
       <c r="E65">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
       <c r="B66" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C66" t="s">
-        <v>279</v>
+        <v>266</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>774</v>
       </c>
       <c r="E66">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>121</v>
+      </c>
       <c r="B67" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C67" t="s">
-        <v>279</v>
+        <v>267</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>775</v>
       </c>
       <c r="E67">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>412</v>
+        <v>777</v>
       </c>
       <c r="C68" t="s">
-        <v>413</v>
+        <v>390</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>776</v>
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>208</v>
+      </c>
       <c r="B69" t="s">
-        <v>416</v>
+        <v>209</v>
       </c>
       <c r="C69" t="s">
-        <v>417</v>
+        <v>268</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>778</v>
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>127</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>672</v>
+        <v>391</v>
       </c>
       <c r="C70" t="s">
-        <v>280</v>
+        <v>392</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>779</v>
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>47</v>
-      </c>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>673</v>
+        <v>240</v>
       </c>
       <c r="C71" t="s">
-        <v>281</v>
+        <v>241</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>780</v>
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>674</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
-        <v>282</v>
+        <v>241</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>781</v>
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
       <c r="B73" t="s">
-        <v>418</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>419</v>
+        <v>269</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>782</v>
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>222</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>223</v>
+        <v>425</v>
       </c>
       <c r="C74" t="s">
-        <v>283</v>
+        <v>426</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>783</v>
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
       <c r="B75" t="s">
-        <v>420</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>421</v>
+        <v>270</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>784</v>
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
       <c r="B76" t="s">
-        <v>254</v>
+        <v>634</v>
       </c>
       <c r="C76" t="s">
-        <v>255</v>
+        <v>271</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>785</v>
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>46</v>
-      </c>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>145</v>
+        <v>448</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>394</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>786</v>
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>54</v>
-      </c>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>151</v>
+        <v>395</v>
       </c>
       <c r="C78" t="s">
-        <v>284</v>
+        <v>394</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>787</v>
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>85</v>
-      </c>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>675</v>
+        <v>393</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
+        <v>394</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>788</v>
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>104</v>
+      </c>
       <c r="B80" t="s">
-        <v>458</v>
+        <v>635</v>
       </c>
       <c r="C80" t="s">
-        <v>459</v>
+        <v>272</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>789</v>
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>37</v>
-      </c>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>450</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>790</v>
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>676</v>
+        <v>636</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>273</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>791</v>
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>484</v>
+        <v>792</v>
       </c>
       <c r="C83" t="s">
-        <v>423</v>
+        <v>396</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>793</v>
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>424</v>
+        <v>599</v>
       </c>
       <c r="C84" t="s">
-        <v>423</v>
+        <v>398</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>794</v>
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C85" t="s">
-        <v>423</v>
+        <v>398</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>795</v>
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>112</v>
-      </c>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>677</v>
+        <v>399</v>
       </c>
       <c r="C86" t="s">
-        <v>287</v>
+        <v>400</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>796</v>
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>485</v>
+        <v>401</v>
       </c>
       <c r="C87" t="s">
-        <v>486</v>
+        <v>402</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>798</v>
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>29</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>678</v>
+        <v>403</v>
       </c>
       <c r="C88" t="s">
-        <v>288</v>
+        <v>402</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>797</v>
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>425</v>
+        <v>600</v>
       </c>
       <c r="C89" t="s">
-        <v>426</v>
+        <v>405</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>799</v>
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>639</v>
+        <v>404</v>
       </c>
       <c r="C90" t="s">
-        <v>428</v>
+        <v>405</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>800</v>
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
       <c r="B91" t="s">
-        <v>427</v>
+        <v>637</v>
       </c>
       <c r="C91" t="s">
-        <v>428</v>
+        <v>274</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>801</v>
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="C92" t="s">
-        <v>430</v>
+        <v>407</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>802</v>
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="C93" t="s">
-        <v>432</v>
+        <v>409</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>803</v>
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>87</v>
+      </c>
       <c r="B94" t="s">
-        <v>433</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
-        <v>432</v>
+        <v>169</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>804</v>
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>640</v>
+        <v>410</v>
       </c>
       <c r="C95" t="s">
-        <v>435</v>
+        <v>806</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>805</v>
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>434</v>
+        <v>531</v>
       </c>
       <c r="C96" t="s">
-        <v>435</v>
+        <v>808</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>807</v>
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>679</v>
+        <v>638</v>
       </c>
       <c r="C97" t="s">
-        <v>289</v>
+        <v>275</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>809</v>
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C98" t="s">
-        <v>437</v>
+        <v>412</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>810</v>
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="C99" t="s">
-        <v>439</v>
+        <v>414</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>93</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>180</v>
+        <v>415</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>414</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>812</v>
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
       <c r="B101" t="s">
-        <v>440</v>
+        <v>639</v>
       </c>
       <c r="C101" t="s">
-        <v>441</v>
+        <v>276</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>813</v>
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>569</v>
+        <v>417</v>
       </c>
       <c r="C102" t="s">
-        <v>570</v>
+        <v>416</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>814</v>
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>64</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>680</v>
+        <v>418</v>
       </c>
       <c r="C103" t="s">
-        <v>290</v>
+        <v>419</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>815</v>
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C104" t="s">
-        <v>443</v>
+        <v>421</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>816</v>
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="C105" t="s">
-        <v>445</v>
+        <v>421</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>817</v>
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="C106" t="s">
-        <v>445</v>
+        <v>421</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>818</v>
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>8</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>681</v>
+        <v>819</v>
       </c>
       <c r="C107" t="s">
-        <v>291</v>
+        <v>424</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>820</v>
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
       <c r="B108" t="s">
-        <v>448</v>
+        <v>186</v>
       </c>
       <c r="C108" t="s">
-        <v>447</v>
+        <v>187</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>821</v>
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>27</v>
+      </c>
       <c r="B109" t="s">
-        <v>449</v>
+        <v>640</v>
       </c>
       <c r="C109" t="s">
-        <v>450</v>
+        <v>277</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>822</v>
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>454</v>
+        <v>823</v>
       </c>
       <c r="C110" t="s">
-        <v>452</v>
+        <v>427</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>824</v>
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
       <c r="B111" t="s">
-        <v>453</v>
+        <v>641</v>
       </c>
       <c r="C111" t="s">
-        <v>452</v>
+        <v>278</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>825</v>
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="C112" t="s">
-        <v>452</v>
+        <v>429</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>826</v>
       </c>
       <c r="E112">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>455</v>
+        <v>827</v>
       </c>
       <c r="C113" t="s">
-        <v>452</v>
+        <v>433</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="E113">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>456</v>
+        <v>234</v>
       </c>
       <c r="C114" t="s">
-        <v>457</v>
+        <v>235</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>829</v>
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>26</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>200</v>
+        <v>434</v>
       </c>
       <c r="C115" t="s">
-        <v>201</v>
+        <v>435</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>830</v>
       </c>
       <c r="E115">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>28</v>
-      </c>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>682</v>
+        <v>436</v>
       </c>
       <c r="C116" t="s">
-        <v>292</v>
+        <v>435</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>831</v>
       </c>
       <c r="E116">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="C117" t="s">
-        <v>461</v>
+        <v>438</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>832</v>
       </c>
       <c r="E117">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>121</v>
-      </c>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>683</v>
+        <v>439</v>
       </c>
       <c r="C118" t="s">
-        <v>293</v>
+        <v>440</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>833</v>
       </c>
       <c r="E118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E118:E182" si="2">LEN(D118)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="C119" t="s">
-        <v>463</v>
+        <v>442</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>834</v>
       </c>
       <c r="E119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="C120" t="s">
-        <v>294</v>
+        <v>173</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>835</v>
       </c>
       <c r="E120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>684</v>
+        <v>642</v>
       </c>
       <c r="C121" t="s">
-        <v>295</v>
+        <v>156</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>836</v>
       </c>
       <c r="E121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="C122" t="s">
-        <v>468</v>
+        <v>444</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="E122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
       <c r="B123" t="s">
-        <v>248</v>
+        <v>643</v>
       </c>
       <c r="C123" t="s">
-        <v>249</v>
+        <v>279</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>838</v>
       </c>
       <c r="E123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>469</v>
+        <v>839</v>
       </c>
       <c r="C124" t="s">
-        <v>470</v>
+        <v>445</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="E124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
       <c r="B125" t="s">
-        <v>471</v>
+        <v>644</v>
       </c>
       <c r="C125" t="s">
-        <v>470</v>
+        <v>841</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>842</v>
       </c>
       <c r="E125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>22</v>
+      </c>
       <c r="B126" t="s">
-        <v>472</v>
+        <v>645</v>
       </c>
       <c r="C126" t="s">
-        <v>473</v>
+        <v>280</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>843</v>
       </c>
       <c r="E126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>34</v>
+      </c>
       <c r="B127" t="s">
-        <v>474</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>475</v>
+        <v>281</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>844</v>
       </c>
       <c r="E127">
-        <f t="shared" ref="E127:E190" si="2">LEN(D127)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="C128" t="s">
-        <v>477</v>
+        <v>447</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="E128">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>104</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>185</v>
+        <v>452</v>
       </c>
       <c r="C129" t="s">
-        <v>186</v>
+        <v>453</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>846</v>
       </c>
       <c r="E129">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>4</v>
-      </c>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>685</v>
+        <v>605</v>
       </c>
       <c r="C130" t="s">
-        <v>168</v>
+        <v>606</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>847</v>
       </c>
       <c r="E130">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>53</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>150</v>
+        <v>852</v>
       </c>
       <c r="C131" t="s">
-        <v>296</v>
+        <v>167</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>853</v>
       </c>
       <c r="E131">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
       <c r="B132" t="s">
-        <v>478</v>
+        <v>646</v>
       </c>
       <c r="C132" t="s">
-        <v>479</v>
+        <v>167</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>848</v>
       </c>
       <c r="E132">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B133" t="s">
-        <v>686</v>
+        <v>166</v>
       </c>
       <c r="C133" t="s">
-        <v>297</v>
+        <v>167</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>854</v>
       </c>
       <c r="E133">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>480</v>
+        <v>851</v>
       </c>
       <c r="C134" t="s">
-        <v>481</v>
+        <v>167</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>855</v>
       </c>
       <c r="E134">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>18</v>
-      </c>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>687</v>
+        <v>850</v>
       </c>
       <c r="C135" t="s">
-        <v>190</v>
+        <v>167</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>856</v>
       </c>
       <c r="E135">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>23</v>
-      </c>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>688</v>
+        <v>849</v>
       </c>
       <c r="C136" t="s">
-        <v>298</v>
+        <v>167</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>857</v>
       </c>
       <c r="E136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>36</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>136</v>
+        <v>353</v>
       </c>
       <c r="C137" t="s">
-        <v>299</v>
+        <v>354</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>858</v>
       </c>
       <c r="E137">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="C138" t="s">
-        <v>483</v>
+        <v>859</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>860</v>
       </c>
       <c r="E138">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>81</v>
+      </c>
       <c r="B139" t="s">
-        <v>489</v>
+        <v>647</v>
       </c>
       <c r="C139" t="s">
-        <v>490</v>
+        <v>282</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>861</v>
       </c>
       <c r="E139">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>645</v>
+        <v>456</v>
       </c>
       <c r="C140" t="s">
-        <v>646</v>
+        <v>457</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>862</v>
       </c>
       <c r="E140">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>12</v>
-      </c>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>689</v>
+        <v>468</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="D141" s="2"/>
       <c r="E141">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>90</v>
-      </c>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>178</v>
+        <v>470</v>
       </c>
       <c r="C142" t="s">
-        <v>179</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="D142" s="2"/>
       <c r="E142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>98</v>
-      </c>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>182</v>
+        <v>465</v>
       </c>
       <c r="C143" t="s">
-        <v>179</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="D143" s="2"/>
       <c r="E143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>373</v>
+        <v>460</v>
       </c>
       <c r="C144" t="s">
-        <v>374</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="D144" s="2"/>
       <c r="E144">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="C145" t="s">
-        <v>493</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="D145" s="2"/>
       <c r="E145">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>87</v>
-      </c>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>690</v>
+        <v>458</v>
       </c>
       <c r="C146" t="s">
-        <v>300</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="D146" s="2"/>
       <c r="E146">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="C147" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147">
@@ -4954,27 +5754,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>0</v>
-      </c>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>691</v>
+        <v>464</v>
       </c>
       <c r="C148" t="s">
-        <v>301</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="D148" s="2"/>
       <c r="E148">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="C149" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149">
@@ -4982,12 +5780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="C150" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150">
@@ -4995,12 +5793,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="C151" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151">
@@ -5008,12 +5806,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="C152" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152">
@@ -5021,12 +5819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="C153" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153">
@@ -5034,12 +5832,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="C154" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154">
@@ -5047,2665 +5845,2561 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>88</v>
+      </c>
       <c r="B155" t="s">
-        <v>507</v>
+        <v>648</v>
       </c>
       <c r="C155" t="s">
-        <v>497</v>
-      </c>
-      <c r="D155" s="2"/>
+        <v>283</v>
+      </c>
       <c r="E155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>89</v>
+      </c>
       <c r="B156" t="s">
-        <v>502</v>
+        <v>649</v>
       </c>
       <c r="C156" t="s">
-        <v>497</v>
-      </c>
-      <c r="D156" s="2"/>
+        <v>284</v>
+      </c>
       <c r="E156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="C157" t="s">
-        <v>497</v>
-      </c>
-      <c r="D157" s="2"/>
+        <v>474</v>
+      </c>
       <c r="E157">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="C158" t="s">
-        <v>497</v>
-      </c>
-      <c r="D158" s="2"/>
+        <v>474</v>
+      </c>
       <c r="E158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>29</v>
+      </c>
       <c r="B159" t="s">
-        <v>501</v>
+        <v>122</v>
       </c>
       <c r="C159" t="s">
-        <v>497</v>
-      </c>
-      <c r="D159" s="2"/>
+        <v>285</v>
+      </c>
       <c r="E159">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>504</v>
+        <v>607</v>
       </c>
       <c r="C160" t="s">
-        <v>497</v>
-      </c>
-      <c r="D160" s="2"/>
+        <v>608</v>
+      </c>
       <c r="E160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>9</v>
+      </c>
       <c r="B161" t="s">
-        <v>509</v>
+        <v>650</v>
       </c>
       <c r="C161" t="s">
-        <v>497</v>
-      </c>
-      <c r="D161" s="2"/>
+        <v>286</v>
+      </c>
       <c r="E161">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>39</v>
+      </c>
       <c r="B162" t="s">
-        <v>510</v>
+        <v>133</v>
       </c>
       <c r="C162" t="s">
-        <v>497</v>
-      </c>
-      <c r="D162" s="2"/>
+        <v>287</v>
+      </c>
       <c r="E162">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>94</v>
-      </c>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>692</v>
+        <v>476</v>
       </c>
       <c r="C163" t="s">
-        <v>302</v>
+        <v>477</v>
       </c>
       <c r="E163">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>95</v>
-      </c>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>693</v>
+        <v>609</v>
       </c>
       <c r="C164" t="s">
-        <v>303</v>
+        <v>610</v>
       </c>
       <c r="E164">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="C165" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="E165">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="C166" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="E166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="B167" t="s">
-        <v>131</v>
+        <v>651</v>
       </c>
       <c r="C167" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>647</v>
+        <v>481</v>
       </c>
       <c r="C168" t="s">
-        <v>648</v>
+        <v>482</v>
       </c>
       <c r="E168">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="B169" t="s">
-        <v>694</v>
+        <v>652</v>
       </c>
       <c r="C169" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E169">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B170" t="s">
-        <v>142</v>
+        <v>653</v>
       </c>
       <c r="C170" t="s">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="E170">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>514</v>
+        <v>238</v>
       </c>
       <c r="C171" t="s">
-        <v>515</v>
+        <v>239</v>
       </c>
       <c r="E171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>105</v>
+      </c>
       <c r="B172" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C172" t="s">
-        <v>650</v>
+        <v>239</v>
       </c>
       <c r="E172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>201</v>
+      </c>
       <c r="B173" t="s">
-        <v>516</v>
+        <v>655</v>
       </c>
       <c r="C173" t="s">
-        <v>517</v>
+        <v>290</v>
       </c>
       <c r="E173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="C174" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="E174">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>108</v>
-      </c>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>695</v>
+        <v>485</v>
       </c>
       <c r="C175" t="s">
-        <v>307</v>
+        <v>484</v>
       </c>
       <c r="E175">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>83</v>
+      </c>
       <c r="B176" t="s">
-        <v>519</v>
+        <v>656</v>
       </c>
       <c r="C176" t="s">
-        <v>520</v>
+        <v>291</v>
       </c>
       <c r="E176">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>115</v>
-      </c>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>696</v>
+        <v>491</v>
       </c>
       <c r="C177" t="s">
-        <v>308</v>
+        <v>487</v>
       </c>
       <c r="E177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>65</v>
-      </c>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>697</v>
+        <v>490</v>
       </c>
       <c r="C178" t="s">
-        <v>253</v>
+        <v>487</v>
       </c>
       <c r="E178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>252</v>
+        <v>489</v>
       </c>
       <c r="C179" t="s">
-        <v>253</v>
+        <v>487</v>
       </c>
       <c r="E179">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>113</v>
-      </c>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>698</v>
+        <v>486</v>
       </c>
       <c r="C180" t="s">
-        <v>253</v>
+        <v>487</v>
       </c>
       <c r="E180">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>215</v>
-      </c>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>699</v>
+        <v>488</v>
       </c>
       <c r="C181" t="s">
-        <v>309</v>
+        <v>487</v>
       </c>
       <c r="E181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>61</v>
+      </c>
       <c r="B182" t="s">
-        <v>521</v>
+        <v>657</v>
       </c>
       <c r="C182" t="s">
-        <v>522</v>
+        <v>292</v>
       </c>
       <c r="E182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>92</v>
+      </c>
       <c r="B183" t="s">
-        <v>523</v>
+        <v>658</v>
       </c>
       <c r="C183" t="s">
-        <v>522</v>
+        <v>293</v>
       </c>
       <c r="E183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E183:E248" si="3">LEN(D183)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B184" t="s">
-        <v>700</v>
+        <v>125</v>
       </c>
       <c r="C184" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E184">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>26</v>
+      </c>
       <c r="B185" t="s">
-        <v>529</v>
+        <v>659</v>
       </c>
       <c r="C185" t="s">
-        <v>525</v>
+        <v>295</v>
       </c>
       <c r="E185">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="C186" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="E186">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>527</v>
+        <v>217</v>
       </c>
       <c r="C187" t="s">
-        <v>525</v>
+        <v>176</v>
       </c>
       <c r="E187">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>524</v>
+        <v>215</v>
       </c>
       <c r="C188" t="s">
-        <v>525</v>
+        <v>176</v>
       </c>
       <c r="E188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>526</v>
+        <v>218</v>
       </c>
       <c r="C189" t="s">
-        <v>525</v>
+        <v>176</v>
       </c>
       <c r="E189">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>66</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>701</v>
+        <v>216</v>
       </c>
       <c r="C190" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="E190">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B191" t="s">
-        <v>702</v>
+        <v>175</v>
       </c>
       <c r="C191" t="s">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="E191">
-        <f t="shared" ref="E191:E256" si="3">LEN(D191)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>34</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>134</v>
+        <v>494</v>
       </c>
       <c r="C192" t="s">
-        <v>313</v>
+        <v>495</v>
       </c>
       <c r="E192">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>703</v>
+        <v>660</v>
       </c>
       <c r="C193" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E193">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="C194" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="E194">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>23</v>
+      </c>
       <c r="B195" t="s">
-        <v>231</v>
+        <v>661</v>
       </c>
       <c r="C195" t="s">
-        <v>189</v>
+        <v>297</v>
       </c>
       <c r="E195">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>47</v>
+      </c>
       <c r="B196" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="C196" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E196">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>232</v>
+        <v>498</v>
       </c>
       <c r="C197" t="s">
-        <v>189</v>
+        <v>499</v>
       </c>
       <c r="E197">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
       <c r="B198" t="s">
-        <v>230</v>
+        <v>662</v>
       </c>
       <c r="C198" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="E198">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>105</v>
-      </c>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>188</v>
+        <v>500</v>
       </c>
       <c r="C199" t="s">
-        <v>189</v>
+        <v>501</v>
       </c>
       <c r="E199">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>31</v>
+      </c>
       <c r="B200" t="s">
-        <v>532</v>
+        <v>124</v>
       </c>
       <c r="C200" t="s">
-        <v>533</v>
+        <v>299</v>
       </c>
       <c r="E200">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>11</v>
-      </c>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>704</v>
+        <v>236</v>
       </c>
       <c r="C201" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="E201">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="C202" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="E202">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>24</v>
-      </c>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>705</v>
+        <v>223</v>
       </c>
       <c r="C203" t="s">
-        <v>316</v>
+        <v>224</v>
       </c>
       <c r="E203">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="B204" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="C204" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E204">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>71</v>
+      </c>
       <c r="B205" t="s">
-        <v>536</v>
+        <v>160</v>
       </c>
       <c r="C205" t="s">
-        <v>537</v>
+        <v>161</v>
       </c>
       <c r="E205">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>9</v>
-      </c>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>706</v>
+        <v>506</v>
       </c>
       <c r="C206" t="s">
-        <v>317</v>
+        <v>505</v>
       </c>
       <c r="E206">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="C207" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="E207">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B208" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="C208" t="s">
-        <v>318</v>
+        <v>149</v>
       </c>
       <c r="E208">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>16</v>
+      </c>
       <c r="B209" t="s">
-        <v>250</v>
+        <v>148</v>
       </c>
       <c r="C209" t="s">
-        <v>251</v>
+        <v>149</v>
       </c>
       <c r="E209">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>108</v>
+      </c>
       <c r="B210" t="s">
-        <v>540</v>
+        <v>179</v>
       </c>
       <c r="C210" t="s">
-        <v>541</v>
+        <v>149</v>
       </c>
       <c r="E210">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>109</v>
+      </c>
       <c r="B211" t="s">
-        <v>237</v>
+        <v>663</v>
       </c>
       <c r="C211" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="E211">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="B212" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C212" t="s">
-        <v>199</v>
+        <v>300</v>
       </c>
       <c r="E212">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>76</v>
-      </c>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>172</v>
+        <v>507</v>
       </c>
       <c r="C213" t="s">
-        <v>173</v>
+        <v>508</v>
       </c>
       <c r="E213">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
       <c r="B214" t="s">
-        <v>544</v>
+        <v>664</v>
       </c>
       <c r="C214" t="s">
-        <v>543</v>
+        <v>301</v>
       </c>
       <c r="E214">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>542</v>
+        <v>612</v>
       </c>
       <c r="C215" t="s">
-        <v>543</v>
+        <v>613</v>
       </c>
       <c r="E215">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B216" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C216" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E216">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B217" t="s">
-        <v>160</v>
+        <v>665</v>
       </c>
       <c r="C217" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="E217">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>116</v>
-      </c>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>193</v>
+        <v>511</v>
       </c>
       <c r="C218" t="s">
-        <v>161</v>
+        <v>512</v>
       </c>
       <c r="E218">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>117</v>
-      </c>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>707</v>
+        <v>517</v>
       </c>
       <c r="C219" t="s">
-        <v>161</v>
+        <v>512</v>
       </c>
       <c r="E219">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>39</v>
-      </c>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>140</v>
+        <v>513</v>
       </c>
       <c r="C220" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="E220">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="C221" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="E221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>5</v>
-      </c>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>708</v>
+        <v>516</v>
       </c>
       <c r="C222" t="s">
-        <v>320</v>
+        <v>512</v>
       </c>
       <c r="E222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>652</v>
+        <v>519</v>
       </c>
       <c r="C223" t="s">
-        <v>653</v>
+        <v>512</v>
       </c>
       <c r="E223">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>120</v>
-      </c>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>194</v>
+        <v>518</v>
       </c>
       <c r="C224" t="s">
-        <v>195</v>
+        <v>512</v>
       </c>
       <c r="E224">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>74</v>
-      </c>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>709</v>
+        <v>520</v>
       </c>
       <c r="C225" t="s">
-        <v>321</v>
+        <v>512</v>
       </c>
       <c r="E225">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="C226" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="E226">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>65</v>
+      </c>
       <c r="B227" t="s">
-        <v>555</v>
+        <v>152</v>
       </c>
       <c r="C227" t="s">
-        <v>550</v>
+        <v>153</v>
       </c>
       <c r="E227">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="C228" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="E228">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>91</v>
+      </c>
       <c r="B229" t="s">
-        <v>552</v>
+        <v>666</v>
       </c>
       <c r="C229" t="s">
-        <v>550</v>
+        <v>303</v>
       </c>
       <c r="E229">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>64</v>
+      </c>
       <c r="B230" t="s">
-        <v>554</v>
+        <v>145</v>
       </c>
       <c r="C230" t="s">
-        <v>550</v>
+        <v>146</v>
       </c>
       <c r="E230">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>80</v>
+      </c>
       <c r="B231" t="s">
-        <v>557</v>
+        <v>667</v>
       </c>
       <c r="C231" t="s">
-        <v>550</v>
+        <v>304</v>
       </c>
       <c r="E231">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>720</v>
+      </c>
       <c r="B232" t="s">
-        <v>556</v>
+        <v>721</v>
       </c>
       <c r="C232" t="s">
-        <v>550</v>
-      </c>
-      <c r="E232">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>558</v>
+        <v>722</v>
       </c>
       <c r="C233" t="s">
-        <v>550</v>
-      </c>
-      <c r="E233">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>115</v>
+      </c>
       <c r="B234" t="s">
-        <v>553</v>
+        <v>182</v>
       </c>
       <c r="C234" t="s">
-        <v>550</v>
+        <v>183</v>
       </c>
       <c r="E234">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>70</v>
-      </c>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>164</v>
+        <v>523</v>
       </c>
       <c r="C235" t="s">
-        <v>165</v>
+        <v>524</v>
       </c>
       <c r="E235">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="C236" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="E236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="B237" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
       <c r="C237" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="E237">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>69</v>
-      </c>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>157</v>
+        <v>527</v>
       </c>
       <c r="C238" t="s">
-        <v>158</v>
+        <v>528</v>
       </c>
       <c r="E238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>86</v>
-      </c>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>711</v>
+        <v>529</v>
       </c>
       <c r="C239" t="s">
-        <v>323</v>
+        <v>530</v>
       </c>
       <c r="E239">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>766</v>
+        <v>103</v>
       </c>
       <c r="B240" t="s">
-        <v>767</v>
+        <v>669</v>
       </c>
       <c r="C240" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>768</v>
+        <v>541</v>
       </c>
       <c r="C241" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>123</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>196</v>
+        <v>538</v>
       </c>
       <c r="C242" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="E242">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="C243" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="E243">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="C244" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="E244">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>14</v>
-      </c>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>712</v>
+        <v>542</v>
       </c>
       <c r="C245" t="s">
-        <v>324</v>
+        <v>539</v>
       </c>
       <c r="E245">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="C246" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="E246">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="C247" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="E247">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>111</v>
-      </c>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>713</v>
+        <v>543</v>
       </c>
       <c r="C248" t="s">
-        <v>325</v>
+        <v>539</v>
       </c>
       <c r="E248">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="C249" t="s">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="E249">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E249:E312" si="4">LEN(D249)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="C250" t="s">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="E250">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>583</v>
+        <v>549</v>
       </c>
       <c r="C251" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="E251">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>77</v>
+      </c>
       <c r="B252" t="s">
-        <v>579</v>
+        <v>164</v>
       </c>
       <c r="C252" t="s">
-        <v>578</v>
+        <v>165</v>
       </c>
       <c r="E252">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="C253" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="E253">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>587</v>
+        <v>229</v>
       </c>
       <c r="C254" t="s">
-        <v>578</v>
+        <v>230</v>
       </c>
       <c r="E254">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>585</v>
+        <v>242</v>
       </c>
       <c r="C255" t="s">
-        <v>578</v>
+        <v>243</v>
       </c>
       <c r="E255">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>582</v>
+        <v>244</v>
       </c>
       <c r="C256" t="s">
-        <v>578</v>
+        <v>243</v>
       </c>
       <c r="E256">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>586</v>
+        <v>532</v>
       </c>
       <c r="C257" t="s">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="E257">
-        <f t="shared" ref="E257:E320" si="4">LEN(D257)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>584</v>
+        <v>534</v>
       </c>
       <c r="C258" t="s">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="E258">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
       <c r="C259" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="E259">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>82</v>
-      </c>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>176</v>
+        <v>535</v>
       </c>
       <c r="C260" t="s">
-        <v>177</v>
+        <v>533</v>
       </c>
       <c r="E260">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>590</v>
+        <v>536</v>
       </c>
       <c r="C261" t="s">
-        <v>591</v>
+        <v>533</v>
       </c>
       <c r="E261">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>98</v>
+      </c>
       <c r="B262" t="s">
-        <v>243</v>
+        <v>670</v>
       </c>
       <c r="C262" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="E262">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>256</v>
+        <v>553</v>
       </c>
       <c r="C263" t="s">
-        <v>257</v>
+        <v>554</v>
       </c>
       <c r="E263">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>58</v>
+      </c>
       <c r="B264" t="s">
-        <v>258</v>
+        <v>692</v>
       </c>
       <c r="C264" t="s">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c r="E264">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>110</v>
+      </c>
       <c r="B265" t="s">
-        <v>571</v>
+        <v>671</v>
       </c>
       <c r="C265" t="s">
-        <v>572</v>
+        <v>308</v>
       </c>
       <c r="E265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>21</v>
+      </c>
       <c r="B266" t="s">
-        <v>573</v>
+        <v>672</v>
       </c>
       <c r="C266" t="s">
-        <v>572</v>
+        <v>309</v>
       </c>
       <c r="E266">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>0</v>
+      </c>
       <c r="B267" t="s">
-        <v>576</v>
+        <v>673</v>
       </c>
       <c r="C267" t="s">
-        <v>572</v>
+        <v>310</v>
       </c>
       <c r="E267">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>574</v>
+        <v>693</v>
       </c>
       <c r="C268" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="E268">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="C269" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="E269">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>106</v>
-      </c>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>714</v>
+        <v>614</v>
       </c>
       <c r="C270" t="s">
-        <v>326</v>
+        <v>556</v>
       </c>
       <c r="E270">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="C271" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="E271">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>63</v>
-      </c>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>736</v>
+        <v>559</v>
       </c>
       <c r="C272" t="s">
-        <v>159</v>
+        <v>560</v>
       </c>
       <c r="E272">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>118</v>
-      </c>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>715</v>
+        <v>561</v>
       </c>
       <c r="C273" t="s">
-        <v>327</v>
+        <v>562</v>
       </c>
       <c r="E273">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>716</v>
+        <v>674</v>
       </c>
       <c r="C274" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="E274">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>1</v>
-      </c>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>717</v>
+        <v>219</v>
       </c>
       <c r="C275" t="s">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="E275">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>738</v>
+        <v>615</v>
       </c>
       <c r="C276" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="E276">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="C277" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="E277">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>654</v>
+        <v>566</v>
       </c>
       <c r="C278" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="E278">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>63</v>
+      </c>
       <c r="B279" t="s">
-        <v>596</v>
+        <v>150</v>
       </c>
       <c r="C279" t="s">
-        <v>597</v>
+        <v>151</v>
       </c>
       <c r="E279">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="C280" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="E280">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="C281" t="s">
-        <v>601</v>
+        <v>564</v>
       </c>
       <c r="E281">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="B282" t="s">
-        <v>718</v>
+        <v>675</v>
       </c>
       <c r="C282" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="E282">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>15</v>
+      </c>
       <c r="B283" t="s">
-        <v>233</v>
+        <v>676</v>
       </c>
       <c r="C283" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
       <c r="E283">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>70</v>
+      </c>
       <c r="B284" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="C284" t="s">
-        <v>656</v>
+        <v>314</v>
       </c>
       <c r="E284">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>36</v>
+      </c>
       <c r="B285" t="s">
-        <v>606</v>
+        <v>130</v>
       </c>
       <c r="C285" t="s">
-        <v>603</v>
+        <v>315</v>
       </c>
       <c r="E285">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>207</v>
+      </c>
       <c r="B286" t="s">
-        <v>605</v>
+        <v>198</v>
       </c>
       <c r="C286" t="s">
-        <v>603</v>
+        <v>316</v>
       </c>
       <c r="E286">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="B287" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C287" t="s">
-        <v>163</v>
+        <v>316</v>
       </c>
       <c r="E287">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>51</v>
+      </c>
       <c r="B288" t="s">
-        <v>602</v>
+        <v>142</v>
       </c>
       <c r="C288" t="s">
-        <v>603</v>
+        <v>316</v>
       </c>
       <c r="E288">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>90</v>
+      </c>
       <c r="B289" t="s">
-        <v>604</v>
+        <v>678</v>
       </c>
       <c r="C289" t="s">
-        <v>603</v>
+        <v>317</v>
       </c>
       <c r="E289">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B290" t="s">
-        <v>719</v>
+        <v>679</v>
       </c>
       <c r="C290" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="E290">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>16</v>
-      </c>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
-        <v>720</v>
+        <v>371</v>
       </c>
       <c r="C291" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="E291">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>75</v>
-      </c>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>721</v>
+        <v>372</v>
       </c>
       <c r="C292" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="E292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>38</v>
-      </c>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
-        <v>139</v>
+        <v>369</v>
       </c>
       <c r="C293" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="E293">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="B294" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="C294" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="E294">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>217</v>
-      </c>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
-        <v>208</v>
+        <v>387</v>
       </c>
       <c r="C295" t="s">
-        <v>335</v>
+        <v>388</v>
       </c>
       <c r="E295">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>55</v>
-      </c>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
-        <v>152</v>
+        <v>601</v>
       </c>
       <c r="C296" t="s">
-        <v>335</v>
+        <v>602</v>
       </c>
       <c r="E296">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>96</v>
-      </c>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
-        <v>722</v>
+        <v>430</v>
       </c>
       <c r="C297" t="s">
-        <v>336</v>
+        <v>431</v>
       </c>
       <c r="E297">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>102</v>
-      </c>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
-        <v>723</v>
+        <v>432</v>
       </c>
       <c r="C298" t="s">
-        <v>336</v>
+        <v>431</v>
       </c>
       <c r="E298">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>30</v>
+      </c>
       <c r="B299" t="s">
-        <v>392</v>
+        <v>123</v>
       </c>
       <c r="C299" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="E299">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>205</v>
+      </c>
       <c r="B300" t="s">
-        <v>393</v>
+        <v>196</v>
       </c>
       <c r="C300" t="s">
-        <v>391</v>
+        <v>320</v>
       </c>
       <c r="E300">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="C301" t="s">
-        <v>391</v>
+        <v>321</v>
       </c>
       <c r="E301">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>57</v>
-      </c>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
-        <v>154</v>
+        <v>603</v>
       </c>
       <c r="C302" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="E302">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
-        <v>414</v>
+        <v>604</v>
       </c>
       <c r="C303" t="s">
-        <v>415</v>
+        <v>321</v>
       </c>
       <c r="E303">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>73</v>
+      </c>
       <c r="B304" t="s">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="C304" t="s">
-        <v>642</v>
+        <v>322</v>
       </c>
       <c r="E304">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>76</v>
+      </c>
       <c r="B305" t="s">
-        <v>464</v>
+        <v>681</v>
       </c>
       <c r="C305" t="s">
-        <v>465</v>
+        <v>323</v>
       </c>
       <c r="E305">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>94</v>
+      </c>
       <c r="B306" t="s">
-        <v>466</v>
+        <v>170</v>
       </c>
       <c r="C306" t="s">
-        <v>465</v>
+        <v>171</v>
       </c>
       <c r="E306">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>32</v>
-      </c>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
-        <v>132</v>
+        <v>611</v>
       </c>
       <c r="C307" t="s">
-        <v>338</v>
+        <v>171</v>
       </c>
       <c r="E307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="B308" t="s">
-        <v>210</v>
+        <v>682</v>
       </c>
       <c r="C308" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="E308">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="C309" t="s">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="E309">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>49</v>
+      </c>
       <c r="B310" t="s">
-        <v>643</v>
+        <v>140</v>
       </c>
       <c r="C310" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E310">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>204</v>
+      </c>
       <c r="B311" t="s">
-        <v>644</v>
+        <v>195</v>
       </c>
       <c r="C311" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E311">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B312" t="s">
-        <v>724</v>
+        <v>139</v>
       </c>
       <c r="C312" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="E312">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>81</v>
-      </c>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
-        <v>725</v>
+        <v>580</v>
       </c>
       <c r="C313" t="s">
-        <v>342</v>
+        <v>581</v>
       </c>
       <c r="E313">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>101</v>
-      </c>
+        <f t="shared" ref="E313:E347" si="5">LEN(D313)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>183</v>
+        <v>584</v>
       </c>
       <c r="C314" t="s">
-        <v>184</v>
+        <v>585</v>
       </c>
       <c r="E314">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>40</v>
+      </c>
       <c r="B315" t="s">
-        <v>651</v>
+        <v>134</v>
       </c>
       <c r="C315" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="E315">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>60</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
-        <v>726</v>
+        <v>568</v>
       </c>
       <c r="C316" t="s">
-        <v>343</v>
+        <v>569</v>
       </c>
       <c r="E316">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>19</v>
+      </c>
       <c r="B317" t="s">
-        <v>547</v>
+        <v>683</v>
       </c>
       <c r="C317" t="s">
-        <v>548</v>
+        <v>329</v>
       </c>
       <c r="E317">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B318" t="s">
-        <v>149</v>
+        <v>684</v>
       </c>
       <c r="C318" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="E318">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>218</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
-        <v>209</v>
+        <v>570</v>
       </c>
       <c r="C319" t="s">
-        <v>345</v>
+        <v>571</v>
       </c>
       <c r="E319">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B320" t="s">
-        <v>148</v>
+        <v>685</v>
       </c>
       <c r="C320" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E320">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>78</v>
+      </c>
       <c r="B321" t="s">
-        <v>619</v>
+        <v>686</v>
       </c>
       <c r="C321" t="s">
-        <v>620</v>
+        <v>332</v>
       </c>
       <c r="E321">
-        <f t="shared" ref="E321:E355" si="5">LEN(D321)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>67</v>
+      </c>
       <c r="B322" t="s">
-        <v>623</v>
+        <v>157</v>
       </c>
       <c r="C322" t="s">
-        <v>624</v>
+        <v>158</v>
       </c>
       <c r="E322">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B323" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C323" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="E323">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="C324" t="s">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="E324">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>20</v>
-      </c>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
-        <v>727</v>
+        <v>575</v>
       </c>
       <c r="C325" t="s">
-        <v>348</v>
+        <v>573</v>
       </c>
       <c r="E325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>84</v>
-      </c>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
-        <v>728</v>
+        <v>576</v>
       </c>
       <c r="C326" t="s">
-        <v>349</v>
+        <v>573</v>
       </c>
       <c r="E326">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="C327" t="s">
-        <v>610</v>
+        <v>573</v>
       </c>
       <c r="E327">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>80</v>
-      </c>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
-        <v>729</v>
+        <v>578</v>
       </c>
       <c r="C328" t="s">
-        <v>350</v>
+        <v>573</v>
       </c>
       <c r="E328">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>83</v>
-      </c>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
-        <v>730</v>
+        <v>574</v>
       </c>
       <c r="C329" t="s">
-        <v>351</v>
+        <v>573</v>
       </c>
       <c r="E329">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>72</v>
-      </c>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
-        <v>169</v>
+        <v>572</v>
       </c>
       <c r="C330" t="s">
-        <v>170</v>
+        <v>573</v>
       </c>
       <c r="E330">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B331" t="s">
-        <v>174</v>
+        <v>687</v>
       </c>
       <c r="C331" t="s">
-        <v>175</v>
+        <v>333</v>
       </c>
       <c r="E331">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>111</v>
+      </c>
       <c r="B332" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="C332" t="s">
-        <v>612</v>
+        <v>334</v>
       </c>
       <c r="E332">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>120</v>
+      </c>
       <c r="B333" t="s">
-        <v>614</v>
+        <v>128</v>
       </c>
       <c r="C333" t="s">
-        <v>612</v>
+        <v>335</v>
       </c>
       <c r="E333">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
-        <v>615</v>
+        <v>227</v>
       </c>
       <c r="C334" t="s">
-        <v>612</v>
+        <v>228</v>
       </c>
       <c r="E334">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
-        <v>616</v>
+        <v>582</v>
       </c>
       <c r="C335" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="E335">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
-        <v>617</v>
+        <v>695</v>
       </c>
       <c r="C336" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="E336">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
-        <v>613</v>
+        <v>696</v>
       </c>
       <c r="C337" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="E337">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="C338" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="E338">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="B339" t="s">
-        <v>731</v>
+        <v>689</v>
       </c>
       <c r="C339" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="E339">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B340" t="s">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="C340" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="E340">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B341" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="C341" t="s">
-        <v>354</v>
+        <v>159</v>
       </c>
       <c r="E341">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>52</v>
+      </c>
       <c r="B342" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="C342" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
       <c r="E342">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
-        <v>621</v>
+        <v>221</v>
       </c>
       <c r="C343" t="s">
-        <v>622</v>
+        <v>222</v>
       </c>
       <c r="E343">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
-        <v>741</v>
+        <v>588</v>
       </c>
       <c r="C344" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="E344">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>46</v>
+      </c>
       <c r="B345" t="s">
-        <v>742</v>
-      </c>
-      <c r="C345" t="s">
-        <v>625</v>
+        <v>46</v>
       </c>
       <c r="E345">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>93</v>
+      </c>
       <c r="B346" t="s">
-        <v>626</v>
-      </c>
-      <c r="C346" t="s">
-        <v>625</v>
+        <v>93</v>
       </c>
       <c r="E346">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="B347" t="s">
-        <v>733</v>
-      </c>
-      <c r="C347" t="s">
-        <v>355</v>
+        <v>99</v>
       </c>
       <c r="E347">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>2</v>
-      </c>
-      <c r="B348" t="s">
-        <v>734</v>
-      </c>
-      <c r="C348" t="s">
-        <v>356</v>
-      </c>
-      <c r="E348">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>73</v>
-      </c>
-      <c r="B349" t="s">
-        <v>73</v>
-      </c>
-      <c r="C349" t="s">
-        <v>171</v>
-      </c>
-      <c r="E349">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>56</v>
-      </c>
-      <c r="B350" t="s">
-        <v>153</v>
-      </c>
-      <c r="C350" t="s">
-        <v>357</v>
-      </c>
-      <c r="E350">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B351" t="s">
-        <v>235</v>
-      </c>
-      <c r="C351" t="s">
-        <v>236</v>
-      </c>
-      <c r="E351">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B352" t="s">
-        <v>627</v>
-      </c>
-      <c r="C352" t="s">
-        <v>628</v>
-      </c>
-      <c r="E352">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>49</v>
-      </c>
-      <c r="B353" t="s">
-        <v>49</v>
-      </c>
-      <c r="E353">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>100</v>
-      </c>
-      <c r="B354" t="s">
-        <v>100</v>
-      </c>
-      <c r="E354">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>107</v>
-      </c>
-      <c r="B355" t="s">
-        <v>107</v>
-      </c>
-      <c r="E355">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D355">
-    <sortState ref="A2:D355">
-      <sortCondition ref="C1:C355"/>
+  <autoFilter ref="A1:D347" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D347">
+      <sortCondition ref="C1:C347"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B327:D329 D320 D239:D255 B258:D258 B259:B260 B239:B257 B261:D263 B264:C268 B269:D278 B288:D293 B309:D314 B319:C320 B333:D336 B337:B341 B330:B332 B321:B326 B315:B318 B294:B308 B279:B287 B342:D1048576 B1:D238 E1">
+  <conditionalFormatting sqref="B319:D321 D312 D231:D247 B250:D250 B251:B252 B231:B249 B253:D255 B256:C260 B261:D270 B280:D285 B301:D306 B311:C312 B325:D328 B329:B333 B322:B324 B313:B318 B307:B310 B286:B300 B271:B279 B334:D1048576 E1 B1:D230">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lyrics/earworms.xlsx
+++ b/lyrics/earworms.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zspatter/Documents/GitHub/earworms/lyrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjblgs\PycharmProjects\git\earworms\lyrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55CF1AC-DD3E-D64A-B306-F52A86905406}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$347</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$336</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="920">
   <si>
     <t>All Star – Smash Mouth</t>
   </si>
@@ -48,9 +47,6 @@
     <t>Don't Stop Believin' – Journey</t>
   </si>
   <si>
-    <t>Ignition (Remix) – R. Kelly</t>
-  </si>
-  <si>
     <t>Teenage Dream – Katy Perry</t>
   </si>
   <si>
@@ -63,9 +59,6 @@
     <t>I Write Sins Not Tragedies – Panic! At The Disco</t>
   </si>
   <si>
-    <t>All I Want for Christmas Is You – Mariah Carey</t>
-  </si>
-  <si>
     <t>Wonderwall – Oasis</t>
   </si>
   <si>
@@ -75,18 +68,12 @@
     <t>Total Eclipse of the Heart – Bonnie Tyler</t>
   </si>
   <si>
-    <t>Bring It All Back – S Club 7</t>
-  </si>
-  <si>
     <t>Rolling in the Deep – Adele</t>
   </si>
   <si>
     <t>Shake it Off – Taylor Swift</t>
   </si>
   <si>
-    <t>Bohemian Rhapsody – Queen</t>
-  </si>
-  <si>
     <t>TiK ToK – Ke$ha</t>
   </si>
   <si>
@@ -123,9 +110,6 @@
     <t>Bring Me to Life – Evanesence</t>
   </si>
   <si>
-    <t>Like A Prayer, Madonna</t>
-  </si>
-  <si>
     <t>Don't You Want Me, The Human League</t>
   </si>
   <si>
@@ -153,9 +137,6 @@
     <t>Respect, Aretha Franklin</t>
   </si>
   <si>
-    <t>Beside you- Marianas Trench</t>
-  </si>
-  <si>
     <t>Kings and Queens- Thirty Seconds to Mars</t>
   </si>
   <si>
@@ -249,9 +230,6 @@
     <t>Fuck You Thunder Song - Ted</t>
   </si>
   <si>
-    <t>Gangnam Style – Psy</t>
-  </si>
-  <si>
     <t>Girlfriend - Avril Lavigne</t>
   </si>
   <si>
@@ -336,9 +314,6 @@
     <t>Spongebob Squarepants Theme Song</t>
   </si>
   <si>
-    <t>Spoonful of Sugar - Mary Poppins</t>
-  </si>
-  <si>
     <t>Stacy's Mom - Fountains of Wayne</t>
   </si>
   <si>
@@ -351,9 +326,6 @@
     <t>The Final Countdown - Europe</t>
   </si>
   <si>
-    <t>Thriller - Michael Jackson</t>
-  </si>
-  <si>
     <t>Tubthumping – Chumbawamba (I get Knocked Down)</t>
   </si>
   <si>
@@ -372,9 +344,6 @@
     <t>We like to Party! - Vengaboys</t>
   </si>
   <si>
-    <t>What Hurts the Most – Rascal Flatts</t>
-  </si>
-  <si>
     <t>What is Love - Haddaway</t>
   </si>
   <si>
@@ -384,9 +353,6 @@
     <t>What’s my Name – Rihanna</t>
   </si>
   <si>
-    <t>When Worlds Collide – Powerman 5000</t>
-  </si>
-  <si>
     <t>Who Let The Dogs Out - Baha Men</t>
   </si>
   <si>
@@ -402,9 +368,6 @@
     <t>You Spin Me Round - Dead Or Alive</t>
   </si>
   <si>
-    <t>Like A Prayer</t>
-  </si>
-  <si>
     <t>Don't You Want Me</t>
   </si>
   <si>
@@ -435,9 +398,6 @@
     <t>Respect</t>
   </si>
   <si>
-    <t>Beside you</t>
-  </si>
-  <si>
     <t>Kings and Queens</t>
   </si>
   <si>
@@ -480,9 +440,6 @@
     <t>Sir Mix-A-Lot</t>
   </si>
   <si>
-    <t>Bohemian Rhapsody</t>
-  </si>
-  <si>
     <t>Queen</t>
   </si>
   <si>
@@ -516,12 +473,6 @@
     <t>Will Smith</t>
   </si>
   <si>
-    <t>Gangnam Style</t>
-  </si>
-  <si>
-    <t>Psy</t>
-  </si>
-  <si>
     <t>Headstrong</t>
   </si>
   <si>
@@ -576,24 +527,12 @@
     <t>We Are The Champions</t>
   </si>
   <si>
-    <t>What Hurts the Most</t>
-  </si>
-  <si>
-    <t>Rascal Flatts</t>
-  </si>
-  <si>
     <t>What’s my Name</t>
   </si>
   <si>
     <t>Rihanna</t>
   </si>
   <si>
-    <t>When Worlds Collide</t>
-  </si>
-  <si>
-    <t>Powerman 5000</t>
-  </si>
-  <si>
     <t>You're the One That I Want</t>
   </si>
   <si>
@@ -891,27 +830,12 @@
     <t>Lou Bega</t>
   </si>
   <si>
-    <t>Madonna</t>
-  </si>
-  <si>
-    <t>Mariah Carey</t>
-  </si>
-  <si>
-    <t>Marianas Trench</t>
-  </si>
-  <si>
-    <t>Mary Poppins</t>
-  </si>
-  <si>
     <t>MC Hammer</t>
   </si>
   <si>
     <t>Miley Cyrus</t>
   </si>
   <si>
-    <t>Mulan</t>
-  </si>
-  <si>
     <t>'N Sync</t>
   </si>
   <si>
@@ -921,9 +845,6 @@
     <t>Neil Diamond</t>
   </si>
   <si>
-    <t>Nelly and Kelly Rowland</t>
-  </si>
-  <si>
     <t>Oasis</t>
   </si>
   <si>
@@ -933,15 +854,9 @@
     <t>Panic! At The Disco</t>
   </si>
   <si>
-    <t>Pharrell</t>
-  </si>
-  <si>
     <t>Queen and David Bowie</t>
   </si>
   <si>
-    <t>R. Kelly</t>
-  </si>
-  <si>
     <t>Rebecca Black</t>
   </si>
   <si>
@@ -951,9 +866,6 @@
     <t>Right Said Fred</t>
   </si>
   <si>
-    <t>S Club 7</t>
-  </si>
-  <si>
     <t>Sean Paul</t>
   </si>
   <si>
@@ -1431,15 +1343,9 @@
     <t>Jerome</t>
   </si>
   <si>
-    <t>Crybaby</t>
-  </si>
-  <si>
     <t>Tempo (feat. Missy Elliott)</t>
   </si>
   <si>
-    <t>Exactly How I Feel (feat. Gucci Mane)</t>
-  </si>
-  <si>
     <t>Better in Color</t>
   </si>
   <si>
@@ -1455,18 +1361,9 @@
     <t>Water Me</t>
   </si>
   <si>
-    <t>Same Love (feat. Mary Lambert)</t>
-  </si>
-  <si>
     <t>Macklemore &amp; Ryan Lewis</t>
   </si>
   <si>
-    <t>Can't Hold Us (feat. Ray Dalton)</t>
-  </si>
-  <si>
-    <t>Uptown Funk (feat. Bruno Mars)</t>
-  </si>
-  <si>
     <t>Mark Ronson</t>
   </si>
   <si>
@@ -1611,9 +1508,6 @@
     <t>Rob Cantor</t>
   </si>
   <si>
-    <t>Blurred Lines (feat. T.I. &amp; Pharrell)</t>
-  </si>
-  <si>
     <t>Robin Thicke</t>
   </si>
   <si>
@@ -1623,12 +1517,6 @@
     <t>Saliva</t>
   </si>
   <si>
-    <t>They Told Me</t>
-  </si>
-  <si>
-    <t>Sallie Ford &amp; The Sound Outside</t>
-  </si>
-  <si>
     <t>Careless Whisper</t>
   </si>
   <si>
@@ -1863,9 +1751,6 @@
     <t>MAGIC!</t>
   </si>
   <si>
-    <t>Moves Like Jagger (feat. Christina Aguilera)</t>
-  </si>
-  <si>
     <t>Maroon 5</t>
   </si>
   <si>
@@ -1986,21 +1871,12 @@
     <t>Mambo number 5</t>
   </si>
   <si>
-    <t>All I Want for Christmas Is You</t>
-  </si>
-  <si>
-    <t>Spoonful of Sugar</t>
-  </si>
-  <si>
     <t>U Can't Touch This</t>
   </si>
   <si>
     <t>Beat It</t>
   </si>
   <si>
-    <t>Thriller</t>
-  </si>
-  <si>
     <t>Party in the USA</t>
   </si>
   <si>
@@ -2028,9 +1904,6 @@
     <t>We Will Rock You</t>
   </si>
   <si>
-    <t>Ignition (Remix)</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
@@ -2038,9 +1911,6 @@
   </si>
   <si>
     <t>I'm Too Sexy</t>
-  </si>
-  <si>
-    <t>Bring It All Back</t>
   </si>
   <si>
     <t>Tempeture</t>
@@ -3012,11 +2882,670 @@
 If you don’t know what my name is
 So what, so what?</t>
   </si>
+  <si>
+    <t>You can be my lover
+'Cause love looks better in color
+(Yeah, yeah, yeah, yeah, yeah, tell 'em)</t>
+  </si>
+  <si>
+    <t>Baby, I don't need you
+I just wanna freak you
+I heard you a freak too
+What's 2 plus 2? (4, 3, 2, ow)
+Boys, boys, boys
+Make a girl go crazy (4, 3, 2, ow)
+Boys, boys, boys
+Make a girl go crazy (4, 3, 2, ow)</t>
+  </si>
+  <si>
+    <t>Cry Baby</t>
+  </si>
+  <si>
+    <t>I swore you'd never see this side
+But it's so hard to say goodbye
+I don't need to apologize
+Us big girls gotta cry</t>
+  </si>
+  <si>
+    <t>I thought that I didn't care
+I thought I was love-impaired
+But baby, baby
+I don't know what I'm gon' do
+I'm cryin' ’cause I love you, oh
+Yes, you (ya ya, ya ya)</t>
+  </si>
+  <si>
+    <t>Exactly How I Feel</t>
+  </si>
+  <si>
+    <t>Love me or hate me
+Ooh, I ain't changing
+And I don't give a fuck, no
+That's exactly how I feel (uh)
+That's exactly how I feel (say it again)
+That's exactly how I feel (woo)</t>
+  </si>
+  <si>
+    <t>I do my hair toss, check my nails
+Baby how you feelin'? (feelin' good as hell)
+Hair toss, check my nails
+Baby how you feelin'? (feelin' good as hell)</t>
+  </si>
+  <si>
+    <t>Heaven, help me
+If love ain't dead, I'ma kill it 'cause it's killin' me
+Cold world, they'll be livin' in a fantasy
+Got me, it's the only thing I'll ever need
+Heaven, help me
+If love ain't dead, I'ma kill it 'cause it's killin' me
+Love is a drug, methamphetamine
+D-A-R-E, they'll be hooked on me</t>
+  </si>
+  <si>
+    <t>Jerome, Jerome
+Take your ass home
+And come back when you're grown
+Jerome, Jerome
+Go on, take your ass home
+Where the peaches have thorns, ooh</t>
+  </si>
+  <si>
+    <t>It ain’t my fault that I'm out here gettin’ loose
+Gotta blame it on the Goose
+Gotta blame it on my juice, baby
+It ain't my fault that I'm out here makin' news
+I’m the pudding in the proof
+Gotta blame it on my juice
+Ya-ya-ee, ya-ya-ee, ya-ya-ee, ya-ya-ee</t>
+  </si>
+  <si>
+    <t>Sugar, spice, and I'm nice
+Show me what you're made of
+Crazy, sexy, cool, baby
+With or without makeup
+Got nothing to prove (got nothing to prove)
+But I'ma show you how I do</t>
+  </si>
+  <si>
+    <t>Cause I'm my own soulmate (yeah, yeah)
+I know how to love me (love me)
+I know that I'm always gonna hold me down
+Yeah, I'm my own soulmate (yeah, yeah)
+No, I'm never lonely (lonely)
+I know I'm a queen, but I don't need no crown
+Look up in the mirror like "Damn, she the one"</t>
+  </si>
+  <si>
+    <t>Slow songs, they for skinny hoes
+Can't move all of this here to one of those
+I'm a thick bitch, I need tempo (tempo)
+Fuck it up to the tempo</t>
+  </si>
+  <si>
+    <t>Dale a tu cuerpo alegria Macarena
+Que tu cuerpo es pa' darle alegria y cosa buena
+Dale a tu cuerpo alegria, Macarena
+Hey Macarena</t>
+  </si>
+  <si>
+    <t>A little bit of Monica in my life
+A little bit of Erica by my side
+A little bit of Rita is all I need
+A little bit of Tina is what I see
+A little bit of Sandra in the sun
+A little bit of Mary all night long
+A little bit of Jessica, here I am
+A little bit of you makes me your man</t>
+  </si>
+  <si>
+    <t>Thrift Shop</t>
+  </si>
+  <si>
+    <t>Can we go back? This is the moment
+Tonight is the night, we'll fight 'til it's over
+So we put our hands up
+Like the ceiling can't hold us
+Like the ceiling can't hold us</t>
+  </si>
+  <si>
+    <t>And I can't change, even if I tried
+Even if I wanted to
+And I can't change, even if I tried
+Even if I wanted to
+My love, my love, my love
+She keeps me warm
+She keeps me warm
+She keeps me warm
+She keeps me warm</t>
+  </si>
+  <si>
+    <t>I'm gonna pop some tags
+Only got 20 dollars in my pocket
+I'm, I'm, I'm huntin'
+Lookin' for a come up
+This is fucking awesome</t>
+  </si>
+  <si>
+    <t>Why you gotta be so rude?
+Don't you know I'm human too?
+Why you gotta be so rude?
+I'm gonna marry her anyway (marry that girl)
+Marry her anyway (marry that girl)</t>
+  </si>
+  <si>
+    <t>Girls hit your hallelujah (woo!)
+Girls hit your hallelujah (woo!)
+Girls hit your hallelujah (woo!)
+'Cause Uptown Funk gon’ give it to you
+'Cause Uptown Funk gon’ give it to you
+'Cause Uptown Funk gon’ give it to you
+Saturday night and we in the spot
+Don’t believe me, just watch (come on)</t>
+  </si>
+  <si>
+    <t>[Chorus: Adam Levine]
+Take me by the tongue and I'll know you
+Kiss me till you're drunk and I'll show you
+Want the moves like Jagger
+I've got them moves like Jagger
+I've got them moves like Jagger</t>
+  </si>
+  <si>
+    <t>Know your name, when I finally get to, ooh
+Be the one who gets to
+Hold you close in the night in the dark be your light
+I should know your name</t>
+  </si>
+  <si>
+    <t>They tell us from the time we're young
+To hide the things that we don't like about ourselves
+Inside ourselves
+I know I'm not the only one
+Who spent so long attempting to be someone else
+Well, I'm over it
+I don't care if the world knows what my secrets are
+Secrets are</t>
+  </si>
+  <si>
+    <t>But I believe the world is burning to the ground
+Oh well, I guess we're gonna find out
+Let's see how far we've come
+Let's see how far we've come</t>
+  </si>
+  <si>
+    <t>Can't Hold Us</t>
+  </si>
+  <si>
+    <t>Same Love</t>
+  </si>
+  <si>
+    <t>Uptown Funk</t>
+  </si>
+  <si>
+    <t>Moves Like Jagger</t>
+  </si>
+  <si>
+    <t>I told you homeboy (you can't touch this)
+Yeah, that's how we livin' and ya know (you can't touch this)
+Look in my eyes, man (you can't touch this)
+Yo, let me bust the funky lyrics (you can't touch this)</t>
+  </si>
+  <si>
+    <t>Just beat it, beat it, beat it, beat it
+No one wants to be defeated
+Showin' how funky and strong is your fight
+It doesn't matter who's wrong or right
+Just beat it (beat it)
+Just beat it (beat it)</t>
+  </si>
+  <si>
+    <t>Annie, are you okay?
+Will you tell us that you're okay?
+There's a sound at the window
+Then he struck you — a crescendo, Annie
+He came into your apartment
+Left the bloodstains on the carpet
+And then you ran into the bedroom
+You were struck down
+It was your doom</t>
+  </si>
+  <si>
+    <t>Down by the river
+I was drawn by your grace
+Into depths of oblivion
+And to the lovers place</t>
+  </si>
+  <si>
+    <t>And I want you
+We can bring it on the floor
+You’ve never danced like this before
+We don’t talk about it
+Dancing on, do the boogie all night long
+You're stoned in paradise
+Shouldn’t talk about it</t>
+  </si>
+  <si>
+    <t>Walt Disney Records</t>
+  </si>
+  <si>
+    <t>Be a man
+We must be swift as a coursing river
+Be a man
+With all the force of a great typhoon
+Be a man
+With all the strength of a raging fire
+Mysterious as the dark side of the moon</t>
+  </si>
+  <si>
+    <t>Ma-ma-ma-ma-ma-ma-ma-ma mad mad mad
+Ma-ma-ma-ma-ma-ma-ma-ma mad mad mad
+I have finally seen the light
+And I have finally realized what you mean</t>
+  </si>
+  <si>
+    <t>It could be wrong, could be wrong, but it should have been right
+It could be wrong, could be wrong, to let our hearts ignite
+It could be wrong, could be wrong, are we digging a hole?
+It could be wrong, could be wrong, this is out of control</t>
+  </si>
+  <si>
+    <t>Glaciers melting in the dead of night
+And the superstar's sucked into the supermassive
+Glaciers melting in the dead of night
+And the superstar's sucked into the…</t>
+  </si>
+  <si>
+    <t>They will not force us
+They will stop degrading us
+They will not control us
+We will be victorious
+(So come on)</t>
+  </si>
+  <si>
+    <t>(Bye bye) Don't wanna be a fool for you
+Just another player in your game for two
+You may hate me but it ain't no lie
+Baby, bye, bye, bye</t>
+  </si>
+  <si>
+    <t>I got a pocket, got a pocketful of sunshine
+I got a love and I know that it’s all mine, oh, oh-oh
+Do what you want, but you’re never gonna break me, oh
+Sticks and stones are never gonna shake me, oh, oh-oh</t>
+  </si>
+  <si>
+    <t>Sweet Caroline
+Good times never seemed so good
+I've been inclined
+To believe they never would</t>
+  </si>
+  <si>
+    <t>Nelly</t>
+  </si>
+  <si>
+    <t>No matter what I do (woo!)
+All I think about is you
+Even when I'm with my boo
+Boy, you know I'm crazy over you</t>
+  </si>
+  <si>
+    <t>(Help me...)
+I broke apart my insides
+(Help me...)
+I've got no soul to sell
+(Help me...)
+The only thing that works for me
+Help me get away from myself</t>
+  </si>
+  <si>
+    <t>Memoria
+Memoria
+Memoria
+And I swear that I don't have a gun
+No, I don't have a gun
+No, I don't have a gun</t>
+  </si>
+  <si>
+    <t>Hey! Wait! I got a new complaint
+Forever in debt to your priceless advice
+Hey! Wait! I got a new complaint
+Forever in debt to your priceless advice
+Hey! Wait! I got a new complaint
+Forever in debt to your priceless advice
+Your advice</t>
+  </si>
+  <si>
+    <t>He's the one who likes all our pretty songs
+And he likes to sing along
+And he likes to shoot his gun
+But he don't know what it means
+Don't know what it means</t>
+  </si>
+  <si>
+    <t>I'm not the only one
+I'm not the only one
+I'm not the only one
+I'm not the only one</t>
+  </si>
+  <si>
+    <t>With the lights out, it's less dangerous
+Here we are now, entertain us
+I feel stupid and contagious
+Here we are now, entertain us</t>
+  </si>
+  <si>
+    <t>Don't speak, I know just what you're sayin'
+So please stop explainin'
+Don't tell me 'cause it hurts
+Don't speak, I know what you're thinkin'
+I don't need your reasons
+Don't tell me 'cause it hurts</t>
+  </si>
+  <si>
+    <t>Because maybe
+You're gonna be the one that saves me
+And after all
+You're my wonderwall</t>
+  </si>
+  <si>
+    <t>How does it feel?
+How should I feel?
+Tell me how does it feel
+To treat me like you do</t>
+  </si>
+  <si>
+    <t>Hey ya! (uh-oh) Hey ya! (uh-oh)
+Hey ya! (uh-oh) Hey ya! (uh-oh, hey ya!)
+Hey ya! (uh-oh) Hey ya! (oh, oh, uh-oh)
+Hey ya! (uh-oh) Hey ya! (uh-oh)
+Don't want to meet your mama (uh-oh)</t>
+  </si>
+  <si>
+    <t>Ma-i-a hi
+Ma-i-a hu
+Ma-i-a ho
+Ma-i-a ha-ha
+Ma-i-a hi
+Ma-i-a hu
+Ma-i-a ho
+Ma-i-a ha-ha</t>
+  </si>
+  <si>
+    <t>I'm taking back the crown
+I'm all dressed up and naked
+I see what's mine and take it
+(Finders keepers, losers weepers), oh yeah</t>
+  </si>
+  <si>
+    <t>I chime in with a
+"Haven't you people ever heard of closing the goddamn door?!"
+No, it's much better to face these kinds of things
+With a sense of poise and rationality</t>
+  </si>
+  <si>
+    <t>Who is the fly in your champagne
+Whose got the body and whose got the brain
+I'll take your blood and I'll kill my pain
+You are the one that I desire, you are the dark I'm the vampire (vampire)</t>
+  </si>
+  <si>
+    <t>Pharrell Williams</t>
+  </si>
+  <si>
+    <t>(Because I'm happy)
+Clap along if you feel like a room without a roof
+(Because I'm happy)
+Clap along if you feel like happiness is the truth
+(Because I'm happy)
+Clap along if you know what happiness is to you
+(Because I'm happy)
+Clap along if you feel like that's what you wanna do</t>
+  </si>
+  <si>
+    <t>I can feel it coming in the air tonight, oh Lord
+And I've been waiting for this moment for all my life, oh Lord
+Can you feel it coming in the air tonight? oh Lord, oh Lord</t>
+  </si>
+  <si>
+    <t>The shallower it grows
+The shallower it grows
+The fainter we go
+Into the fade out line</t>
+  </si>
+  <si>
+    <t>When marimba rhythms start to play
+Dance with me, make me sway
+Like a lazy ocean hugs the shore
+Hold me close, sway me more</t>
+  </si>
+  <si>
+    <t>Maybe I'm the one
+Maybe I'm the one who is the schizophrenic psycho (yeah)
+Maybe I'm the one
+Maybe I'm the one who is the paranoid Flake-oh</t>
+  </si>
+  <si>
+    <t>She fucking hates me
+Trust
+She fucking hates me
+La la la love
+I tried too hard
+And she tore my feelings like I had none
+And ripped them away</t>
+  </si>
+  <si>
+    <t>Another one bites the dust
+Another one bites the dust
+And another one gone, and another one gone
+Another one bites the dust, yeah
+Hey, I'm gonna get you too
+Another one bites the dust</t>
+  </si>
+  <si>
+    <t>We are the champions, my friends
+And we'll keep on fighting till the end
+We are the champions
+We are the champions
+No time for losers
+'Cause we are the champions
+Of the world</t>
+  </si>
+  <si>
+    <t>We will, we will rock you, sing it
+We will, we will rock you, everybody
+We will, we will rock you, hmm
+We will, we will rock you, alright</t>
+  </si>
+  <si>
+    <t>It's the terror of knowing what this world is about
+Watching some good friends screaming, "Let me out!"
+Pray tomorrow gets me higher
+Pressure on people, people on streets</t>
+  </si>
+  <si>
+    <t>And I realize you're mine
+Indeed a fool am I
+And I realize you're mine
+Indeed a fool am I
+Ahh</t>
+  </si>
+  <si>
+    <t>it's raining men</t>
+  </si>
+  <si>
+    <t>guitar hero</t>
+  </si>
+  <si>
+    <t>just dance</t>
+  </si>
+  <si>
+    <t>Hey, ho, let's go
+Shoot 'em in the back now
+What they want, I don't know
+They're all revved up and ready to go</t>
+  </si>
+  <si>
+    <t>It's Friday, Friday
+Gotta get down on Friday
+Everybody's lookin' forward to the weekend, weekend
+Friday, Friday
+Gettin' down on Friday
+Everybody's lookin' forward to the weekend</t>
+  </si>
+  <si>
+    <t>Standing in line to see the show tonight
+And there's a light on, heavy glow
+By the way, I tried to say
+I'd be there waiting for</t>
+  </si>
+  <si>
+    <t>Dream of Californication
+Dream of Californication
+Dream of Californication
+Dream of Californication</t>
+  </si>
+  <si>
+    <t>The world I love, the tears I drop
+To be part of the wave, can't stop
+Ever wonder if it's all for you?
+The world I love, the trains I hop
+To be part of the wave, can't stop
+Come and tell me when it's time to</t>
+  </si>
+  <si>
+    <t>California, rest in peace
+Simultaneous release
+California, show your teeth
+She's my priestess, I'm your priest, yeah, yeah</t>
+  </si>
+  <si>
+    <t>Give it 'way, give it 'way, give it 'way now
+Give it 'way, give it 'way, give it 'way now
+Give it 'way, give it 'way, give it 'way now
+I can't tell if I'm a kingpin or a pauper</t>
+  </si>
+  <si>
+    <t>How long, how long will I slide?
+Separate my side
+I don’t, I don’t believe it’s bad
+Slit my throat, it’s all I ever</t>
+  </si>
+  <si>
+    <t>With the birds I'll share this lonely viewin'
+With the birds I'll share this lonely viewin'
+With the birds I'll share this lonely view</t>
+  </si>
+  <si>
+    <t>Hey, oh
+Listen what I say, oh
+I got your hey, oh
+Now listen what I say, oh</t>
+  </si>
+  <si>
+    <t>I don't ever wanna feel like I did that day
+But take me to the place I love, take me all the way
+'Cause I don't ever wanna feel like I did that day
+But take me to the place I love, take me all the way</t>
+  </si>
+  <si>
+    <t>If it hadn't been for Cotton-Eyed Joe
+I'd been married long time ago
+Where did you come from? Where did you go?
+Where did you come from, Cotton-Eyed Joe?</t>
+  </si>
+  <si>
+    <t>I'm sitting at a bar on the inside
+Waiting for my ride on the outside
+She broke my heart in the trailer park
+So I jacked the keys to her fucking car
+Crashed that piece of shit and then stepped away</t>
+  </si>
+  <si>
+    <t>Never gonna give you up
+Never gonna let you down
+Never gonna run around and desert you
+Never gonna make you cry
+Never gonna say goodbye
+Never gonna tell a lie and hurt you</t>
+  </si>
+  <si>
+    <t>You know I know how
+To make 'em stop and stare as I zone out
+The club can't even handle me right now
+Watchin' you watchin' me, I go all out
+The club can't even handle me right now</t>
+  </si>
+  <si>
+    <t>I'm bringing sexy back</t>
+  </si>
+  <si>
+    <t>I'm a model, you know what I mean
+And I do my little turn on the catwalk
+Yeah, on the catwalk, on the catwalk, yeah
+I do my little turn on the catwalk</t>
+  </si>
+  <si>
+    <t>Cause I may be bad, but I'm perfectly good at it
+Sex in the air
+I don't care, I love the smell of it
+Sticks and stones may break my bones
+But chains and whips excite me</t>
+  </si>
+  <si>
+    <t>When the sun shine, we shine together
+Told you I'll be here forever
+Said I'll always be your friend
+Took an oath, I'ma stick it out to the end
+Now that it's raining more than ever
+Know that we'll still have each other
+You can stand under my umbrella
+You can stand under my umbrella, ella, ella, eh, eh, eh</t>
+  </si>
+  <si>
+    <t>Oh na-na, what's my name?
+Oh na-na, what's my name?
+Oh na-na, what's my name?
+What's my name, what's my name?</t>
+  </si>
+  <si>
+    <t>Running for your life from Shia LaBeouf
+He's brandishing a knife, it's Shia LaBeouf
+Lurking in the shadows
+Hollywood superstar, Shia LaBeouf
+Living in the woods, Shia LaBeouf
+Killing for sport, Shia LaBeouf
+Eating all the bodies
+Actual cannibal Shia LaBeouf</t>
+  </si>
+  <si>
+    <t>Blurred Lines</t>
+  </si>
+  <si>
+    <t>I love you
+I hate you
+I can't get around you
+I breathe you
+I taste you
+I can't live without you</t>
+  </si>
+  <si>
+    <t>Well, woman de way de time cold, I wanna be keepin' you warm
+I got the right temperature fi shelter you from the storm
+Oh Lord, gyal, I got de right tactics to turn you on
+And girl, I wanna be de Papa, you can be de Mom, oh, oh!</t>
+  </si>
+  <si>
+    <t>So break me down if it makes you feel right
+And hate me now if it keeps you all right
+Oh, you can break me down if it takes all your might
+Because I'm so much more
+Than meets the eye</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3026,12 +3555,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3046,7 +3581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3057,6 +3592,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3383,2448 +3925,2486 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H347"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141:XFD141"/>
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="E1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>618</v>
+        <v>580</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>698</v>
+        <v>655</v>
       </c>
       <c r="E2">
         <f>LEN(D2)</f>
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>699</v>
+        <v>656</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E59" si="0">LEN(D3)</f>
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>619</v>
+        <v>581</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>700</v>
+        <v>657</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>701</v>
+        <v>658</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>691</v>
+        <v>648</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>702</v>
+        <v>659</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>703</v>
+        <v>660</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>704</v>
+        <v>661</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>705</v>
+        <v>662</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>706</v>
+        <v>663</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>707</v>
+        <v>664</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="C12" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>708</v>
+        <v>665</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>709</v>
+        <v>666</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>710</v>
+        <v>667</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>711</v>
+        <v>668</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>620</v>
+        <v>582</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>712</v>
+        <v>669</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>759</v>
+        <v>716</v>
       </c>
       <c r="C17" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>713</v>
+        <v>670</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="C18" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>714</v>
+        <v>671</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="C19" t="s">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>715</v>
+        <v>672</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C20" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>716</v>
+        <v>673</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="C21" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>717</v>
+        <v>674</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>718</v>
+        <v>675</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>719</v>
+        <v>676</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>760</v>
+        <v>717</v>
       </c>
       <c r="C24" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>723</v>
+        <v>680</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>623</v>
+        <v>585</v>
       </c>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>724</v>
+        <v>681</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="C26" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>725</v>
+        <v>682</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="C27" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>726</v>
+        <v>683</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="C28" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>727</v>
+        <v>684</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="C29" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>728</v>
+        <v>685</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="C30" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>729</v>
+        <v>686</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="C31" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>730</v>
+        <v>687</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="C32" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>731</v>
+        <v>688</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="C33" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>732</v>
+        <v>689</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="C34" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>733</v>
+        <v>690</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>761</v>
+        <v>718</v>
       </c>
       <c r="C35" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>734</v>
+        <v>691</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>738</v>
+        <v>695</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>592</v>
+        <v>555</v>
       </c>
       <c r="C37" t="s">
-        <v>593</v>
+        <v>556</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>735</v>
+        <v>692</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>736</v>
+        <v>693</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>737</v>
+        <v>694</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>739</v>
+        <v>696</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="C41" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>740</v>
+        <v>697</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="C42" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>741</v>
+        <v>698</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>594</v>
+        <v>557</v>
       </c>
       <c r="C43" t="s">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>742</v>
+        <v>699</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="C44" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>743</v>
+        <v>700</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="C45" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>744</v>
+        <v>701</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>762</v>
+        <v>719</v>
       </c>
       <c r="C46" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>745</v>
+        <v>702</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="C47" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>746</v>
+        <v>703</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>747</v>
+        <v>704</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>748</v>
+        <v>705</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="C50" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>749</v>
+        <v>706</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>750</v>
+        <v>707</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>751</v>
+        <v>708</v>
       </c>
       <c r="C52" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>752</v>
+        <v>709</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="C53" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>753</v>
+        <v>710</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C54" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>754</v>
+        <v>711</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>755</v>
+        <v>712</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>756</v>
+        <v>713</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>763</v>
+        <v>720</v>
       </c>
       <c r="C57" t="s">
-        <v>694</v>
+        <v>651</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>757</v>
+        <v>714</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="C58" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>758</v>
+        <v>715</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>764</v>
+        <v>721</v>
       </c>
       <c r="C59" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>765</v>
+        <v>722</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>766</v>
+        <v>723</v>
       </c>
       <c r="E60">
         <f t="shared" ref="E60:E117" si="1">LEN(D60)</f>
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>596</v>
+        <v>559</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>767</v>
+        <v>724</v>
       </c>
       <c r="E61">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>597</v>
+        <v>560</v>
       </c>
       <c r="C62" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>768</v>
+        <v>725</v>
       </c>
       <c r="E62">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>598</v>
+        <v>561</v>
       </c>
       <c r="C63" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>769</v>
+        <v>726</v>
       </c>
       <c r="E63">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>770</v>
+        <v>727</v>
       </c>
       <c r="C64" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>771</v>
+        <v>728</v>
       </c>
       <c r="E64">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>772</v>
+        <v>729</v>
       </c>
       <c r="C65" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>773</v>
+        <v>730</v>
       </c>
       <c r="E65">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="C66" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>774</v>
+        <v>731</v>
       </c>
       <c r="E66">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="C67" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>775</v>
+        <v>732</v>
       </c>
       <c r="E67">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>777</v>
+        <v>734</v>
       </c>
       <c r="C68" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>776</v>
+        <v>733</v>
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B69" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C69" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>778</v>
+        <v>735</v>
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="C70" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>779</v>
+        <v>736</v>
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>780</v>
+        <v>737</v>
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>781</v>
+        <v>738</v>
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>782</v>
+        <v>739</v>
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="C74" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>783</v>
+        <v>740</v>
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>784</v>
+        <v>741</v>
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="C76" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>785</v>
+        <v>742</v>
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="C77" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>786</v>
+        <v>743</v>
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="C78" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>787</v>
+        <v>744</v>
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="C79" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>788</v>
+        <v>745</v>
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>635</v>
+        <v>597</v>
       </c>
       <c r="C80" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>789</v>
+        <v>746</v>
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="C81" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>790</v>
+        <v>747</v>
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
-        <v>636</v>
+        <v>598</v>
       </c>
       <c r="C82" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>791</v>
+        <v>748</v>
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>792</v>
+        <v>749</v>
       </c>
       <c r="C83" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>793</v>
+        <v>750</v>
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>599</v>
+        <v>562</v>
       </c>
       <c r="C84" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>794</v>
+        <v>751</v>
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C85" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>795</v>
+        <v>752</v>
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="C86" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>796</v>
+        <v>753</v>
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="C87" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>798</v>
+        <v>755</v>
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="C88" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>797</v>
+        <v>754</v>
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>600</v>
+        <v>563</v>
       </c>
       <c r="C89" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>799</v>
+        <v>756</v>
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="C90" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>800</v>
+        <v>757</v>
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>637</v>
+        <v>599</v>
       </c>
       <c r="C91" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>801</v>
+        <v>758</v>
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="C92" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>802</v>
+        <v>759</v>
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="C93" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>803</v>
+        <v>760</v>
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>804</v>
+        <v>761</v>
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="C95" t="s">
-        <v>806</v>
+        <v>763</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>805</v>
+        <v>762</v>
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>531</v>
+        <v>494</v>
       </c>
       <c r="C96" t="s">
-        <v>808</v>
+        <v>765</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>807</v>
+        <v>764</v>
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>638</v>
+        <v>600</v>
       </c>
       <c r="C97" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>809</v>
+        <v>766</v>
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C98" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>810</v>
+        <v>767</v>
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="C99" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>811</v>
+        <v>768</v>
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="C100" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>812</v>
+        <v>769</v>
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>639</v>
+        <v>601</v>
       </c>
       <c r="C101" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>813</v>
+        <v>770</v>
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="C102" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>814</v>
+        <v>771</v>
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="C103" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>815</v>
+        <v>772</v>
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="C104" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>816</v>
+        <v>773</v>
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="C105" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>817</v>
+        <v>774</v>
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="C106" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>818</v>
+        <v>775</v>
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>819</v>
+        <v>776</v>
       </c>
       <c r="C107" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>820</v>
+        <v>777</v>
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C108" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>821</v>
+        <v>778</v>
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>640</v>
+        <v>602</v>
       </c>
       <c r="C109" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>822</v>
+        <v>779</v>
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>823</v>
+        <v>780</v>
       </c>
       <c r="C110" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>824</v>
+        <v>781</v>
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B111" t="s">
-        <v>641</v>
+        <v>603</v>
       </c>
       <c r="C111" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>825</v>
+        <v>782</v>
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="C112" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>826</v>
+        <v>783</v>
       </c>
       <c r="E112">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>827</v>
+        <v>784</v>
       </c>
       <c r="C113" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>828</v>
+        <v>785</v>
       </c>
       <c r="E113">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>829</v>
+        <v>786</v>
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="C115" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>830</v>
+        <v>787</v>
       </c>
       <c r="E115">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="C116" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>831</v>
+        <v>788</v>
       </c>
       <c r="E116">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="C117" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>832</v>
+        <v>789</v>
       </c>
       <c r="E117">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="C118" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>833</v>
+        <v>790</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E182" si="2">LEN(D118)</f>
+        <f t="shared" ref="E118:E178" si="2">LEN(D118)</f>
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="C119" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>834</v>
+        <v>791</v>
       </c>
       <c r="E119">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C120" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>835</v>
+        <v>792</v>
       </c>
       <c r="E120">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="C121" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>836</v>
+        <v>793</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="C122" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>837</v>
+        <v>794</v>
       </c>
       <c r="E122">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>643</v>
+        <v>605</v>
       </c>
       <c r="C123" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>838</v>
+        <v>795</v>
       </c>
       <c r="E123">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>839</v>
+        <v>796</v>
       </c>
       <c r="C124" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>840</v>
+        <v>797</v>
       </c>
       <c r="E124">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>644</v>
+        <v>606</v>
       </c>
       <c r="C125" t="s">
-        <v>841</v>
+        <v>798</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>842</v>
+        <v>799</v>
       </c>
       <c r="E125">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B126" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="C126" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>843</v>
+        <v>800</v>
       </c>
       <c r="E126">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C127" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>844</v>
+        <v>801</v>
       </c>
       <c r="E127">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="C128" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>845</v>
+        <v>802</v>
       </c>
       <c r="E128">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="C129" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>846</v>
+        <v>803</v>
       </c>
       <c r="E129">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="C130" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>847</v>
+        <v>804</v>
       </c>
       <c r="E130">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>852</v>
+        <v>809</v>
       </c>
       <c r="C131" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>853</v>
+        <v>810</v>
       </c>
       <c r="E131">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>646</v>
+        <v>608</v>
       </c>
       <c r="C132" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>848</v>
+        <v>805</v>
       </c>
       <c r="E132">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B133" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C133" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>854</v>
+        <v>811</v>
       </c>
       <c r="E133">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>851</v>
+        <v>808</v>
       </c>
       <c r="C134" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>855</v>
+        <v>812</v>
       </c>
       <c r="E134">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>850</v>
+        <v>807</v>
       </c>
       <c r="C135" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>856</v>
+        <v>813</v>
       </c>
       <c r="E135">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>849</v>
+        <v>806</v>
       </c>
       <c r="C136" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>857</v>
+        <v>814</v>
       </c>
       <c r="E136">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="C137" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>858</v>
+        <v>815</v>
       </c>
       <c r="E137">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="C138" t="s">
-        <v>859</v>
+        <v>816</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>860</v>
+        <v>817</v>
       </c>
       <c r="E138">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="C139" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>861</v>
+        <v>818</v>
       </c>
       <c r="E139">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>456</v>
-      </c>
-      <c r="C140" t="s">
-        <v>457</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="E140">
+    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="E140" s="6">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" s="6"/>
+    </row>
+    <row r="141" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="C141" t="s">
-        <v>459</v>
-      </c>
-      <c r="D141" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>820</v>
+      </c>
       <c r="E141">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="C142" t="s">
-        <v>459</v>
-      </c>
-      <c r="D142" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>821</v>
+      </c>
       <c r="E142">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>465</v>
+        <v>822</v>
       </c>
       <c r="C143" t="s">
-        <v>459</v>
-      </c>
-      <c r="D143" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>823</v>
+      </c>
       <c r="E143">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="C144" t="s">
-        <v>459</v>
-      </c>
-      <c r="D144" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>824</v>
+      </c>
       <c r="E144">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>467</v>
+        <v>825</v>
       </c>
       <c r="C145" t="s">
-        <v>459</v>
-      </c>
-      <c r="D145" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>826</v>
+      </c>
       <c r="E145">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="C146" t="s">
-        <v>459</v>
-      </c>
-      <c r="D146" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>827</v>
+      </c>
       <c r="E146">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="C147" t="s">
-        <v>459</v>
-      </c>
-      <c r="D147" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>828</v>
+      </c>
       <c r="E147">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="C148" t="s">
-        <v>459</v>
-      </c>
-      <c r="D148" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>829</v>
+      </c>
       <c r="E148">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="C149" t="s">
-        <v>459</v>
-      </c>
-      <c r="D149" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>830</v>
+      </c>
       <c r="E149">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="C150" t="s">
-        <v>459</v>
-      </c>
-      <c r="D150" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>831</v>
+      </c>
       <c r="E150">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="C151" t="s">
-        <v>459</v>
-      </c>
-      <c r="D151" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>832</v>
+      </c>
       <c r="E151">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="C152" t="s">
-        <v>459</v>
-      </c>
-      <c r="D152" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>833</v>
+      </c>
       <c r="E152">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="C153" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153">
@@ -5832,12 +6412,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="C154" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154">
@@ -5845,2561 +6425,2623 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B155" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="C155" t="s">
-        <v>283</v>
+        <v>263</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>834</v>
       </c>
       <c r="E155">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B156" t="s">
-        <v>649</v>
+        <v>611</v>
       </c>
       <c r="C156" t="s">
-        <v>284</v>
+        <v>264</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>835</v>
       </c>
       <c r="E156">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>475</v>
+        <v>846</v>
       </c>
       <c r="C157" t="s">
-        <v>474</v>
+        <v>442</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="E157">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>473</v>
+        <v>847</v>
       </c>
       <c r="C158" t="s">
-        <v>474</v>
+        <v>442</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>838</v>
       </c>
       <c r="E158">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>29</v>
-      </c>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>122</v>
+        <v>836</v>
       </c>
       <c r="C159" t="s">
-        <v>285</v>
+        <v>442</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>839</v>
       </c>
       <c r="E159">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="C160" t="s">
-        <v>608</v>
+        <v>571</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>840</v>
       </c>
       <c r="E160">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>9</v>
-      </c>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>650</v>
+        <v>848</v>
       </c>
       <c r="C161" t="s">
-        <v>286</v>
+        <v>443</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>841</v>
       </c>
       <c r="E161">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>39</v>
-      </c>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>133</v>
+        <v>849</v>
       </c>
       <c r="C162" t="s">
-        <v>287</v>
+        <v>572</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>842</v>
       </c>
       <c r="E162">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="C163" t="s">
-        <v>477</v>
+        <v>445</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>843</v>
       </c>
       <c r="E163">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>609</v>
+        <v>446</v>
       </c>
       <c r="C164" t="s">
-        <v>610</v>
+        <v>445</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>844</v>
       </c>
       <c r="E164">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="C165" t="s">
-        <v>479</v>
+        <v>448</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="E165">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>98</v>
+      </c>
       <c r="B166" t="s">
-        <v>480</v>
+        <v>612</v>
       </c>
       <c r="C166" t="s">
-        <v>479</v>
+        <v>265</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>850</v>
       </c>
       <c r="E166">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B167" t="s">
-        <v>651</v>
+        <v>613</v>
       </c>
       <c r="C167" t="s">
-        <v>288</v>
+        <v>219</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>851</v>
       </c>
       <c r="E167">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>481</v>
+        <v>218</v>
       </c>
       <c r="C168" t="s">
-        <v>482</v>
+        <v>219</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>852</v>
       </c>
       <c r="E168">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="B169" t="s">
-        <v>652</v>
+        <v>614</v>
       </c>
       <c r="C169" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="E169">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>60</v>
-      </c>
+    <row r="170" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>653</v>
+        <v>449</v>
       </c>
       <c r="C170" t="s">
-        <v>239</v>
+        <v>450</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>853</v>
       </c>
       <c r="E170">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>238</v>
+        <v>451</v>
       </c>
       <c r="C171" t="s">
-        <v>239</v>
+        <v>450</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>854</v>
       </c>
       <c r="E171">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B172" t="s">
-        <v>654</v>
+        <v>615</v>
       </c>
       <c r="C172" t="s">
-        <v>239</v>
+        <v>855</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>856</v>
       </c>
       <c r="E172">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>201</v>
-      </c>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>655</v>
+        <v>457</v>
       </c>
       <c r="C173" t="s">
-        <v>290</v>
+        <v>453</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>857</v>
       </c>
       <c r="E173">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="C174" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="E174">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="C175" t="s">
-        <v>484</v>
+        <v>453</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>858</v>
       </c>
       <c r="E175">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>83</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>656</v>
+        <v>452</v>
       </c>
       <c r="C176" t="s">
-        <v>291</v>
+        <v>453</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>859</v>
       </c>
       <c r="E176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="C177" t="s">
-        <v>487</v>
+        <v>453</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>860</v>
       </c>
       <c r="E177">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>55</v>
+      </c>
       <c r="B178" t="s">
-        <v>490</v>
+        <v>616</v>
       </c>
       <c r="C178" t="s">
-        <v>487</v>
+        <v>267</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>861</v>
       </c>
       <c r="E178">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>85</v>
+      </c>
       <c r="B179" t="s">
-        <v>489</v>
+        <v>617</v>
       </c>
       <c r="C179" t="s">
-        <v>487</v>
+        <v>268</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>862</v>
       </c>
       <c r="E179">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E179:E237" si="3">LEN(D179)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>27</v>
+      </c>
       <c r="B180" t="s">
-        <v>486</v>
+        <v>113</v>
       </c>
       <c r="C180" t="s">
-        <v>487</v>
+        <v>269</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>863</v>
       </c>
       <c r="E180">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>22</v>
+      </c>
       <c r="B181" t="s">
-        <v>488</v>
+        <v>618</v>
       </c>
       <c r="C181" t="s">
-        <v>487</v>
+        <v>864</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>865</v>
       </c>
       <c r="E181">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>61</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>657</v>
+        <v>458</v>
       </c>
       <c r="C182" t="s">
-        <v>292</v>
+        <v>459</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>866</v>
       </c>
       <c r="E182">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>92</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>658</v>
+        <v>197</v>
       </c>
       <c r="C183" t="s">
-        <v>293</v>
+        <v>160</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>867</v>
       </c>
       <c r="E183">
-        <f t="shared" ref="E183:E248" si="3">LEN(D183)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>32</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="C184" t="s">
-        <v>294</v>
+        <v>160</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>868</v>
       </c>
       <c r="E184">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>26</v>
-      </c>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>659</v>
+        <v>198</v>
       </c>
       <c r="C185" t="s">
-        <v>295</v>
+        <v>160</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>869</v>
       </c>
       <c r="E185">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>492</v>
+        <v>196</v>
       </c>
       <c r="C186" t="s">
-        <v>493</v>
+        <v>160</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>870</v>
       </c>
       <c r="E186">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>90</v>
+      </c>
       <c r="B187" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C187" t="s">
-        <v>176</v>
+        <v>160</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>871</v>
       </c>
       <c r="E187">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>215</v>
+        <v>460</v>
       </c>
       <c r="C188" t="s">
-        <v>176</v>
+        <v>461</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>872</v>
       </c>
       <c r="E188">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
       <c r="B189" t="s">
-        <v>218</v>
+        <v>619</v>
       </c>
       <c r="C189" t="s">
-        <v>176</v>
+        <v>270</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>873</v>
       </c>
       <c r="E189">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>216</v>
+        <v>462</v>
       </c>
       <c r="C190" t="s">
-        <v>176</v>
+        <v>463</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="E190">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B191" t="s">
-        <v>175</v>
+        <v>620</v>
       </c>
       <c r="C191" t="s">
-        <v>176</v>
+        <v>271</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>875</v>
       </c>
       <c r="E191">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>41</v>
+      </c>
       <c r="B192" t="s">
-        <v>494</v>
+        <v>125</v>
       </c>
       <c r="C192" t="s">
-        <v>495</v>
+        <v>170</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>876</v>
       </c>
       <c r="E192">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>10</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>660</v>
+        <v>464</v>
       </c>
       <c r="C193" t="s">
-        <v>296</v>
+        <v>465</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>877</v>
       </c>
       <c r="E193">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>7</v>
+      </c>
       <c r="B194" t="s">
-        <v>496</v>
+        <v>621</v>
       </c>
       <c r="C194" t="s">
-        <v>497</v>
+        <v>272</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>878</v>
       </c>
       <c r="E194">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>23</v>
-      </c>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>661</v>
+        <v>466</v>
       </c>
       <c r="C195" t="s">
-        <v>297</v>
+        <v>467</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>879</v>
       </c>
       <c r="E195">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B196" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C196" t="s">
-        <v>190</v>
+        <v>880</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>881</v>
       </c>
       <c r="E196">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>498</v>
+        <v>216</v>
       </c>
       <c r="C197" t="s">
-        <v>499</v>
+        <v>217</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>882</v>
       </c>
       <c r="E197">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>8</v>
-      </c>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>662</v>
+        <v>468</v>
       </c>
       <c r="C198" t="s">
-        <v>298</v>
+        <v>469</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>883</v>
       </c>
       <c r="E198">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>500</v>
+        <v>203</v>
       </c>
       <c r="C199" t="s">
-        <v>501</v>
+        <v>204</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>884</v>
       </c>
       <c r="E199">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>31</v>
-      </c>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>124</v>
+        <v>472</v>
       </c>
       <c r="C200" t="s">
-        <v>299</v>
+        <v>471</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="E200">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>236</v>
+        <v>470</v>
       </c>
       <c r="C201" t="s">
-        <v>237</v>
+        <v>471</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>886</v>
       </c>
       <c r="E201">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>51</v>
+      </c>
       <c r="B202" t="s">
-        <v>502</v>
+        <v>171</v>
       </c>
       <c r="C202" t="s">
-        <v>503</v>
+        <v>135</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>887</v>
       </c>
       <c r="E202">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>99</v>
+      </c>
       <c r="B203" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="C203" t="s">
-        <v>224</v>
+        <v>135</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>888</v>
       </c>
       <c r="E203">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B204" t="s">
-        <v>184</v>
+        <v>622</v>
       </c>
       <c r="C204" t="s">
-        <v>185</v>
+        <v>135</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>889</v>
       </c>
       <c r="E204">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B205" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C205" t="s">
-        <v>161</v>
+        <v>273</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>890</v>
       </c>
       <c r="E205">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="C206" t="s">
-        <v>505</v>
+        <v>474</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>891</v>
       </c>
       <c r="E206">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
       <c r="C207" t="s">
-        <v>505</v>
+        <v>575</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>895</v>
       </c>
       <c r="E207">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B208" t="s">
-        <v>191</v>
+        <v>623</v>
       </c>
       <c r="C208" t="s">
-        <v>149</v>
+        <v>274</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>896</v>
       </c>
       <c r="E208">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>16</v>
-      </c>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>148</v>
+        <v>477</v>
       </c>
       <c r="C209" t="s">
-        <v>149</v>
+        <v>478</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>897</v>
       </c>
       <c r="E209">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>108</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>179</v>
+        <v>483</v>
       </c>
       <c r="C210" t="s">
-        <v>149</v>
+        <v>478</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="E210">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>109</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>663</v>
+        <v>479</v>
       </c>
       <c r="C211" t="s">
-        <v>149</v>
+        <v>478</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>899</v>
       </c>
       <c r="E211">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>37</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>131</v>
+        <v>480</v>
       </c>
       <c r="C212" t="s">
-        <v>300</v>
+        <v>478</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>900</v>
       </c>
       <c r="E212">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="C213" t="s">
-        <v>508</v>
+        <v>478</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>901</v>
       </c>
       <c r="E213">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>4</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>664</v>
+        <v>485</v>
       </c>
       <c r="C214" t="s">
-        <v>301</v>
+        <v>478</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>902</v>
       </c>
       <c r="E214">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>612</v>
+        <v>484</v>
       </c>
       <c r="C215" t="s">
-        <v>613</v>
+        <v>478</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>903</v>
       </c>
       <c r="E215">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>112</v>
-      </c>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>180</v>
+        <v>486</v>
       </c>
       <c r="C216" t="s">
-        <v>181</v>
+        <v>478</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>904</v>
       </c>
       <c r="E216">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>69</v>
-      </c>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>665</v>
+        <v>481</v>
       </c>
       <c r="C217" t="s">
-        <v>302</v>
+        <v>478</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>905</v>
       </c>
       <c r="E217">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>59</v>
+      </c>
       <c r="B218" t="s">
-        <v>511</v>
+        <v>138</v>
       </c>
       <c r="C218" t="s">
-        <v>512</v>
+        <v>139</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>906</v>
       </c>
       <c r="E218">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="C219" t="s">
-        <v>512</v>
+        <v>488</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>907</v>
       </c>
       <c r="E219">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>84</v>
+      </c>
       <c r="B220" t="s">
-        <v>513</v>
+        <v>624</v>
       </c>
       <c r="C220" t="s">
-        <v>512</v>
+        <v>275</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>908</v>
       </c>
       <c r="E220">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>58</v>
+      </c>
       <c r="B221" t="s">
-        <v>514</v>
+        <v>132</v>
       </c>
       <c r="C221" t="s">
-        <v>512</v>
+        <v>133</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>909</v>
       </c>
       <c r="E221">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>73</v>
+      </c>
       <c r="B222" t="s">
-        <v>516</v>
+        <v>625</v>
       </c>
       <c r="C222" t="s">
-        <v>512</v>
+        <v>276</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>911</v>
       </c>
       <c r="E222">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>677</v>
+      </c>
       <c r="B223" t="s">
-        <v>519</v>
+        <v>678</v>
       </c>
       <c r="C223" t="s">
-        <v>512</v>
+        <v>165</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>912</v>
       </c>
       <c r="E223">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>518</v>
+        <v>679</v>
       </c>
       <c r="C224" t="s">
-        <v>512</v>
+        <v>165</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>913</v>
       </c>
       <c r="E224">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>105</v>
+      </c>
       <c r="B225" t="s">
-        <v>520</v>
+        <v>164</v>
       </c>
       <c r="C225" t="s">
-        <v>512</v>
+        <v>165</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>914</v>
       </c>
       <c r="E225">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="C226" t="s">
-        <v>512</v>
+        <v>490</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>915</v>
       </c>
       <c r="E226">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>65</v>
-      </c>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>152</v>
+        <v>916</v>
       </c>
       <c r="C227" t="s">
-        <v>153</v>
+        <v>491</v>
       </c>
       <c r="E227">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+        <f>LEN(D227)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="C228" t="s">
-        <v>522</v>
+        <v>493</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>917</v>
       </c>
       <c r="E228">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+        <f>LEN(D228)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B229" t="s">
-        <v>666</v>
+        <v>626</v>
       </c>
       <c r="C229" t="s">
-        <v>303</v>
+        <v>277</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="E229">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>64</v>
-      </c>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>145</v>
+        <v>504</v>
       </c>
       <c r="C230" t="s">
-        <v>146</v>
+        <v>502</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>919</v>
       </c>
       <c r="E230">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>80</v>
-      </c>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>667</v>
+        <v>501</v>
       </c>
       <c r="C231" t="s">
-        <v>304</v>
+        <v>502</v>
       </c>
       <c r="E231">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>720</v>
-      </c>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>721</v>
+        <v>507</v>
       </c>
       <c r="C232" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>722</v>
+        <v>503</v>
       </c>
       <c r="C233" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>115</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>182</v>
+        <v>505</v>
       </c>
       <c r="C234" t="s">
-        <v>183</v>
+        <v>502</v>
       </c>
       <c r="E234">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C235" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="E235">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="C236" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="E236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>13</v>
-      </c>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>668</v>
+        <v>506</v>
       </c>
       <c r="C237" t="s">
-        <v>305</v>
+        <v>502</v>
       </c>
       <c r="E237">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="C238" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="E238">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E238:E301" si="4">LEN(D238)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="C239" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="E239">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>103</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>669</v>
+        <v>512</v>
       </c>
       <c r="C240" t="s">
-        <v>306</v>
+        <v>513</v>
       </c>
       <c r="E240">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>70</v>
+      </c>
       <c r="B241" t="s">
-        <v>541</v>
+        <v>148</v>
       </c>
       <c r="C241" t="s">
-        <v>539</v>
+        <v>149</v>
       </c>
       <c r="E241">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C242" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="E242">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>544</v>
+        <v>209</v>
       </c>
       <c r="C243" t="s">
-        <v>539</v>
+        <v>210</v>
       </c>
       <c r="E243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>540</v>
+        <v>222</v>
       </c>
       <c r="C244" t="s">
-        <v>539</v>
+        <v>223</v>
       </c>
       <c r="E244">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>542</v>
+        <v>224</v>
       </c>
       <c r="C245" t="s">
-        <v>539</v>
+        <v>223</v>
       </c>
       <c r="E245">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>548</v>
+        <v>495</v>
       </c>
       <c r="C246" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="E246">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
       <c r="C247" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="E247">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="C248" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="E248">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="C249" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="E249">
-        <f t="shared" ref="E249:E312" si="4">LEN(D249)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="C250" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="E250">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>91</v>
+      </c>
       <c r="B251" t="s">
-        <v>549</v>
+        <v>627</v>
       </c>
       <c r="C251" t="s">
-        <v>550</v>
+        <v>278</v>
       </c>
       <c r="E251">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>77</v>
-      </c>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>164</v>
+        <v>516</v>
       </c>
       <c r="C252" t="s">
-        <v>165</v>
+        <v>517</v>
       </c>
       <c r="E252">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>52</v>
+      </c>
       <c r="B253" t="s">
-        <v>551</v>
+        <v>649</v>
       </c>
       <c r="C253" t="s">
-        <v>552</v>
+        <v>134</v>
       </c>
       <c r="E253">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>101</v>
+      </c>
       <c r="B254" t="s">
-        <v>229</v>
+        <v>628</v>
       </c>
       <c r="C254" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="E254">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>17</v>
+      </c>
       <c r="B255" t="s">
-        <v>242</v>
+        <v>629</v>
       </c>
       <c r="C255" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="E255">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>0</v>
+      </c>
       <c r="B256" t="s">
-        <v>244</v>
+        <v>630</v>
       </c>
       <c r="C256" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="E256">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>532</v>
+        <v>650</v>
       </c>
       <c r="C257" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="E257">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="C258" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="E258">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="C259" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="E259">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="C260" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="E260">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="C261" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E261">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>98</v>
-      </c>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>670</v>
+        <v>524</v>
       </c>
       <c r="C262" t="s">
-        <v>307</v>
+        <v>525</v>
       </c>
       <c r="E262">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
       <c r="B263" t="s">
-        <v>553</v>
+        <v>631</v>
       </c>
       <c r="C263" t="s">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="E263">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>58</v>
-      </c>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>692</v>
+        <v>199</v>
       </c>
       <c r="C264" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="E264">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>110</v>
-      </c>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>671</v>
+        <v>577</v>
       </c>
       <c r="C265" t="s">
-        <v>308</v>
+        <v>578</v>
       </c>
       <c r="E265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>21</v>
-      </c>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>672</v>
+        <v>530</v>
       </c>
       <c r="C266" t="s">
-        <v>309</v>
+        <v>527</v>
       </c>
       <c r="E266">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>0</v>
-      </c>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>673</v>
+        <v>529</v>
       </c>
       <c r="C267" t="s">
-        <v>310</v>
+        <v>527</v>
       </c>
       <c r="E267">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>57</v>
+      </c>
       <c r="B268" t="s">
-        <v>693</v>
+        <v>136</v>
       </c>
       <c r="C268" t="s">
-        <v>556</v>
+        <v>137</v>
       </c>
       <c r="E268">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="C269" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="E269">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>614</v>
+        <v>528</v>
       </c>
       <c r="C270" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="E270">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>107</v>
+      </c>
       <c r="B271" t="s">
-        <v>557</v>
+        <v>632</v>
       </c>
       <c r="C271" t="s">
-        <v>558</v>
+        <v>283</v>
       </c>
       <c r="E271">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>12</v>
+      </c>
       <c r="B272" t="s">
-        <v>559</v>
+        <v>633</v>
       </c>
       <c r="C272" t="s">
-        <v>560</v>
+        <v>284</v>
       </c>
       <c r="E272">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>64</v>
+      </c>
       <c r="B273" t="s">
-        <v>561</v>
+        <v>634</v>
       </c>
       <c r="C273" t="s">
-        <v>562</v>
+        <v>285</v>
       </c>
       <c r="E273">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B274" t="s">
-        <v>674</v>
+        <v>118</v>
       </c>
       <c r="C274" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="E274">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>187</v>
+      </c>
       <c r="B275" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="C275" t="s">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="E275">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>183</v>
+      </c>
       <c r="B276" t="s">
-        <v>615</v>
+        <v>174</v>
       </c>
       <c r="C276" t="s">
-        <v>616</v>
+        <v>287</v>
       </c>
       <c r="E276">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>45</v>
+      </c>
       <c r="B277" t="s">
-        <v>567</v>
+        <v>129</v>
       </c>
       <c r="C277" t="s">
-        <v>564</v>
+        <v>287</v>
       </c>
       <c r="E277">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>83</v>
+      </c>
       <c r="B278" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="C278" t="s">
-        <v>564</v>
+        <v>288</v>
       </c>
       <c r="E278">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B279" t="s">
-        <v>150</v>
+        <v>636</v>
       </c>
       <c r="C279" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="E279">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>563</v>
+        <v>342</v>
       </c>
       <c r="C280" t="s">
-        <v>564</v>
+        <v>341</v>
       </c>
       <c r="E280">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>565</v>
+        <v>343</v>
       </c>
       <c r="C281" t="s">
-        <v>564</v>
+        <v>341</v>
       </c>
       <c r="E281">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>118</v>
-      </c>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>675</v>
+        <v>340</v>
       </c>
       <c r="C282" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="E282">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B283" t="s">
-        <v>676</v>
+        <v>131</v>
       </c>
       <c r="C283" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="E283">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>70</v>
-      </c>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>677</v>
+        <v>358</v>
       </c>
       <c r="C284" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="E284">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>36</v>
-      </c>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>130</v>
+        <v>564</v>
       </c>
       <c r="C285" t="s">
-        <v>315</v>
+        <v>565</v>
       </c>
       <c r="E285">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>207</v>
-      </c>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>198</v>
+        <v>401</v>
       </c>
       <c r="C286" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="E286">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>203</v>
-      </c>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>194</v>
+        <v>403</v>
       </c>
       <c r="C287" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="E287">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B288" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C288" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="E288">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="B289" t="s">
-        <v>678</v>
+        <v>176</v>
       </c>
       <c r="C289" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E289">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>95</v>
-      </c>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>679</v>
+        <v>425</v>
       </c>
       <c r="C290" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="E290">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>371</v>
+        <v>566</v>
       </c>
       <c r="C291" t="s">
-        <v>370</v>
+        <v>292</v>
       </c>
       <c r="E291">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>372</v>
+        <v>567</v>
       </c>
       <c r="C292" t="s">
-        <v>370</v>
+        <v>292</v>
       </c>
       <c r="E292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>66</v>
+      </c>
       <c r="B293" t="s">
-        <v>369</v>
+        <v>637</v>
       </c>
       <c r="C293" t="s">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="E293">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B294" t="s">
-        <v>144</v>
+        <v>638</v>
       </c>
       <c r="C294" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="E294">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>87</v>
+      </c>
       <c r="B295" t="s">
-        <v>387</v>
+        <v>154</v>
       </c>
       <c r="C295" t="s">
-        <v>388</v>
+        <v>155</v>
       </c>
       <c r="E295">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="C296" t="s">
-        <v>602</v>
+        <v>155</v>
       </c>
       <c r="E296">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>49</v>
+      </c>
       <c r="B297" t="s">
-        <v>430</v>
+        <v>639</v>
       </c>
       <c r="C297" t="s">
-        <v>431</v>
+        <v>295</v>
       </c>
       <c r="E297">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="C298" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="E298">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B299" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C299" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="E299">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B300" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C300" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="E300">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>42</v>
+      </c>
       <c r="B301" t="s">
-        <v>454</v>
+        <v>126</v>
       </c>
       <c r="C301" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E301">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>603</v>
+        <v>543</v>
       </c>
       <c r="C302" t="s">
-        <v>321</v>
+        <v>544</v>
       </c>
       <c r="E302">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E302:E336" si="5">LEN(D302)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>604</v>
+        <v>547</v>
       </c>
       <c r="C303" t="s">
-        <v>321</v>
+        <v>548</v>
       </c>
       <c r="E303">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B304" t="s">
-        <v>680</v>
+        <v>121</v>
       </c>
       <c r="C304" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="E304">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>76</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>681</v>
+        <v>531</v>
       </c>
       <c r="C305" t="s">
-        <v>323</v>
+        <v>532</v>
       </c>
       <c r="E305">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="B306" t="s">
-        <v>170</v>
+        <v>640</v>
       </c>
       <c r="C306" t="s">
-        <v>171</v>
+        <v>300</v>
       </c>
       <c r="E306">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>72</v>
+      </c>
       <c r="B307" t="s">
-        <v>611</v>
+        <v>641</v>
       </c>
       <c r="C307" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="E307">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>55</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>682</v>
+        <v>533</v>
       </c>
       <c r="C308" t="s">
-        <v>324</v>
+        <v>534</v>
       </c>
       <c r="E308">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>68</v>
+      </c>
       <c r="B309" t="s">
-        <v>509</v>
+        <v>642</v>
       </c>
       <c r="C309" t="s">
-        <v>510</v>
+        <v>302</v>
       </c>
       <c r="E309">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B310" t="s">
-        <v>140</v>
+        <v>643</v>
       </c>
       <c r="C310" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="E310">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="B311" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="C311" t="s">
-        <v>326</v>
+        <v>144</v>
       </c>
       <c r="E311">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B312" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C312" t="s">
-        <v>327</v>
+        <v>147</v>
       </c>
       <c r="E312">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>580</v>
+        <v>542</v>
       </c>
       <c r="C313" t="s">
-        <v>581</v>
+        <v>536</v>
       </c>
       <c r="E313">
-        <f t="shared" ref="E313:E347" si="5">LEN(D313)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>584</v>
+        <v>538</v>
       </c>
       <c r="C314" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="E314">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>40</v>
-      </c>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>134</v>
+        <v>539</v>
       </c>
       <c r="C315" t="s">
-        <v>328</v>
+        <v>536</v>
       </c>
       <c r="E315">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="C316" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="E316">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>19</v>
-      </c>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>683</v>
+        <v>541</v>
       </c>
       <c r="C317" t="s">
-        <v>329</v>
+        <v>536</v>
       </c>
       <c r="E317">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>79</v>
-      </c>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>684</v>
+        <v>537</v>
       </c>
       <c r="C318" t="s">
-        <v>330</v>
+        <v>536</v>
       </c>
       <c r="E318">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="C319" t="s">
-        <v>571</v>
+        <v>536</v>
       </c>
       <c r="E319">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B320" t="s">
-        <v>685</v>
+        <v>644</v>
       </c>
       <c r="C320" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="E320">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B321" t="s">
-        <v>686</v>
+        <v>645</v>
       </c>
       <c r="C321" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="E321">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="B322" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C322" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="E322">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>74</v>
-      </c>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C323" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="E323">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>579</v>
+        <v>545</v>
       </c>
       <c r="C324" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="E324">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="C325" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="E325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="C326" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="E326">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="C327" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="E327">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>172</v>
+      </c>
       <c r="B328" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="C328" t="s">
-        <v>573</v>
+        <v>307</v>
       </c>
       <c r="E328">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>1</v>
+      </c>
       <c r="B329" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="C329" t="s">
-        <v>573</v>
+        <v>308</v>
       </c>
       <c r="E329">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>62</v>
+      </c>
       <c r="B330" t="s">
-        <v>572</v>
+        <v>62</v>
       </c>
       <c r="C330" t="s">
-        <v>573</v>
+        <v>145</v>
       </c>
       <c r="E330">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B331" t="s">
-        <v>687</v>
+        <v>130</v>
       </c>
       <c r="C331" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E331">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>111</v>
-      </c>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>688</v>
+        <v>201</v>
       </c>
       <c r="C332" t="s">
-        <v>334</v>
+        <v>202</v>
       </c>
       <c r="E332">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>120</v>
-      </c>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>128</v>
+        <v>551</v>
       </c>
       <c r="C333" t="s">
-        <v>335</v>
+        <v>552</v>
       </c>
       <c r="E333">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>40</v>
+      </c>
       <c r="B334" t="s">
-        <v>227</v>
-      </c>
-      <c r="C334" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="E334">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>86</v>
+      </c>
       <c r="B335" t="s">
-        <v>582</v>
-      </c>
-      <c r="C335" t="s">
-        <v>583</v>
+        <v>86</v>
       </c>
       <c r="E335">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>92</v>
+      </c>
       <c r="B336" t="s">
-        <v>695</v>
-      </c>
-      <c r="C336" t="s">
-        <v>586</v>
+        <v>92</v>
       </c>
       <c r="E336">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B337" t="s">
-        <v>696</v>
-      </c>
-      <c r="C337" t="s">
-        <v>586</v>
-      </c>
-      <c r="E337">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B338" t="s">
-        <v>587</v>
-      </c>
-      <c r="C338" t="s">
-        <v>586</v>
-      </c>
-      <c r="E338">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>192</v>
-      </c>
-      <c r="B339" t="s">
-        <v>689</v>
-      </c>
-      <c r="C339" t="s">
-        <v>336</v>
-      </c>
-      <c r="E339">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>1</v>
-      </c>
-      <c r="B340" t="s">
-        <v>690</v>
-      </c>
-      <c r="C340" t="s">
-        <v>337</v>
-      </c>
-      <c r="E340">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>68</v>
-      </c>
-      <c r="B341" t="s">
-        <v>68</v>
-      </c>
-      <c r="C341" t="s">
-        <v>159</v>
-      </c>
-      <c r="E341">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>52</v>
-      </c>
-      <c r="B342" t="s">
-        <v>143</v>
-      </c>
-      <c r="C342" t="s">
-        <v>338</v>
-      </c>
-      <c r="E342">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B343" t="s">
-        <v>221</v>
-      </c>
-      <c r="C343" t="s">
-        <v>222</v>
-      </c>
-      <c r="E343">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B344" t="s">
-        <v>588</v>
-      </c>
-      <c r="C344" t="s">
-        <v>589</v>
-      </c>
-      <c r="E344">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>46</v>
-      </c>
-      <c r="B345" t="s">
-        <v>46</v>
-      </c>
-      <c r="E345">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>93</v>
-      </c>
-      <c r="B346" t="s">
-        <v>93</v>
-      </c>
-      <c r="E346">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>99</v>
-      </c>
-      <c r="B347" t="s">
-        <v>99</v>
-      </c>
-      <c r="E347">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D347" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D347">
-      <sortCondition ref="C1:C347"/>
+  <autoFilter ref="A1:D336">
+    <sortState ref="A2:D336">
+      <sortCondition ref="C1:C336"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B319:D321 D312 D231:D247 B250:D250 B251:B252 B231:B249 B253:D255 B256:C260 B261:D270 B280:D285 B301:D306 B311:C312 B325:D328 B329:B333 B322:B324 B313:B318 B307:B310 B286:B300 B271:B279 B334:D1048576 E1 B1:D230">
+  <conditionalFormatting sqref="B308:D310 D301 D222:D226 D228:D236 B239:D239 B240:B241 B222:B238 B242:D244 B245:C249 B250:D259 B269:D274 B290:D295 B300:C301 B314:D317 B318:B322 B311:B313 B302:B307 B296:B299 B275:B289 B260:B268 B323:D1048576 E1 B1:D221">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lyrics/earworms.xlsx
+++ b/lyrics/earworms.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjblgs\PycharmProjects\git\earworms\lyrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zspatter/Documents/GitHub/earworms/lyrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFD5551-04F8-334B-BE42-EC2A1514EBC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$333</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1011">
   <si>
     <t>All Star – Smash Mouth</t>
   </si>
@@ -86,9 +87,6 @@
     <t>My Heart Will Go On – Celine Dion</t>
   </si>
   <si>
-    <t>Kiss Me – Sixpence None the Richer</t>
-  </si>
-  <si>
     <t>Milkshake – Kelis</t>
   </si>
   <si>
@@ -155,27 +153,18 @@
     <t>Barbie Girl- Aqua</t>
   </si>
   <si>
-    <t>Nyan Cat</t>
-  </si>
-  <si>
     <t>Dragostea Din Tei- O-Zone</t>
   </si>
   <si>
     <t>The Lion Sleeps Tonight- The Tokens</t>
   </si>
   <si>
-    <t>The Time Warp- The Rocky Horror Picture Show</t>
-  </si>
-  <si>
     <t>Blue (Da Ba Dee)- Eiffel 65</t>
   </si>
   <si>
     <t>Yellow Submarine- The Beatles</t>
   </si>
   <si>
-    <t>What Does The Fox Say- Ylvis</t>
-  </si>
-  <si>
     <t>Lollipop- The Chordettes</t>
   </si>
   <si>
@@ -227,9 +216,6 @@
     <t>Friday - Rebecca Black</t>
   </si>
   <si>
-    <t>Fuck You Thunder Song - Ted</t>
-  </si>
-  <si>
     <t>Girlfriend - Avril Lavigne</t>
   </si>
   <si>
@@ -242,9 +228,6 @@
     <t>Hey Mickey - Toni Basil</t>
   </si>
   <si>
-    <t>Hey Pachuco - The Mask</t>
-  </si>
-  <si>
     <t>Hips Don't Lie – Shakira</t>
   </si>
   <si>
@@ -296,9 +279,6 @@
     <t>Pokémon Theme Song</t>
   </si>
   <si>
-    <t>Pretty Fly – The Offspring</t>
-  </si>
-  <si>
     <t>Pump It - The Black Eyed Peas</t>
   </si>
   <si>
@@ -416,18 +396,12 @@
     <t>The Lion Sleeps Tonight</t>
   </si>
   <si>
-    <t>The Time Warp</t>
-  </si>
-  <si>
     <t>Blue (Da Ba Dee)</t>
   </si>
   <si>
     <t>Yellow Submarine</t>
   </si>
   <si>
-    <t>What Does The Fox Say</t>
-  </si>
-  <si>
     <t>Lollipop</t>
   </si>
   <si>
@@ -446,9 +420,6 @@
     <t>Chop Suey!</t>
   </si>
   <si>
-    <t>System of a Down</t>
-  </si>
-  <si>
     <t>Cotton Eye Joe</t>
   </si>
   <si>
@@ -470,9 +441,6 @@
     <t>Train</t>
   </si>
   <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
     <t>Headstrong</t>
   </si>
   <si>
@@ -497,9 +465,6 @@
     <t>Frozen</t>
   </si>
   <si>
-    <t>Pretty Fly</t>
-  </si>
-  <si>
     <t>The Offspring</t>
   </si>
   <si>
@@ -875,9 +840,6 @@
     <t>Sister Sledge</t>
   </si>
   <si>
-    <t>Sixpence None the Richer</t>
-  </si>
-  <si>
     <t>Smash Mouth</t>
   </si>
   <si>
@@ -890,9 +852,6 @@
     <t>Taylor Swift</t>
   </si>
   <si>
-    <t>Ted</t>
-  </si>
-  <si>
     <t>The Beach Boys</t>
   </si>
   <si>
@@ -914,18 +873,9 @@
     <t>The Killers</t>
   </si>
   <si>
-    <t>The Lion King</t>
-  </si>
-  <si>
-    <t>The Mask</t>
-  </si>
-  <si>
     <t>The Proclaimers</t>
   </si>
   <si>
-    <t>The Rocky Horror Picture Show</t>
-  </si>
-  <si>
     <t>The Supremes</t>
   </si>
   <si>
@@ -962,9 +912,6 @@
     <t>Whitney Houston</t>
   </si>
   <si>
-    <t>Ylvis</t>
-  </si>
-  <si>
     <t>Too Close</t>
   </si>
   <si>
@@ -1532,9 +1479,6 @@
     <t>These Things</t>
   </si>
   <si>
-    <t>Walking Away</t>
-  </si>
-  <si>
     <t>Take the World</t>
   </si>
   <si>
@@ -1550,9 +1494,6 @@
     <t>Breakdown</t>
   </si>
   <si>
-    <t>Fallen</t>
-  </si>
-  <si>
     <t>Rise Above This</t>
   </si>
   <si>
@@ -1568,9 +1509,6 @@
     <t>Truth</t>
   </si>
   <si>
-    <t>Let You Down</t>
-  </si>
-  <si>
     <t>Some People Say</t>
   </si>
   <si>
@@ -1595,9 +1533,6 @@
     <t>Smashing Pumpkins</t>
   </si>
   <si>
-    <t>Awoo (feat. Betta Lemme)</t>
-  </si>
-  <si>
     <t>Sofi Tukker</t>
   </si>
   <si>
@@ -1634,12 +1569,6 @@
     <t>Tiger Lou</t>
   </si>
   <si>
-    <t>God Hates a Coward</t>
-  </si>
-  <si>
-    <t>Tomahawk</t>
-  </si>
-  <si>
     <t>Stressed Out</t>
   </si>
   <si>
@@ -1922,9 +1851,6 @@
     <t>We are Family</t>
   </si>
   <si>
-    <t>Kiss Me</t>
-  </si>
-  <si>
     <t>All Star</t>
   </si>
   <si>
@@ -1937,9 +1863,6 @@
     <t>Shake it Off</t>
   </si>
   <si>
-    <t>Fuck You Thunder Song</t>
-  </si>
-  <si>
     <t>My Humps</t>
   </si>
   <si>
@@ -1949,9 +1872,6 @@
     <t>Hakuna Matata</t>
   </si>
   <si>
-    <t>Hey Pachuco</t>
-  </si>
-  <si>
     <t>500 miles</t>
   </si>
   <si>
@@ -1959,9 +1879,6 @@
   </si>
   <si>
     <t>I Wanna Talk About Me</t>
-  </si>
-  <si>
-    <t>Hey Mickey</t>
   </si>
   <si>
     <t>Honky Tonk Badonkadonk</t>
@@ -3541,11 +3458,748 @@
 Because I'm so much more
 Than meets the eye</t>
   </si>
+  <si>
+    <t>Cause I’m broken when I’m open
+And I don’t feel like I am strong enough
+Cause I'm broken when I'm lonesome
+And I don't feel right when you're gone away</t>
+  </si>
+  <si>
+    <t>(Hey) I keep on thinking that it's
+(Hey) All done and all over now
+You keep on thinking you can save me, save me
+(Hey) My ship is sinking but it's
+(Hey) All good and I can't go down
+You got me thinking that the party's all over</t>
+  </si>
+  <si>
+    <t>Fake it if you're out of direction
+Fake it if you don't belong
+Yeah, fake it if you feel like affection
+Whoa, you're such a fucking hypocrite</t>
+  </si>
+  <si>
+    <t>Frail, the skin is dry and pale
+The pain will never fail
+And so we go back to the remedy</t>
+  </si>
+  <si>
+    <t>Call your name every day
+When I feel so helpless
+I've fallen down
+But I'll rise above this
+Rise above this doubt</t>
+  </si>
+  <si>
+    <t>I'm beaten down again, I belong to them
+Beaten down again, I've failed you
+I'm weaker now my friend, I belong to them
+Beaten down again, I've failed you</t>
+  </si>
+  <si>
+    <t>Say can you help me right before the fall
+Take what you can and leave me to the wolves</t>
+  </si>
+  <si>
+    <t>We are at the same crossroads again
+It may be, too little, too late
+We are so envious of one another
+So, petty
+That you don't want nobody, to outshine you</t>
+  </si>
+  <si>
+    <t>I'm on tonight, you know my hips don't lie
+And I'm starting to feel it's right
+All the attraction, the tension
+Don't you see baby, this is perfection</t>
+  </si>
+  <si>
+    <t>Say Nada
+Na na na na na na
+Say Nada
+I'm just looking for a freak
+Someone who likes tasty meat</t>
+  </si>
+  <si>
+    <t>Oh, oh, oh, get in the action
+Feel the attraction
+Color my hair, do what I dare
+Oh, oh, oh, I wanna be free
+Yeah, to feel the way I feel
+Man! I feel like a woman!</t>
+  </si>
+  <si>
+    <t>You watch me bleed until I can't breathe, shaking
+Falling onto my knees
+And now that I'm without your kisses
+I'll be needing stitches</t>
+  </si>
+  <si>
+    <t>I know I can treat you better than he can
+And any girl like you deserves a gentleman
+Tell me why are we wasting time
+On all your wasted crying
+When you should be with me instead</t>
+  </si>
+  <si>
+    <t>The lights that move sideways and up and down
+The beat takes you over and spins you round
+Our hearts steady-beating, the sweat turns to cold
+We're slaves to the DJ and out of control</t>
+  </si>
+  <si>
+    <t>You can occupy my every sigh
+You can rent the space inside my mind
+At least until the price becomes too high</t>
+  </si>
+  <si>
+    <t>Your pulse, it races with mine
+And I swear that there's no other girl
+Your body shakes, it's like tonight
+We can take the world</t>
+  </si>
+  <si>
+    <t>I heard it's cold out, but her popsicle melts
+She's in the bathroom, she pleasures herself
+Says I'm a bad man, she's locking me out
+It's 'cause of these things, it's 'cause of these things</t>
+  </si>
+  <si>
+    <t>Tear You Apart</t>
+  </si>
+  <si>
+    <t>I want to hold you close
+Skin pressed against me tight
+Lie still, close your eyes girl
+So lovely, it feels so right</t>
+  </si>
+  <si>
+    <t>I'm gonna soak up the sun
+Gonna tell everyone
+To lighten up
+I'm gonna tell 'em that
+I've got no one to blame
+For every time I feel lame
+I'm looking up
+I'm gonna soak up the sun</t>
+  </si>
+  <si>
+    <t>Come and see
+How the wind in your hair will feel differently
+Catch and release
+The lure above</t>
+  </si>
+  <si>
+    <t>I like big butts and I cannot lie
+You other brothers can't deny
+That when a girl walks in with an itty bitty waist
+And a round thing in your face, you get sprung</t>
+  </si>
+  <si>
+    <t>the weeknd</t>
+  </si>
+  <si>
+    <t>We are family
+I got all my sisters with me
+We are family
+Get up everybody sing</t>
+  </si>
+  <si>
+    <t>fireflies</t>
+  </si>
+  <si>
+    <t>Somebody once told me the world is gonna roll me
+I ain't the sharpest tool in the shed
+She was looking kind of dumb with her finger and her thumb
+In the shape of an "L" on her forehead</t>
+  </si>
+  <si>
+    <t>And I don't even care
+To shake these zipper blues
+And we don't know
+Just where our bones will rest
+To dust I guess
+Forgotten and absorbed
+Into the earth below</t>
+  </si>
+  <si>
+    <t>Despite all my rage, I am still just a rat in a cage
+Despite all my rage, I am still just a rat in a cage
+Someone will say, "What is lost can never be saved."
+Despite all my rage, I am still just a rat in a cage</t>
+  </si>
+  <si>
+    <t>Today is the greatest
+Day I’ve ever known
+Can’t live for tomorrow
+Tomorrow’s much too long
+I’ll burn my eyes out
+Before I get out</t>
+  </si>
+  <si>
+    <t>I know I did not raise a wrist
+I know I did not capture it
+It came (it came), it went (it went)
+It con (it con), quered quick
+I was there and then I quit</t>
+  </si>
+  <si>
+    <t>Awoo</t>
+  </si>
+  <si>
+    <t>Dial the seven digits, call up Bridgette
+Her man's a midget; plus she got friends, yo, I can dig it
+Here's a 40, swig it, you know it's frigid
+I got 'em chillin' in the cooler, break out the ruler
+Damn! That's the fattest stoge I ever seen</t>
+  </si>
+  <si>
+    <t>Black hole sun, won't you come
+And wash away the rain?
+Black hole sun, won't you come?
+Won't you come? Won't you come?</t>
+  </si>
+  <si>
+    <t>If you wanna be my lover, you gotta get with my friends
+(Gotta get with my friends)
+Make it last forever, friendship never ends
+If you wanna be my lover, you have got to give
+Taking is too easy, but that's the way it is</t>
+  </si>
+  <si>
+    <t>Met the Ghost of Stephen Foster at the Hotel Paradise
+This is what I told him as I gazed into his eyes:
+Rooms were made for carpets, towers made for spires
+Ships were made for cannonade to fire off from inside them</t>
+  </si>
+  <si>
+    <t>This ain’t the heartache that I thought I knew
+This ain’t the party that I thought we’d do
+You got your limit, baby I got mine
+611-3369 You got to call me, baby</t>
+  </si>
+  <si>
+    <t>Aerials in the sky
+When you lose small mind, you free your life
+Aerials, so up high
+When you free your eyes, eternal prize</t>
+  </si>
+  <si>
+    <t>Lalalalalalalalalala, ooh-ooh
+Everybody’s going to the party have a real good time
+Dancing in the desert blowing up the sunshine</t>
+  </si>
+  <si>
+    <t>I don't think you trust
+In my self-righteous suicide
+I cry when angels deserve to die</t>
+  </si>
+  <si>
+    <t>The Notorious B.I.G.</t>
+  </si>
+  <si>
+    <t>Biggie, Biggie, Biggie, can't you see?
+Sometimes your words just hypnotize me
+And I just love your flashy ways
+Guess that's why they broke, and you're so paid</t>
+  </si>
+  <si>
+    <t>Big Poppa</t>
+  </si>
+  <si>
+    <t>I love it when you call me big poppa
+Throw your hands in the air if you's a true player
+I love it when you call me big poppa
+To the honies getting money
+Playing niggas like dummies</t>
+  </si>
+  <si>
+    <t>I'm just sitting in my car and waiting for my girl
+I'm just sitting in my car and waiting for my girl</t>
+  </si>
+  <si>
+    <t>Such a lonely day and it's mine
+The most loneliest day of my life
+Such a lonely day, should be banned
+It's a day that I can't stand</t>
+  </si>
+  <si>
+    <t>Whoomp, there it is!
+Whoomp, there it is!
+Whoomp, there it is!
+Whoomp, there it is!</t>
+  </si>
+  <si>
+    <t>Cause the players gonna play, play, play, play, play
+And the haters gonna hate, hate, hate, hate, hate
+Baby, I'm just gonna shake, shake, shake, shake, shake
+I shake it off, I shake it off</t>
+  </si>
+  <si>
+    <t>I'm pickin' up good vibrations
+She's giving me excitations (Oom bop bop)
+I'm pickin' up good vibrations (Good vibrations, bop bop)
+She's giving me excitations (Excitations, bop bop)</t>
+  </si>
+  <si>
+    <t>Oh yeah, I'll tell you something
+I think you'll understand
+When I'll say that something
+I want to hold your hand</t>
+  </si>
+  <si>
+    <t>She loves you, yeah, yeah, yeah
+She loves you, yeah, yeah, yeah
+She loves you, yeah, yeah, yeah, yeah</t>
+  </si>
+  <si>
+    <t>We all live in a yellow submarine
+Yellow submarine, yellow submarine
+We all live in a yellow submarine
+Yellow submarine, yellow submarine</t>
+  </si>
+  <si>
+    <t>What you gon' do with all that junk
+All that junk inside your trunk?
+I'ma get-get-get-get you drunk
+Get you love drunk off my hump
+My hump, my hump
+My hump, my hump, my hump</t>
+  </si>
+  <si>
+    <t>Ha, ha, ha
+Pump it
+Ha, ha, ha
+And pump it (Louder)
+Pump it (Louder)
+Pump it (Louder)
+Pump it (Louder)</t>
+  </si>
+  <si>
+    <t>I've, had, the time of my life
+And I never felt this way before
+And I swear, this is true
+And I owe it all to you</t>
+  </si>
+  <si>
+    <t>The Time (Dirty Bit)</t>
+  </si>
+  <si>
+    <t>I Gotta Feeling</t>
+  </si>
+  <si>
+    <t>I got a feelin'
+That tonight's gonna be a good night
+That tonight's gonna be a good night
+That tonight's gonna be a good, good night</t>
+  </si>
+  <si>
+    <t>I must admit, I can't explain
+Any of these thoughts racin' through my brain, it's true
+Baby I'm howlin' for you</t>
+  </si>
+  <si>
+    <t>Oh whoa oh, I got a love that keeps me waitin'
+Oh whoa oh, I got a love that keeps me waitin'
+I'm a lonely boy, I'm a lonely boy
+Oh whoa oh, I got a love that keeps me waitin'</t>
+  </si>
+  <si>
+    <t>I wanted love, I needed love
+Most of all, most of all
+Someone said true love was dead
+And I'm bound to fall, bound to fall for you
+Oh, what can I do? Yeah</t>
+  </si>
+  <si>
+    <t>Lollipop Lollipop
+Oh Lolli Lolli Lolli
+Lollipop Lollipop
+Oh Lolli Lolli Lolli</t>
+  </si>
+  <si>
+    <t>Fear and Delight
+All the way through the night
+With a little daring-do I'll fall in love with you</t>
+  </si>
+  <si>
+    <t>I was good, she was hot
+Stealin' everything she got
+I was bold, she was over the worst of it
+Gave me gear; thank you, dear
+Bring your sister over here
+Let her dance with me just for the hell of it</t>
+  </si>
+  <si>
+    <t>Now there was a time
+When you loved me so
+I couldn't do wrong
+Now you need to know
+See, I been a bad bad bad bad man
+And I'm in deep</t>
+  </si>
+  <si>
+    <t>This ain't no place for no hero
+This ain't no place for no better man
+This ain't no place for no hero
+To call home</t>
+  </si>
+  <si>
+    <t>Don't you want me, baby?
+Don't you want me, ohh?
+Don't you want me, baby?
+Don't you want me, ohh?</t>
+  </si>
+  <si>
+    <t>A, B, C
+It's easy as…
+1, 2, 3
+Or simple as…
+Do-Re-Mi
+A, B, C, 1, 2, 3, baby you and me, girl!</t>
+  </si>
+  <si>
+    <t>Jealousy, turning saints into the sea
+Swimming through sick lullabies, choking on your alibis
+But it's just the price I pay, destiny is calling me
+Open up my eager eyes, 'cause I'm Mr. Brightside</t>
+  </si>
+  <si>
+    <t>Well, somebody told me you had a boyfriend
+Who looked like a girlfriend
+That I had in February of last year
+It's not confidential, I've got potential</t>
+  </si>
+  <si>
+    <t>You sit there in your heartache
+Waiting on some beautiful boy to
+To save you from your old ways
+You play forgiveness</t>
+  </si>
+  <si>
+    <t>Hakuna Matata! What a wonderful phrase
+Hakuna Matata! Ain't no passing craze
+It means no worries for the rest of your days
+It's our problem-free
+Philosophy
+Hakuna Matata!</t>
+  </si>
+  <si>
+    <t>With a thousand lies and a good disguise
+Hit 'em right between the eyes
+Hit 'em right between the eyes
+When you walk away, nothing more to say
+See the lightning in your eyes
+See 'em running for their lives</t>
+  </si>
+  <si>
+    <t>But I would walk five hundred miles
+And I would walk five hundred more
+Just to be the man who walked a thousand miles
+To fall down at your door</t>
+  </si>
+  <si>
+    <t>Well here we go again
+You've found yourself a friend that knows you well
+But no matter what you do
+You'll always feel as though you tripped and fell
+So steady as she goes
+Steady as she goes</t>
+  </si>
+  <si>
+    <t>Stop in the name of love
+Before you break my heart
+Stop in the name of love
+Before you break my heart
+Think it over
+Think it over</t>
+  </si>
+  <si>
+    <t>Weeheeheehee, dee heeheeheehee, weeoh aweem away
+Weeheeheehee, dee heeheeheehee, weeoh aweem away
+A-weema-weh, a-weema-weh, a-weema-weh, a-weema-weh
+A-weema-weh, a-weema-weh, a-weema-weh, a-weema-weh
+A-weema-weh, a-weema-weh, a-weema-weh, a-weema-weh
+A-weema-weh, a-weema-weh, a-weema-weh, a-weema-weh
+In the jungle, the mighty jungle
+The lion sleeps tonight</t>
+  </si>
+  <si>
+    <t>Cause it's a bitter sweet symphony that's life
+Trying to make ends meet, you're a slave to money then you die
+I'll take you down the only road I've ever been down
+You know the one that takes you to the places
+Where all the veins meet, yeah</t>
+  </si>
+  <si>
+    <t>I can't feel my face when I'm with you
+But I love it, but I love it, oh
+I can't feel my face when I'm with you
+But I love it, but I love it, oh</t>
+  </si>
+  <si>
+    <t>Look what you've done
+I’m a motherfuckin' starboy
+Look what you've done
+I'm a motherfuckin' starboy</t>
+  </si>
+  <si>
+    <t>Starboy</t>
+  </si>
+  <si>
+    <t>The Hills</t>
+  </si>
+  <si>
+    <t>I only call you when it's half past five
+The only time that I'll be by your side
+I only love it when you touch me, not feel me
+When I'm fucked up, that's the real me
+When I'm fucked up, that's the real me, yeah</t>
+  </si>
+  <si>
+    <t>I Feel It Coming</t>
+  </si>
+  <si>
+    <t>I feel it coming, I feel it coming, babe
+I feel it coming, I feel it coming, babe
+I feel it coming, I feel it coming, babe
+I feel it coming, I feel it coming, babe</t>
+  </si>
+  <si>
+    <t>We were the kings and queens of promise
+We were the victims of ourselves
+Maybe the children of a lesser God
+Between heaven and hell
+Heaven and hell</t>
+  </si>
+  <si>
+    <t>High strung and poorly hung
+I think we're much too young
+I hear a sound from your left lung
+A melody so beautifuly sung</t>
+  </si>
+  <si>
+    <t>No, I don't want no scrubs
+A scrub is a guy that can't get no love from me
+Hangin' out the passenger side of his best friend's ride
+Trying to holla at me (Whoo)</t>
+  </si>
+  <si>
+    <t>I wanna talk about me
+Wanna talk about I
+Wanna talk about number one
+Oh my me my
+What I think, what I like, what I know, what I want, what I see</t>
+  </si>
+  <si>
+    <t>Mickey</t>
+  </si>
+  <si>
+    <t>Oh Mickey
+You're so fine
+You're so fine
+You blow my mind
+Hey Mickey!
+Hey Mickey!</t>
+  </si>
+  <si>
+    <t>At that honky tonk badonkadonk
+Keepin' perfect rhythm, make ya wanna swing along
+Got it goin' on like Donkey Kong
+And whoo-wee, shut my mouth, slap your grandma
+There oughta be a law, get the Sheriff on the phone
+Lord have mercy, how'd she even get them britches on
+That honky tonk badonkadonk</t>
+  </si>
+  <si>
+    <t>But tell me, did you sail across the sun?
+Did you make it to the Milky Way
+To see the lights all faded
+And that heaven is overrated?
+Tell me, did you fall from a shooting star?</t>
+  </si>
+  <si>
+    <t>Back off, I'll take you on
+Headstrong to take on anyone
+I know that you are wrong
+Headstrong, we're headstrong</t>
+  </si>
+  <si>
+    <t>I have these thoughts so often, I ought
+To replace that slot with what I once bought
+'Cause somebody stole my car radio
+And now I just sit in silence</t>
+  </si>
+  <si>
+    <t>All my friends are heathens, take it slow
+Wait for them to ask you who you know
+Please don't make any sudden moves
+You don't know the half of the abuse</t>
+  </si>
+  <si>
+    <t>I can't believe how much I hate
+Pressures of a new place roll my way
+Jumpsuit, jumpsuit, cover me
+Jumpsuit, jumpsuit, cover me</t>
+  </si>
+  <si>
+    <t>If I keep moving, they won't know
+I'll morph to someone else
+What they throw at me's too slow
+I'll morph to someone else
+I'm just a ghost
+I'll morph to someone else
+A defense mechanism mode</t>
+  </si>
+  <si>
+    <t>Stay with me, no, you don't need to run
+Stay with me, my blood, you don't need to run
+Stay with me, no, you don't need to run
+Stay with me, my blood, you don't need to run</t>
+  </si>
+  <si>
+    <t>Oh-woah-woah, oh-woah-woah, I'm fallin'
+So I'm takin' my time on my ride, oh-woah-woah, I'm fallin'
+So I'm takin' my time on my ride
+Takin' my time on my ride</t>
+  </si>
+  <si>
+    <t>Wish we could turn back time to the good old days
+When our momma sang us to sleep, but now we're stressed out
+Wish we could turn back time to the good old days
+When our momma sang us to sleep, but now we're stressed out</t>
+  </si>
+  <si>
+    <t>If I could fall into the sky
+Do you think time would pass me by?
+'Cause you know I'd walk a thousand miles
+If I could just see you
+Tonight</t>
+  </si>
+  <si>
+    <t>The Vengabus is coming
+And everybody's jumping
+New York to San Francisco
+An intercity disco
+The wheels of steel are turning
+And traffic lights are burning
+So if you like to party
+Get on and move your body</t>
+  </si>
+  <si>
+    <t>It's fun to stay at the Y.M.C.A
+It's fun to stay at the Y.M.C.A
+They have everything for young men to enjoy
+You can hang out with all the boys
+It's fun to stay at the Y.M.C.A
+It's fun to stay at the Y.M.C.A</t>
+  </si>
+  <si>
+    <t>She's my cherry pie
+Cool drink of water, such a sweet surprise
+Tastes so good, makes a grown man cry
+Sweet Cherry Pie</t>
+  </si>
+  <si>
+    <t>Cold pizza, tie-dye shirts
+Broken hearts, give'm here, give'm here
+Hand me downs, give me give me leftovers
+Give me give me sloppy seconds
+Give em here, give em here</t>
+  </si>
+  <si>
+    <t>We been spending most our lives
+Living in an Amish paradise
+I've churned butter once or twice
+Living in an Amish paradise
+It's hard work and sacrifice
+Living in an Amish paradise
+We sell quilts at discount price
+Living in an Amish paradise</t>
+  </si>
+  <si>
+    <t>First in my class here at MIT
+Got skills, I'm a champion at D&amp;D
+M.C. Escher—that's my favorite "M.C."
+Keep your 40, I'll just have an Earl Grey tea
+My rims never spin, to the contrary
+You'll find that they're quite stationary
+All of my action figures are cherry
+Stephen Hawking's in my library</t>
+  </si>
+  <si>
+    <t>I hate these word crimes
+Like "I could care less" (hey, hey, hey)
+That means you do care (whoa)
+At least a little
+Don't be a moron (hey, hey)
+You'd better slow down
+And use the right pronoun (hey, hey)
+Show the world you're no clown</t>
+  </si>
+  <si>
+    <t>Cause I'm just a teenage dirtbag, baby
+Yeah, I'm just a teenage dirtbag, baby
+Listen to Iron Maiden, baby, with me</t>
+  </si>
+  <si>
+    <t>And I will always love you
+I will always love you
+You
+My darling, you</t>
+  </si>
+  <si>
+    <t>DJ Jazzy Jeff &amp; The Fresh Prince</t>
+  </si>
+  <si>
+    <t>Now this is a story all about how
+My life got flipped turned upside down
+And I'd like to take a minute, just sit right there
+I'll tell you how I became the prince of a town called Bel-Air</t>
+  </si>
+  <si>
+    <t>Comme te po' capì chi te vò bene
+Si tu le parle 'mmiezzo americano?
+Quando se fa l'ammore sotto 'a luna
+Come te vene 'capa e di: "I love you!?"
+Pa pa l' americano</t>
+  </si>
+  <si>
+    <t>Oh darling you are the only one, it's automatic
+No one can love the way you do, it's automatic
+When you walk in the room you change my mood, it's automatic
+It's automatic, it's automatic</t>
+  </si>
+  <si>
+    <t>Pokémon Theme</t>
+  </si>
+  <si>
+    <t>Pokémon</t>
+  </si>
+  <si>
+    <t>I wanna be the very best
+Like no one ever was
+To catch them is my real test
+To train them is my cause</t>
+  </si>
+  <si>
+    <t>SpongeBob SquarePants</t>
+  </si>
+  <si>
+    <t>Who lives in a pineapple under the sea?
+SpongeBob SquarePants!
+Absorbent and yellow and porous is he
+SpongeBob SquarePants!
+If nautical nonsense be something you wish!
+SpongeBob SquarePants!
+Then drop on the deck and flop like a fish!
+SpongeBob SquarePants!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3925,2293 +4579,2299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H336"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D231" sqref="D231"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D334" sqref="D334"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="E1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="E2">
         <f>LEN(D2)</f>
         <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E59" si="0">LEN(D3)</f>
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>669</v>
+        <v>641</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="C17" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="C19" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C21" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>675</v>
+        <v>647</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="C24" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>681</v>
+        <v>653</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C26" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="C27" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="C28" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="C29" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C30" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C31" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C32" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C33" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="C35" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C37" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="C42" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="C43" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C44" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C45" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="C46" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C47" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="C48" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="C52" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C53" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C54" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="C57" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="C59" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="E60">
         <f t="shared" ref="E60:E117" si="1">LEN(D60)</f>
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="E61">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C62" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
       <c r="E62">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C63" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="E63">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
       <c r="C64" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="E64">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="C65" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="E65">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="C66" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
       <c r="E66">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="C67" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
       <c r="E67">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="C68" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C70" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C74" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C77" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C78" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C79" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="C80" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C81" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="C83" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="C84" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="C85" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C86" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C87" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C88" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="C89" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C90" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="C91" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C92" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C93" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C95" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="C96" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="C97" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C98" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="C99" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C100" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="C101" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C102" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C103" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>772</v>
+        <v>744</v>
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C104" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>773</v>
+        <v>745</v>
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C105" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C106" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="C107" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C108" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="C109" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="C110" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B111" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="C111" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="C112" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="E112">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="C113" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="E113">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C115" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="E115">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C116" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="E116">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C117" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="E117">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="C118" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="E118">
         <f t="shared" ref="E118:E178" si="2">LEN(D118)</f>
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C119" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="E119">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B120" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C120" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="E120">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="C121" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="E121">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="C122" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
       <c r="E122">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="C123" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="E123">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>796</v>
+        <v>768</v>
       </c>
       <c r="C124" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>797</v>
+        <v>769</v>
       </c>
       <c r="E124">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="C125" t="s">
-        <v>798</v>
+        <v>770</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>799</v>
+        <v>771</v>
       </c>
       <c r="E125">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="C126" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>800</v>
+        <v>772</v>
       </c>
       <c r="E126">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C127" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>801</v>
+        <v>773</v>
       </c>
       <c r="E127">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C128" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="E128">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C129" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="E129">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="C130" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>804</v>
+        <v>776</v>
       </c>
       <c r="E130">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="C131" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>810</v>
+        <v>782</v>
       </c>
       <c r="E131">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="C132" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>805</v>
+        <v>777</v>
       </c>
       <c r="E132">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B133" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C133" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>811</v>
+        <v>783</v>
       </c>
       <c r="E133">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>808</v>
+        <v>780</v>
       </c>
       <c r="C134" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>812</v>
+        <v>784</v>
       </c>
       <c r="E134">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>807</v>
+        <v>779</v>
       </c>
       <c r="C135" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>813</v>
+        <v>785</v>
       </c>
       <c r="E135">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>806</v>
+        <v>778</v>
       </c>
       <c r="C136" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>814</v>
+        <v>786</v>
       </c>
       <c r="E136">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C137" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>815</v>
+        <v>787</v>
       </c>
       <c r="E137">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C138" t="s">
-        <v>816</v>
+        <v>788</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>817</v>
+        <v>789</v>
       </c>
       <c r="E138">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B139" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="C139" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>818</v>
+        <v>790</v>
       </c>
       <c r="E139">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="6" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>819</v>
+        <v>791</v>
       </c>
       <c r="E140" s="6">
         <f t="shared" si="2"/>
@@ -6219,192 +6879,192 @@
       </c>
       <c r="F140" s="6"/>
     </row>
-    <row r="141" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C141" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>820</v>
+        <v>792</v>
       </c>
       <c r="E141">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C142" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>821</v>
+        <v>793</v>
       </c>
       <c r="E142">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>822</v>
+        <v>794</v>
       </c>
       <c r="C143" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>823</v>
+        <v>795</v>
       </c>
       <c r="E143">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C144" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>824</v>
+        <v>796</v>
       </c>
       <c r="E144">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>825</v>
+        <v>797</v>
       </c>
       <c r="C145" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>826</v>
+        <v>798</v>
       </c>
       <c r="E145">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C146" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>827</v>
+        <v>799</v>
       </c>
       <c r="E146">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C147" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>828</v>
+        <v>800</v>
       </c>
       <c r="E147">
         <f t="shared" si="2"/>
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C148" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>829</v>
+        <v>801</v>
       </c>
       <c r="E148">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="C149" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>830</v>
+        <v>802</v>
       </c>
       <c r="E149">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C150" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>831</v>
+        <v>803</v>
       </c>
       <c r="E150">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="C151" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>832</v>
+        <v>804</v>
       </c>
       <c r="E151">
         <f t="shared" si="2"/>
         <v>274</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="C152" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>833</v>
+        <v>805</v>
       </c>
       <c r="E152">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="C153" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153">
@@ -6412,12 +7072,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C154" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154">
@@ -6425,2623 +7085,2876 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B155" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="C155" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>834</v>
+        <v>806</v>
       </c>
       <c r="E155">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B156" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="C156" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>835</v>
+        <v>807</v>
       </c>
       <c r="E156">
         <f t="shared" si="2"/>
         <v>279</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>846</v>
+        <v>818</v>
       </c>
       <c r="C157" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>837</v>
+        <v>809</v>
       </c>
       <c r="E157">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>847</v>
+        <v>819</v>
       </c>
       <c r="C158" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>838</v>
+        <v>810</v>
       </c>
       <c r="E158">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>836</v>
+        <v>808</v>
       </c>
       <c r="C159" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>839</v>
+        <v>811</v>
       </c>
       <c r="E159">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="C160" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>840</v>
+        <v>812</v>
       </c>
       <c r="E160">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>848</v>
+        <v>820</v>
       </c>
       <c r="C161" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>841</v>
+        <v>813</v>
       </c>
       <c r="E161">
         <f t="shared" si="2"/>
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>849</v>
+        <v>821</v>
       </c>
       <c r="C162" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>842</v>
+        <v>814</v>
       </c>
       <c r="E162">
         <f t="shared" si="2"/>
         <v>196</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="C163" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>843</v>
+        <v>815</v>
       </c>
       <c r="E163">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="C164" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>844</v>
+        <v>816</v>
       </c>
       <c r="E164">
         <f t="shared" si="2"/>
         <v>268</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C165" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>845</v>
+        <v>817</v>
       </c>
       <c r="E165">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B166" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="C166" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>850</v>
+        <v>822</v>
       </c>
       <c r="E166">
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B167" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="C167" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>851</v>
+        <v>823</v>
       </c>
       <c r="E167">
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C168" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>852</v>
+        <v>824</v>
       </c>
       <c r="E168">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="C169" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E169">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C170" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>853</v>
+        <v>825</v>
       </c>
       <c r="E170">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C171" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="E171">
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="C172" t="s">
-        <v>855</v>
+        <v>827</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>856</v>
+        <v>828</v>
       </c>
       <c r="E172">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="C173" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>857</v>
+        <v>829</v>
       </c>
       <c r="E173">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C174" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="E174">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="C175" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>858</v>
+        <v>830</v>
       </c>
       <c r="E175">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="C176" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="E176">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="C177" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>860</v>
+        <v>832</v>
       </c>
       <c r="E177">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B178" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="C178" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="E178">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B179" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="C179" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>862</v>
+        <v>834</v>
       </c>
       <c r="E179">
-        <f t="shared" ref="E179:E237" si="3">LEN(D179)</f>
+        <f t="shared" ref="E179:E235" si="3">LEN(D179)</f>
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C180" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>863</v>
+        <v>835</v>
       </c>
       <c r="E180">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="C181" t="s">
-        <v>864</v>
+        <v>836</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>865</v>
+        <v>837</v>
       </c>
       <c r="E181">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="C182" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>866</v>
+        <v>838</v>
       </c>
       <c r="E182">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>867</v>
+        <v>839</v>
       </c>
       <c r="E183">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>868</v>
+        <v>840</v>
       </c>
       <c r="E184">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>869</v>
+        <v>841</v>
       </c>
       <c r="E185">
         <f t="shared" si="3"/>
         <v>157</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C186" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>870</v>
+        <v>842</v>
       </c>
       <c r="E186">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B187" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C187" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>871</v>
+        <v>843</v>
       </c>
       <c r="E187">
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="C188" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>872</v>
+        <v>844</v>
       </c>
       <c r="E188">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="C189" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>873</v>
+        <v>845</v>
       </c>
       <c r="E189">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="C190" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>874</v>
+        <v>846</v>
       </c>
       <c r="E190">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B191" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="C191" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>875</v>
+        <v>847</v>
       </c>
       <c r="E191">
         <f t="shared" si="3"/>
         <v>181</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B192" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C192" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>876</v>
+        <v>848</v>
       </c>
       <c r="E192">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="C193" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>877</v>
+        <v>849</v>
       </c>
       <c r="E193">
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="C194" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>878</v>
+        <v>850</v>
       </c>
       <c r="E194">
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="C195" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>879</v>
+        <v>851</v>
       </c>
       <c r="E195">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B196" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C196" t="s">
-        <v>880</v>
+        <v>852</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>881</v>
+        <v>853</v>
       </c>
       <c r="E196">
         <f t="shared" si="3"/>
         <v>281</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C197" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>882</v>
+        <v>854</v>
       </c>
       <c r="E197">
         <f t="shared" si="3"/>
         <v>171</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="C198" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>883</v>
+        <v>855</v>
       </c>
       <c r="E198">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C199" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>884</v>
+        <v>856</v>
       </c>
       <c r="E199">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="C200" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>885</v>
+        <v>857</v>
       </c>
       <c r="E200">
         <f t="shared" si="3"/>
         <v>139</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="C201" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>886</v>
+        <v>858</v>
       </c>
       <c r="E201">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B202" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C202" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>887</v>
+        <v>859</v>
       </c>
       <c r="E202">
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B203" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C203" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>888</v>
+        <v>860</v>
       </c>
       <c r="E203">
         <f t="shared" si="3"/>
         <v>174</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B204" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="C204" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>889</v>
+        <v>861</v>
       </c>
       <c r="E204">
         <f t="shared" si="3"/>
         <v>137</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B205" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C205" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>890</v>
+        <v>862</v>
       </c>
       <c r="E205">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="C206" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>891</v>
+        <v>863</v>
       </c>
       <c r="E206">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="C207" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>895</v>
+        <v>867</v>
       </c>
       <c r="E207">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B208" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="C208" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>896</v>
+        <v>868</v>
       </c>
       <c r="E208">
         <f t="shared" si="3"/>
         <v>177</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="C209" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>897</v>
+        <v>869</v>
       </c>
       <c r="E209">
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C210" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>898</v>
+        <v>870</v>
       </c>
       <c r="E210">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="C211" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>899</v>
+        <v>871</v>
       </c>
       <c r="E211">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C212" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="E212">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C213" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>901</v>
+        <v>873</v>
       </c>
       <c r="E213">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="C214" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="E214">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="C215" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="E215">
         <f t="shared" si="3"/>
         <v>134</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="C216" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>904</v>
+        <v>876</v>
       </c>
       <c r="E216">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="C217" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="E217">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B218" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C218" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>906</v>
+        <v>878</v>
       </c>
       <c r="E218">
         <f t="shared" si="3"/>
         <v>153</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="C219" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>907</v>
+        <v>879</v>
       </c>
       <c r="E219">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B220" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="C220" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>908</v>
+        <v>880</v>
       </c>
       <c r="E220">
         <f t="shared" si="3"/>
         <v>171</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B221" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C221" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>909</v>
+        <v>881</v>
       </c>
       <c r="E221">
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B222" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="C222" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>911</v>
+        <v>883</v>
       </c>
       <c r="E222">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
       <c r="B223" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="C223" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>912</v>
+        <v>884</v>
       </c>
       <c r="E223">
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="C224" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>913</v>
+        <v>885</v>
       </c>
       <c r="E224">
         <f t="shared" si="3"/>
         <v>305</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B225" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C225" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>914</v>
+        <v>886</v>
       </c>
       <c r="E225">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C226" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>915</v>
+        <v>887</v>
       </c>
       <c r="E226">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>916</v>
+        <v>888</v>
       </c>
       <c r="C227" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="E227">
         <f>LEN(D227)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="C228" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="E228">
         <f>LEN(D228)</f>
         <v>95</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B229" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="C229" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>918</v>
+        <v>890</v>
       </c>
       <c r="E229">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="C230" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>919</v>
+        <v>891</v>
       </c>
       <c r="E230">
         <f t="shared" si="3"/>
         <v>182</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="C231" t="s">
-        <v>502</v>
+        <v>483</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>892</v>
       </c>
       <c r="E231">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="C232" t="s">
-        <v>502</v>
+        <v>483</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>893</v>
       </c>
       <c r="E232">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="C233" t="s">
-        <v>502</v>
+        <v>483</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>894</v>
       </c>
       <c r="E233">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="C234" t="s">
-        <v>502</v>
+        <v>483</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>895</v>
       </c>
       <c r="E234">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="C235" t="s">
-        <v>502</v>
+        <v>483</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>896</v>
       </c>
       <c r="E235">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="C236" t="s">
-        <v>502</v>
+        <v>483</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>897</v>
       </c>
       <c r="E236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E236:E298" si="4">LEN(D236)</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C237" t="s">
-        <v>502</v>
+        <v>483</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="E237">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="C238" t="s">
-        <v>502</v>
+        <v>492</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>899</v>
       </c>
       <c r="E238">
-        <f t="shared" ref="E238:E301" si="4">LEN(D238)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>64</v>
+      </c>
       <c r="B239" t="s">
-        <v>508</v>
+        <v>137</v>
       </c>
       <c r="C239" t="s">
-        <v>502</v>
+        <v>138</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>900</v>
       </c>
       <c r="E239">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="C240" t="s">
-        <v>513</v>
+        <v>494</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>901</v>
       </c>
       <c r="E240">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>70</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C241" t="s">
-        <v>149</v>
+        <v>198</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>902</v>
       </c>
       <c r="E241">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>514</v>
+        <v>210</v>
       </c>
       <c r="C242" t="s">
-        <v>515</v>
+        <v>211</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>903</v>
       </c>
       <c r="E242">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C243" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>904</v>
       </c>
       <c r="E243">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>222</v>
+        <v>477</v>
       </c>
       <c r="C244" t="s">
-        <v>223</v>
+        <v>478</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>905</v>
       </c>
       <c r="E244">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>224</v>
+        <v>479</v>
       </c>
       <c r="C245" t="s">
-        <v>223</v>
+        <v>478</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>906</v>
       </c>
       <c r="E245">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="C246" t="s">
-        <v>496</v>
+        <v>478</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>907</v>
       </c>
       <c r="E246">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="C247" t="s">
-        <v>496</v>
+        <v>478</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>908</v>
       </c>
       <c r="E247">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>500</v>
+        <v>909</v>
       </c>
       <c r="C248" t="s">
-        <v>496</v>
+        <v>478</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>910</v>
       </c>
       <c r="E248">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>84</v>
+      </c>
       <c r="B249" t="s">
-        <v>498</v>
+        <v>603</v>
       </c>
       <c r="C249" t="s">
-        <v>496</v>
+        <v>266</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>911</v>
       </c>
       <c r="E249">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C250" t="s">
         <v>496</v>
       </c>
+      <c r="D250" s="3" t="s">
+        <v>912</v>
+      </c>
       <c r="E250">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B251" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C251" t="s">
-        <v>278</v>
+        <v>125</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>913</v>
       </c>
       <c r="E251">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>94</v>
+      </c>
       <c r="B252" t="s">
-        <v>516</v>
+        <v>604</v>
       </c>
       <c r="C252" t="s">
-        <v>517</v>
+        <v>267</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>915</v>
       </c>
       <c r="E252">
         <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>52</v>
-      </c>
       <c r="B253" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="C253" t="s">
-        <v>134</v>
+        <v>268</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>917</v>
       </c>
       <c r="E253">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>101</v>
-      </c>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C254" t="s">
-        <v>279</v>
+        <v>498</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="E254">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>17</v>
-      </c>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>629</v>
+        <v>497</v>
       </c>
       <c r="C255" t="s">
-        <v>280</v>
+        <v>498</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>919</v>
       </c>
       <c r="E255">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>0</v>
-      </c>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>630</v>
+        <v>552</v>
       </c>
       <c r="C256" t="s">
-        <v>281</v>
+        <v>498</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>920</v>
       </c>
       <c r="E256">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>650</v>
+        <v>922</v>
       </c>
       <c r="C257" t="s">
-        <v>519</v>
+        <v>499</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>921</v>
       </c>
       <c r="E257">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="C258" t="s">
-        <v>519</v>
+        <v>501</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>923</v>
       </c>
       <c r="E258">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>576</v>
+        <v>502</v>
       </c>
       <c r="C259" t="s">
-        <v>519</v>
+        <v>503</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>924</v>
       </c>
       <c r="E259">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
       <c r="B260" t="s">
-        <v>520</v>
+        <v>606</v>
       </c>
       <c r="C260" t="s">
-        <v>521</v>
+        <v>269</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>925</v>
       </c>
       <c r="E260">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>522</v>
+        <v>187</v>
       </c>
       <c r="C261" t="s">
-        <v>523</v>
+        <v>188</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>926</v>
       </c>
       <c r="E261">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="C262" t="s">
-        <v>525</v>
+        <v>554</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>927</v>
       </c>
       <c r="E262">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>5</v>
-      </c>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>631</v>
+        <v>508</v>
       </c>
       <c r="C263" t="s">
-        <v>282</v>
+        <v>505</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>928</v>
       </c>
       <c r="E263">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>199</v>
+        <v>507</v>
       </c>
       <c r="C264" t="s">
-        <v>200</v>
+        <v>505</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>929</v>
       </c>
       <c r="E264">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>53</v>
+      </c>
       <c r="B265" t="s">
-        <v>577</v>
+        <v>127</v>
       </c>
       <c r="C265" t="s">
-        <v>578</v>
+        <v>505</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>930</v>
       </c>
       <c r="E265">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="C266" t="s">
-        <v>527</v>
+        <v>505</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>935</v>
       </c>
       <c r="E266">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="C267" t="s">
-        <v>527</v>
+        <v>505</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>936</v>
       </c>
       <c r="E267">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>57</v>
-      </c>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>136</v>
+        <v>933</v>
       </c>
       <c r="C268" t="s">
-        <v>137</v>
-      </c>
-      <c r="E268">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="C269" t="s">
-        <v>527</v>
-      </c>
-      <c r="E269">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>100</v>
+      </c>
       <c r="B270" t="s">
-        <v>528</v>
+        <v>607</v>
       </c>
       <c r="C270" t="s">
-        <v>527</v>
+        <v>270</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>937</v>
       </c>
       <c r="E270">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="B271" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="C271" t="s">
-        <v>283</v>
+        <v>271</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>938</v>
       </c>
       <c r="E271">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B272" t="s">
-        <v>633</v>
+        <v>111</v>
       </c>
       <c r="C272" t="s">
-        <v>284</v>
+        <v>272</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="E272">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="B273" t="s">
-        <v>634</v>
+        <v>166</v>
       </c>
       <c r="C273" t="s">
-        <v>285</v>
+        <v>273</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>940</v>
       </c>
       <c r="E273">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="B274" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="C274" t="s">
-        <v>286</v>
+        <v>273</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>941</v>
       </c>
       <c r="E274">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="B275" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="C275" t="s">
-        <v>287</v>
+        <v>273</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>942</v>
       </c>
       <c r="E275">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="B276" t="s">
-        <v>174</v>
+        <v>609</v>
       </c>
       <c r="C276" t="s">
-        <v>287</v>
+        <v>274</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>943</v>
       </c>
       <c r="E276">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>45</v>
-      </c>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>129</v>
+        <v>946</v>
       </c>
       <c r="C277" t="s">
-        <v>287</v>
+        <v>274</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>945</v>
       </c>
       <c r="E277">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>83</v>
-      </c>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>635</v>
+        <v>947</v>
       </c>
       <c r="C278" t="s">
-        <v>288</v>
+        <v>274</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>948</v>
       </c>
       <c r="E278">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B279" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="C279" t="s">
-        <v>288</v>
+        <v>274</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>944</v>
       </c>
       <c r="E279">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C280" t="s">
-        <v>341</v>
+        <v>323</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>949</v>
       </c>
       <c r="E280">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C281" t="s">
-        <v>341</v>
+        <v>323</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>950</v>
       </c>
       <c r="E281">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C282" t="s">
-        <v>341</v>
+        <v>323</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>951</v>
       </c>
       <c r="E282">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B283" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C283" t="s">
-        <v>289</v>
+        <v>275</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>952</v>
       </c>
       <c r="E283">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C284" t="s">
-        <v>359</v>
+        <v>341</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>953</v>
       </c>
       <c r="E284">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="C285" t="s">
-        <v>565</v>
+        <v>541</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>954</v>
       </c>
       <c r="E285">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="C286" t="s">
-        <v>402</v>
+        <v>384</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>955</v>
       </c>
       <c r="E286">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C287" t="s">
-        <v>402</v>
+        <v>384</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>956</v>
       </c>
       <c r="E287">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B288" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C288" t="s">
-        <v>290</v>
+        <v>276</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>957</v>
       </c>
       <c r="E288">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B289" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C289" t="s">
-        <v>291</v>
+        <v>277</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>958</v>
       </c>
       <c r="E289">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="C290" t="s">
-        <v>292</v>
+        <v>278</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>959</v>
       </c>
       <c r="E290">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="C291" t="s">
-        <v>292</v>
+        <v>278</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>960</v>
       </c>
       <c r="E291">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="C292" t="s">
-        <v>292</v>
+        <v>278</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>961</v>
       </c>
       <c r="E292">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B293" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="C293" t="s">
-        <v>293</v>
+        <v>827</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>962</v>
       </c>
       <c r="E293">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>69</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>638</v>
+        <v>549</v>
       </c>
       <c r="C294" t="s">
-        <v>294</v>
+        <v>143</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>963</v>
       </c>
       <c r="E294">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B295" t="s">
-        <v>154</v>
+        <v>612</v>
       </c>
       <c r="C295" t="s">
-        <v>155</v>
+        <v>279</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>964</v>
       </c>
       <c r="E295">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
-        <v>573</v>
+        <v>457</v>
       </c>
       <c r="C296" t="s">
-        <v>155</v>
+        <v>458</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>965</v>
       </c>
       <c r="E296">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="B297" t="s">
-        <v>639</v>
+        <v>163</v>
       </c>
       <c r="C297" t="s">
-        <v>295</v>
+        <v>280</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>966</v>
       </c>
       <c r="E297">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>40</v>
+      </c>
       <c r="B298" t="s">
-        <v>475</v>
+        <v>119</v>
       </c>
       <c r="C298" t="s">
-        <v>476</v>
+        <v>281</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>967</v>
       </c>
       <c r="E298">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>43</v>
-      </c>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
-        <v>127</v>
+        <v>519</v>
       </c>
       <c r="C299" t="s">
-        <v>296</v>
+        <v>520</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>968</v>
       </c>
       <c r="E299">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>184</v>
-      </c>
+        <f t="shared" ref="E299:E333" si="5">LEN(D299)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
-        <v>175</v>
+        <v>523</v>
       </c>
       <c r="C300" t="s">
-        <v>297</v>
+        <v>524</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>969</v>
       </c>
       <c r="E300">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>42</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
-        <v>126</v>
+        <v>971</v>
       </c>
       <c r="C301" t="s">
-        <v>298</v>
+        <v>524</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>970</v>
       </c>
       <c r="E301">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
-        <v>543</v>
+        <v>972</v>
       </c>
       <c r="C302" t="s">
-        <v>544</v>
+        <v>524</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>973</v>
       </c>
       <c r="E302">
-        <f t="shared" ref="E302:E336" si="5">LEN(D302)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
-        <v>547</v>
+        <v>974</v>
       </c>
       <c r="C303" t="s">
-        <v>548</v>
+        <v>524</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>975</v>
       </c>
       <c r="E303">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B304" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C304" t="s">
-        <v>299</v>
+        <v>282</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>976</v>
       </c>
       <c r="E304">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="C305" t="s">
-        <v>532</v>
+        <v>510</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>977</v>
       </c>
       <c r="E305">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>15</v>
       </c>
       <c r="B306" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="C306" t="s">
-        <v>300</v>
+        <v>283</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>978</v>
       </c>
       <c r="E306">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B307" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="C307" t="s">
-        <v>301</v>
+        <v>284</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>979</v>
       </c>
       <c r="E307">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>63</v>
+      </c>
       <c r="B308" t="s">
-        <v>533</v>
+        <v>980</v>
       </c>
       <c r="C308" t="s">
-        <v>534</v>
+        <v>285</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>981</v>
       </c>
       <c r="E308">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B309" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
       <c r="C309" t="s">
-        <v>302</v>
+        <v>286</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>982</v>
       </c>
       <c r="E309">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B310" t="s">
-        <v>643</v>
+        <v>133</v>
       </c>
       <c r="C310" t="s">
-        <v>303</v>
+        <v>134</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>983</v>
       </c>
       <c r="E310">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B311" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C311" t="s">
-        <v>144</v>
+        <v>136</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>984</v>
       </c>
       <c r="E311">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>67</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
       <c r="C312" t="s">
-        <v>147</v>
+        <v>512</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>985</v>
       </c>
       <c r="E312">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="C313" t="s">
-        <v>536</v>
+        <v>512</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>986</v>
       </c>
       <c r="E313">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="C314" t="s">
-        <v>536</v>
+        <v>512</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>987</v>
       </c>
       <c r="E314">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="C315" t="s">
-        <v>536</v>
+        <v>512</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>988</v>
       </c>
       <c r="E315">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="C316" t="s">
-        <v>536</v>
+        <v>512</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>989</v>
       </c>
       <c r="E316">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="C317" t="s">
-        <v>536</v>
+        <v>512</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>990</v>
       </c>
       <c r="E317">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="C318" t="s">
-        <v>536</v>
+        <v>512</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>991</v>
       </c>
       <c r="E318">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>46</v>
+      </c>
       <c r="B319" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
       <c r="C319" t="s">
-        <v>536</v>
+        <v>287</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>992</v>
       </c>
       <c r="E319">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B320" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="C320" t="s">
-        <v>304</v>
+        <v>288</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="E320">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>102</v>
       </c>
       <c r="B321" t="s">
-        <v>645</v>
+        <v>109</v>
       </c>
       <c r="C321" t="s">
-        <v>305</v>
+        <v>289</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>994</v>
       </c>
       <c r="E321">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>109</v>
-      </c>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="C322" t="s">
-        <v>306</v>
+        <v>196</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>995</v>
       </c>
       <c r="E322">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
-        <v>207</v>
+        <v>521</v>
       </c>
       <c r="C323" t="s">
-        <v>208</v>
+        <v>522</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>996</v>
       </c>
       <c r="E323">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
-        <v>545</v>
+        <v>624</v>
       </c>
       <c r="C324" t="s">
-        <v>546</v>
+        <v>525</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>997</v>
       </c>
       <c r="E324">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="C325" t="s">
-        <v>549</v>
+        <v>525</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>998</v>
       </c>
       <c r="E325">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
-        <v>653</v>
+        <v>526</v>
       </c>
       <c r="C326" t="s">
-        <v>549</v>
+        <v>525</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>999</v>
       </c>
       <c r="E326">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>160</v>
+      </c>
       <c r="B327" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="C327" t="s">
-        <v>549</v>
+        <v>290</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>1000</v>
       </c>
       <c r="E327">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="B328" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="C328" t="s">
-        <v>307</v>
+        <v>291</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>1001</v>
       </c>
       <c r="E328">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B329" t="s">
-        <v>647</v>
+        <v>58</v>
       </c>
       <c r="C329" t="s">
-        <v>308</v>
+        <v>1002</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>1003</v>
       </c>
       <c r="E329">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>62</v>
-      </c>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="C330" t="s">
-        <v>145</v>
+        <v>190</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>1004</v>
       </c>
       <c r="E330">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>46</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
-        <v>130</v>
+        <v>527</v>
       </c>
       <c r="C331" t="s">
-        <v>309</v>
+        <v>528</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>1005</v>
       </c>
       <c r="E331">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>80</v>
+      </c>
       <c r="B332" t="s">
-        <v>201</v>
+        <v>1006</v>
       </c>
       <c r="C332" t="s">
-        <v>202</v>
+        <v>1007</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>1008</v>
       </c>
       <c r="E332">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>85</v>
+      </c>
       <c r="B333" t="s">
-        <v>551</v>
+        <v>85</v>
       </c>
       <c r="C333" t="s">
-        <v>552</v>
+        <v>1009</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>1010</v>
       </c>
       <c r="E333">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>40</v>
-      </c>
-      <c r="B334" t="s">
-        <v>40</v>
-      </c>
-      <c r="E334">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>86</v>
-      </c>
-      <c r="B335" t="s">
-        <v>86</v>
-      </c>
-      <c r="E335">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>92</v>
-      </c>
-      <c r="B336" t="s">
-        <v>92</v>
-      </c>
-      <c r="E336">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D336">
-    <sortState ref="A2:D336">
-      <sortCondition ref="C1:C336"/>
+  <autoFilter ref="A1:D333" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D333">
+      <sortCondition ref="C1:C333"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B308:D310 D301 D222:D226 D228:D236 B239:D239 B240:B241 B222:B238 B242:D244 B245:C249 B250:D259 B269:D274 B290:D295 B300:C301 B314:D317 B318:B322 B311:B313 B302:B307 B296:B299 B275:B289 B260:B268 B323:D1048576 E1 B1:D221">
+  <conditionalFormatting sqref="B313:D316 B308:D309 D298 D222:D226 D228:D234 B237:D237 B238:B239 B222:B236 B240:D242 B243:C247 B248:D256 B290:D293 B297:C298 B317:B321 B310:B312 B299:B307 B294:B296 B273:B289 B257:B265 B322:D1048576 E1 B1:D221 B266:D272">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
